--- a/InputData/io-model/DToPaSoVAbIC/Domestic Taxes on Prod as Shr of Val Added by ISIC Code.xlsx
+++ b/InputData/io-model/DToPaSoVAbIC/Domestic Taxes on Prod as Shr of Val Added by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/io-model/dtopasovabic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lainie Rowland\Desktop\GitHub Repos\state-eps-data-repository\CA\io-model\DToPaSoVAbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D58E8D-A4DF-924C-B0A1-7E07C7930C0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4B28D2E-C55E-4D50-94FC-C16E00312658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="600" windowWidth="18270" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="1125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="1128">
   <si>
     <t>Source:</t>
   </si>
@@ -3412,6 +3412,15 @@
   </si>
   <si>
     <t>can be found in the OECD's "STAN Database for Structural Analysis," variable EMPN, at:</t>
+  </si>
+  <si>
+    <t>chemicals</t>
+  </si>
+  <si>
+    <t>pharmaceuticals</t>
+  </si>
+  <si>
+    <t>California</t>
   </si>
 </sst>
 </file>
@@ -3791,7 +3800,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3938,7 +3947,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3954,6 +3962,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -3984,7 +3993,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4272,20 +4280,23 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="77.5" customWidth="1"/>
+    <col min="2" max="2" width="77.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="86">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C1" s="75">
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4293,197 +4304,197 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" s="18" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="75" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="74" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="75" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="74" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="75" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="74" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="16">
         <v>0.9686815713640794</v>
       </c>
@@ -4510,21 +4521,21 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="2.5" style="6" customWidth="1"/>
-    <col min="3" max="24" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="31" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="34" width="9.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="9.1640625" style="6"/>
+    <col min="1" max="1" width="27.453125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="2.453125" style="6" customWidth="1"/>
+    <col min="3" max="24" width="9.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="31" width="9.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="9.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="9.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
@@ -4533,12 +4544,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="26" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:38" ht="23" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
@@ -4582,7 +4593,7 @@
       <c r="AK3" s="84"/>
       <c r="AL3" s="85"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="76" t="s">
         <v>4</v>
       </c>
@@ -4626,7 +4637,7 @@
       <c r="AK4" s="79"/>
       <c r="AL4" s="80"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="76" t="s">
         <v>6</v>
       </c>
@@ -4670,7 +4681,7 @@
       <c r="AK5" s="79"/>
       <c r="AL5" s="80"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="76" t="s">
         <v>8</v>
       </c>
@@ -4714,7 +4725,7 @@
       <c r="AK6" s="79"/>
       <c r="AL6" s="80"/>
     </row>
-    <row r="7" spans="1:38" ht="120" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:38" ht="100" x14ac:dyDescent="0.25">
       <c r="A7" s="81" t="s">
         <v>44</v>
       </c>
@@ -4828,7 +4839,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>81</v>
       </c>
@@ -4944,7 +4955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>88</v>
       </c>
@@ -5060,7 +5071,7 @@
         <v>21351.7</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" ht="20" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>89</v>
       </c>
@@ -5176,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" ht="20" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>90</v>
       </c>
@@ -5292,7 +5303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>91</v>
       </c>
@@ -5330,37 +5341,37 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.1640625" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="9" width="20.83203125" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" customWidth="1"/>
-    <col min="11" max="11" width="23.5" customWidth="1"/>
-    <col min="12" max="12" width="22.5" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" customWidth="1"/>
-    <col min="14" max="15" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="48.26953125" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" customWidth="1"/>
+    <col min="3" max="3" width="40.1796875" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" customWidth="1"/>
+    <col min="5" max="5" width="24.1796875" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" customWidth="1"/>
+    <col min="7" max="9" width="20.81640625" customWidth="1"/>
+    <col min="10" max="10" width="19.81640625" customWidth="1"/>
+    <col min="11" max="11" width="23.453125" customWidth="1"/>
+    <col min="12" max="12" width="22.453125" customWidth="1"/>
+    <col min="13" max="13" width="20.26953125" customWidth="1"/>
+    <col min="14" max="15" width="18.453125" customWidth="1"/>
     <col min="16" max="16" width="23" customWidth="1"/>
-    <col min="17" max="17" width="20.83203125" customWidth="1"/>
-    <col min="18" max="18" width="19.1640625" customWidth="1"/>
-    <col min="19" max="19" width="16.5" customWidth="1"/>
+    <col min="17" max="17" width="20.81640625" customWidth="1"/>
+    <col min="18" max="18" width="19.1796875" customWidth="1"/>
+    <col min="19" max="19" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="29" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="29" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="25" t="s">
         <v>146</v>
       </c>
@@ -5419,7 +5430,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>117</v>
       </c>
@@ -5452,7 +5463,7 @@
       <c r="O4" s="30"/>
       <c r="S4" s="30"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="30" t="s">
         <v>120</v>
       </c>
@@ -5506,7 +5517,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>123</v>
       </c>
@@ -5559,7 +5570,7 @@
       </c>
       <c r="S6" s="30"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
         <v>169</v>
       </c>
@@ -5614,12 +5625,12 @@
         <v>86048000000</v>
       </c>
       <c r="R7" s="34">
-        <f>D59*10^6</f>
-        <v>14508000000</v>
+        <f>SUM(D59,D392)*10^6</f>
+        <v>104319000000</v>
       </c>
       <c r="S7" s="30"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="33" t="s">
         <v>126</v>
       </c>
@@ -5651,7 +5662,7 @@
         <v>513760000000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
         <v>129</v>
       </c>
@@ -5720,14 +5731,14 @@
       </c>
       <c r="R9" s="37">
         <f>$S9*(R$7/$S$8)</f>
-        <v>8449972469.6356268</v>
+        <v>60759076237.932114</v>
       </c>
       <c r="S9" s="36">
         <f>I36*10^6</f>
         <v>299232000000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="38" t="s">
         <v>131</v>
       </c>
@@ -5793,14 +5804,14 @@
       </c>
       <c r="R10" s="37">
         <f t="shared" si="0"/>
-        <v>2192126720.6477733</v>
+        <v>15762370235.129244</v>
       </c>
       <c r="S10" s="36">
         <f>J36*10^6</f>
         <v>77628000000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="38" t="s">
         <v>171</v>
       </c>
@@ -5866,14 +5877,14 @@
       </c>
       <c r="R11" s="37">
         <f t="shared" si="0"/>
-        <v>1666403744.9392712</v>
+        <v>11982187225.552788</v>
       </c>
       <c r="S11" s="36">
         <f>K36*10^6</f>
         <v>59011000000</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="38" t="s">
         <v>132</v>
       </c>
@@ -5939,56 +5950,44 @@
       </c>
       <c r="R12" s="37">
         <f t="shared" si="0"/>
-        <v>4591442004.048583</v>
+        <v>33014518777.25008</v>
       </c>
       <c r="S12" s="36">
         <f>L36*10^6</f>
         <v>162593000000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D15" s="68"/>
-      <c r="G15" s="68"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D16" s="68"/>
-      <c r="G16" s="68"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D17" s="68"/>
-      <c r="G17" s="68"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
       <c r="G25" s="1" t="s">
         <v>177</v>
       </c>
@@ -5996,7 +5995,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" ht="29" x14ac:dyDescent="0.35">
       <c r="B26" s="18" t="s">
         <v>178</v>
       </c>
@@ -6024,7 +6023,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>181</v>
       </c>
@@ -6053,7 +6052,7 @@
         <v>7310806</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>184</v>
       </c>
@@ -6083,7 +6082,7 @@
       </c>
       <c r="N28" s="21"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>187</v>
       </c>
@@ -6113,7 +6112,7 @@
       </c>
       <c r="N29" s="21"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>190</v>
       </c>
@@ -6143,7 +6142,7 @@
       </c>
       <c r="N30" s="21"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>193</v>
       </c>
@@ -6172,7 +6171,7 @@
         <v>9964</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>196</v>
       </c>
@@ -6201,7 +6200,7 @@
         <v>129835</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>199</v>
       </c>
@@ -6230,7 +6229,7 @@
         <v>86727</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>202</v>
       </c>
@@ -6259,7 +6258,7 @@
         <v>26971</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>205</v>
       </c>
@@ -6288,7 +6287,7 @@
         <v>16137</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>208</v>
       </c>
@@ -6317,7 +6316,7 @@
         <v>162593</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>211</v>
       </c>
@@ -6346,7 +6345,7 @@
         <v>227490</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>214</v>
       </c>
@@ -6375,7 +6374,7 @@
         <v>1037641</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>217</v>
       </c>
@@ -6404,7 +6403,7 @@
         <v>490800</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>220</v>
       </c>
@@ -6436,7 +6435,7 @@
         <v>11353</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>223</v>
       </c>
@@ -6468,7 +6467,7 @@
         <v>26135</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>226</v>
       </c>
@@ -6497,7 +6496,7 @@
         <v>25947</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>229</v>
       </c>
@@ -6526,7 +6525,7 @@
         <v>46896</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>232</v>
       </c>
@@ -6555,7 +6554,7 @@
         <v>54260</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>235</v>
       </c>
@@ -6584,7 +6583,7 @@
         <v>121224</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>238</v>
       </c>
@@ -6613,7 +6612,7 @@
         <v>28080</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>241</v>
       </c>
@@ -6642,7 +6641,7 @@
         <v>72921</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>244</v>
       </c>
@@ -6674,7 +6673,7 @@
         <v>68800</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>248</v>
       </c>
@@ -6706,7 +6705,7 @@
         <v>8477</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>251</v>
       </c>
@@ -6738,7 +6737,7 @@
         <v>26708</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>254</v>
       </c>
@@ -6770,7 +6769,7 @@
         <v>546841</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>257</v>
       </c>
@@ -6802,7 +6801,7 @@
         <v>128122</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>260</v>
       </c>
@@ -6834,7 +6833,7 @@
         <v>5348</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>263</v>
       </c>
@@ -6866,7 +6865,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>266</v>
       </c>
@@ -6898,7 +6897,7 @@
         <v>27760</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>269</v>
       </c>
@@ -6930,7 +6929,7 @@
         <v>13421</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>272</v>
       </c>
@@ -6962,7 +6961,7 @@
         <v>121879</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>275</v>
       </c>
@@ -6994,7 +6993,7 @@
         <v>216206</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>279</v>
       </c>
@@ -7026,7 +7025,7 @@
         <v>32875</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>283</v>
       </c>
@@ -7055,7 +7054,7 @@
         <v>422674</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>286</v>
       </c>
@@ -7084,7 +7083,7 @@
         <v>229589</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>289</v>
       </c>
@@ -7113,7 +7112,7 @@
         <v>210828</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>292</v>
       </c>
@@ -7142,7 +7141,7 @@
         <v>47193</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>295</v>
       </c>
@@ -7171,7 +7170,7 @@
         <v>19867</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>298</v>
       </c>
@@ -7200,7 +7199,7 @@
         <v>7603</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>301</v>
       </c>
@@ -7229,7 +7228,7 @@
         <v>52871</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>304</v>
       </c>
@@ -7258,7 +7257,7 @@
         <v>20673</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>307</v>
       </c>
@@ -7287,7 +7286,7 @@
         <v>26712</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>310</v>
       </c>
@@ -7316,7 +7315,7 @@
         <v>28010</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>313</v>
       </c>
@@ -7345,7 +7344,7 @@
         <v>7898</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>316</v>
       </c>
@@ -7374,7 +7373,7 @@
         <v>532970</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>319</v>
       </c>
@@ -7403,7 +7402,7 @@
         <v>103343</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>322</v>
       </c>
@@ -7432,7 +7431,7 @@
         <v>46882</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>325</v>
       </c>
@@ -7461,7 +7460,7 @@
         <v>273993</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>328</v>
       </c>
@@ -7490,7 +7489,7 @@
         <v>108752</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>331</v>
       </c>
@@ -7522,7 +7521,7 @@
         <v>2577118</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>335</v>
       </c>
@@ -7554,7 +7553,7 @@
         <v>583890</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>339</v>
       </c>
@@ -7586,7 +7585,7 @@
         <v>306900</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>342</v>
       </c>
@@ -7618,7 +7617,7 @@
         <v>-1604</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>345</v>
       </c>
@@ -7650,7 +7649,7 @@
         <v>263076</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>348</v>
       </c>
@@ -7682,7 +7681,7 @@
         <v>15519</v>
       </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>351</v>
       </c>
@@ -7714,7 +7713,7 @@
         <v>1993228</v>
       </c>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>354</v>
       </c>
@@ -7746,7 +7745,7 @@
         <v>1840595</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>357</v>
       </c>
@@ -7778,7 +7777,7 @@
         <v>152633</v>
       </c>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>360</v>
       </c>
@@ -7810,7 +7809,7 @@
         <v>571091</v>
       </c>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>363</v>
       </c>
@@ -7842,7 +7841,7 @@
         <v>404035</v>
       </c>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>366</v>
       </c>
@@ -7874,7 +7873,7 @@
         <v>99788</v>
       </c>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>369</v>
       </c>
@@ -7906,7 +7905,7 @@
         <v>44213</v>
       </c>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>373</v>
       </c>
@@ -7938,7 +7937,7 @@
         <v>260034</v>
       </c>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>376</v>
       </c>
@@ -7970,7 +7969,7 @@
         <v>37122</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>380</v>
       </c>
@@ -8002,7 +8001,7 @@
         <v>129933</v>
       </c>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>383</v>
       </c>
@@ -8034,7 +8033,7 @@
         <v>111954</v>
       </c>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
         <v>386</v>
       </c>
@@ -8066,7 +8065,7 @@
         <v>17979</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
         <v>389</v>
       </c>
@@ -8098,7 +8097,7 @@
         <v>269876</v>
       </c>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>392</v>
       </c>
@@ -8130,7 +8129,7 @@
         <v>44604</v>
       </c>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
         <v>395</v>
       </c>
@@ -8162,7 +8161,7 @@
         <v>225272</v>
       </c>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
         <v>398</v>
       </c>
@@ -8194,7 +8193,7 @@
         <v>140714</v>
       </c>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>401</v>
       </c>
@@ -8223,7 +8222,7 @@
         <v>74709</v>
       </c>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
         <v>404</v>
       </c>
@@ -8252,7 +8251,7 @@
         <v>9849</v>
       </c>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
         <v>407</v>
       </c>
@@ -8281,7 +8280,7 @@
         <v>208314</v>
       </c>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
         <v>410</v>
       </c>
@@ -8310,7 +8309,7 @@
         <v>73075</v>
       </c>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
         <v>413</v>
       </c>
@@ -8339,7 +8338,7 @@
         <v>52602</v>
       </c>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
         <v>416</v>
       </c>
@@ -8368,7 +8367,7 @@
         <v>20473</v>
       </c>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>419</v>
       </c>
@@ -8397,7 +8396,7 @@
         <v>135239</v>
       </c>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
         <v>422</v>
       </c>
@@ -8426,7 +8425,7 @@
         <v>53331</v>
       </c>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
         <v>425</v>
       </c>
@@ -8455,7 +8454,7 @@
         <v>81908</v>
       </c>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
         <v>428</v>
       </c>
@@ -8484,7 +8483,7 @@
         <v>83782</v>
       </c>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
         <v>431</v>
       </c>
@@ -8513,7 +8512,7 @@
         <v>517651</v>
       </c>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
         <v>434</v>
       </c>
@@ -8542,7 +8541,7 @@
         <v>268250</v>
       </c>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
         <v>437</v>
       </c>
@@ -8571,7 +8570,7 @@
         <v>263735</v>
       </c>
     </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
         <v>441</v>
       </c>
@@ -8600,7 +8599,7 @@
         <v>4515</v>
       </c>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
         <v>444</v>
       </c>
@@ -8629,7 +8628,7 @@
         <v>249400</v>
       </c>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
         <v>447</v>
       </c>
@@ -8658,7 +8657,7 @@
         <v>192044</v>
       </c>
     </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
         <v>450</v>
       </c>
@@ -8687,7 +8686,7 @@
         <v>57356</v>
       </c>
     </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
         <v>453</v>
       </c>
@@ -8702,7 +8701,7 @@
       </c>
       <c r="I115" s="43"/>
     </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
         <v>456</v>
       </c>
@@ -8722,7 +8721,7 @@
         <v>3268592</v>
       </c>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
         <v>459</v>
       </c>
@@ -8742,7 +8741,7 @@
         <v>12630266</v>
       </c>
     </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
         <v>462</v>
       </c>
@@ -8753,7 +8752,7 @@
         <v>30700</v>
       </c>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
         <v>464</v>
       </c>
@@ -8764,7 +8763,7 @@
         <v>9198</v>
       </c>
     </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
         <v>466</v>
       </c>
@@ -8775,7 +8774,7 @@
         <v>28981</v>
       </c>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
         <v>468</v>
       </c>
@@ -8786,7 +8785,7 @@
         <v>21607</v>
       </c>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
         <v>470</v>
       </c>
@@ -8797,7 +8796,7 @@
         <v>6176</v>
       </c>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
         <v>472</v>
       </c>
@@ -8808,7 +8807,7 @@
         <v>26748</v>
       </c>
     </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
         <v>474</v>
       </c>
@@ -8819,7 +8818,7 @@
         <v>4893</v>
       </c>
     </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
         <v>476</v>
       </c>
@@ -8830,7 +8829,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
         <v>478</v>
       </c>
@@ -8841,7 +8840,7 @@
         <v>21334</v>
       </c>
     </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
         <v>480</v>
       </c>
@@ -8852,7 +8851,7 @@
         <v>4558</v>
       </c>
     </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
         <v>482</v>
       </c>
@@ -8863,7 +8862,7 @@
         <v>32747</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
         <v>484</v>
       </c>
@@ -8874,7 +8873,7 @@
         <v>6678</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>486</v>
       </c>
@@ -8885,7 +8884,7 @@
         <v>6497</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
         <v>488</v>
       </c>
@@ -8896,7 +8895,7 @@
         <v>8423</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
         <v>490</v>
       </c>
@@ -8907,7 +8906,7 @@
         <v>8202</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
         <v>492</v>
       </c>
@@ -8918,7 +8917,7 @@
         <v>9125</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
         <v>494</v>
       </c>
@@ -8929,7 +8928,7 @@
         <v>15140</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
         <v>496</v>
       </c>
@@ -8940,7 +8939,7 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
         <v>498</v>
       </c>
@@ -8951,7 +8950,7 @@
         <v>4321</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
         <v>500</v>
       </c>
@@ -8962,7 +8961,7 @@
         <v>27555</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
         <v>502</v>
       </c>
@@ -8973,7 +8972,7 @@
         <v>10106</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
         <v>504</v>
       </c>
@@ -8984,7 +8983,7 @@
         <v>16822</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
         <v>506</v>
       </c>
@@ -8995,7 +8994,7 @@
         <v>27754</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
         <v>508</v>
       </c>
@@ -9006,7 +9005,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
         <v>510</v>
       </c>
@@ -9017,7 +9016,7 @@
         <v>5866</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
         <v>512</v>
       </c>
@@ -9028,7 +9027,7 @@
         <v>2845</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
         <v>514</v>
       </c>
@@ -9039,7 +9038,7 @@
         <v>22220</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
         <v>516</v>
       </c>
@@ -9050,7 +9049,7 @@
         <v>11611</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
         <v>518</v>
       </c>
@@ -9061,7 +9060,7 @@
         <v>12846</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
         <v>520</v>
       </c>
@@ -9072,7 +9071,7 @@
         <v>8291</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
         <v>522</v>
       </c>
@@ -9083,7 +9082,7 @@
         <v>10778</v>
       </c>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
         <v>524</v>
       </c>
@@ -9094,7 +9093,7 @@
         <v>11850</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
         <v>526</v>
       </c>
@@ -9105,7 +9104,7 @@
         <v>33887</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
         <v>528</v>
       </c>
@@ -9116,7 +9115,7 @@
         <v>6694</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
         <v>530</v>
       </c>
@@ -9127,7 +9126,7 @@
         <v>57088</v>
       </c>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B153" t="s">
         <v>532</v>
       </c>
@@ -9138,7 +9137,7 @@
         <v>20663</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B154" t="s">
         <v>534</v>
       </c>
@@ -9149,7 +9148,7 @@
         <v>32586</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B155" t="s">
         <v>536</v>
       </c>
@@ -9160,7 +9159,7 @@
         <v>28912</v>
       </c>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B156" t="s">
         <v>538</v>
       </c>
@@ -9171,7 +9170,7 @@
         <v>47917</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B157" t="s">
         <v>540</v>
       </c>
@@ -9182,7 +9181,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
         <v>542</v>
       </c>
@@ -9193,7 +9192,7 @@
         <v>11888</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B159" t="s">
         <v>544</v>
       </c>
@@ -9204,7 +9203,7 @@
         <v>5417</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B160" t="s">
         <v>546</v>
       </c>
@@ -9215,7 +9214,7 @@
         <v>11523</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B161" t="s">
         <v>548</v>
       </c>
@@ -9226,7 +9225,7 @@
         <v>17491</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B162" t="s">
         <v>550</v>
       </c>
@@ -9237,7 +9236,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B163" t="s">
         <v>552</v>
       </c>
@@ -9248,7 +9247,7 @@
         <v>12072</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B164" t="s">
         <v>554</v>
       </c>
@@ -9259,7 +9258,7 @@
         <v>2914</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B165" t="s">
         <v>556</v>
       </c>
@@ -9270,7 +9269,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B166" t="s">
         <v>558</v>
       </c>
@@ -9281,7 +9280,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B167" t="s">
         <v>560</v>
       </c>
@@ -9292,7 +9291,7 @@
         <v>11324</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B168" t="s">
         <v>562</v>
       </c>
@@ -9303,7 +9302,7 @@
         <v>3539</v>
       </c>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B169" t="s">
         <v>564</v>
       </c>
@@ -9314,7 +9313,7 @@
         <v>4775</v>
       </c>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B170" t="s">
         <v>566</v>
       </c>
@@ -9325,7 +9324,7 @@
         <v>3881</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B171" t="s">
         <v>568</v>
       </c>
@@ -9336,7 +9335,7 @@
         <v>3862</v>
       </c>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B172" t="s">
         <v>570</v>
       </c>
@@ -9347,7 +9346,7 @@
         <v>5125</v>
       </c>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B173" t="s">
         <v>572</v>
       </c>
@@ -9358,7 +9357,7 @@
         <v>5491</v>
       </c>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B174" t="s">
         <v>574</v>
       </c>
@@ -9369,7 +9368,7 @@
         <v>10506</v>
       </c>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B175" t="s">
         <v>576</v>
       </c>
@@ -9380,7 +9379,7 @@
         <v>11675</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B176" t="s">
         <v>578</v>
       </c>
@@ -9391,7 +9390,7 @@
         <v>10352</v>
       </c>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B177" t="s">
         <v>580</v>
       </c>
@@ -9402,7 +9401,7 @@
         <v>8071</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B178" t="s">
         <v>582</v>
       </c>
@@ -9413,7 +9412,7 @@
         <v>3739</v>
       </c>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B179" t="s">
         <v>584</v>
       </c>
@@ -9424,7 +9423,7 @@
         <v>14491</v>
       </c>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B180" t="s">
         <v>586</v>
       </c>
@@ -9435,7 +9434,7 @@
         <v>13999</v>
       </c>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B181" t="s">
         <v>588</v>
       </c>
@@ -9446,7 +9445,7 @@
         <v>3310</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B182" t="s">
         <v>590</v>
       </c>
@@ -9457,7 +9456,7 @@
         <v>10808</v>
       </c>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B183" t="s">
         <v>592</v>
       </c>
@@ -9468,7 +9467,7 @@
         <v>67427</v>
       </c>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B184" t="s">
         <v>594</v>
       </c>
@@ -9479,7 +9478,7 @@
         <v>267597</v>
       </c>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B185" t="s">
         <v>596</v>
       </c>
@@ -9490,7 +9489,7 @@
         <v>35528</v>
       </c>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B186" t="s">
         <v>598</v>
       </c>
@@ -9501,7 +9500,7 @@
         <v>14072</v>
       </c>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B187" t="s">
         <v>600</v>
       </c>
@@ -9512,7 +9511,7 @@
         <v>10276</v>
       </c>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B188" t="s">
         <v>602</v>
       </c>
@@ -9523,7 +9522,7 @@
         <v>4256</v>
       </c>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B189" t="s">
         <v>604</v>
       </c>
@@ -9534,7 +9533,7 @@
         <v>14299</v>
       </c>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B190" t="s">
         <v>606</v>
       </c>
@@ -9545,7 +9544,7 @@
         <v>34899</v>
       </c>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B191" t="s">
         <v>608</v>
       </c>
@@ -9556,7 +9555,7 @@
         <v>25253</v>
       </c>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B192" t="s">
         <v>610</v>
       </c>
@@ -9567,7 +9566,7 @@
         <v>38361</v>
       </c>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B193" t="s">
         <v>612</v>
       </c>
@@ -9578,7 +9577,7 @@
         <v>32361</v>
       </c>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B194" t="s">
         <v>614</v>
       </c>
@@ -9589,7 +9588,7 @@
         <v>37764</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B195" t="s">
         <v>616</v>
       </c>
@@ -9600,7 +9599,7 @@
         <v>68959</v>
       </c>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B196" t="s">
         <v>618</v>
       </c>
@@ -9611,7 +9610,7 @@
         <v>26026</v>
       </c>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B197" t="s">
         <v>620</v>
       </c>
@@ -9622,7 +9621,7 @@
         <v>137534</v>
       </c>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B198" t="s">
         <v>622</v>
       </c>
@@ -9633,7 +9632,7 @@
         <v>50032</v>
       </c>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B199" t="s">
         <v>624</v>
       </c>
@@ -9644,7 +9643,7 @@
         <v>40127</v>
       </c>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B200" t="s">
         <v>626</v>
       </c>
@@ -9655,7 +9654,7 @@
         <v>21738</v>
       </c>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B201" t="s">
         <v>628</v>
       </c>
@@ -9666,7 +9665,7 @@
         <v>5902</v>
       </c>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B202" t="s">
         <v>630</v>
       </c>
@@ -9677,7 +9676,7 @@
         <v>21968</v>
       </c>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B203" t="s">
         <v>632</v>
       </c>
@@ -9688,7 +9687,7 @@
         <v>26079</v>
       </c>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B204" t="s">
         <v>634</v>
       </c>
@@ -9699,7 +9698,7 @@
         <v>9645</v>
       </c>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B205" t="s">
         <v>636</v>
       </c>
@@ -9710,7 +9709,7 @@
         <v>6712</v>
       </c>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B206" t="s">
         <v>638</v>
       </c>
@@ -9721,7 +9720,7 @@
         <v>4176</v>
       </c>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B207" t="s">
         <v>640</v>
       </c>
@@ -9732,7 +9731,7 @@
         <v>9213</v>
       </c>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B208" t="s">
         <v>642</v>
       </c>
@@ -9743,7 +9742,7 @@
         <v>15041</v>
       </c>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B209" t="s">
         <v>644</v>
       </c>
@@ -9754,7 +9753,7 @@
         <v>11419</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B210" t="s">
         <v>646</v>
       </c>
@@ -9765,7 +9764,7 @@
         <v>4252</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B211" t="s">
         <v>648</v>
       </c>
@@ -9776,7 +9775,7 @@
         <v>4806</v>
       </c>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B212" t="s">
         <v>650</v>
       </c>
@@ -9787,7 +9786,7 @@
         <v>3237</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B213" t="s">
         <v>652</v>
       </c>
@@ -9798,7 +9797,7 @@
         <v>7431</v>
       </c>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B214" t="s">
         <v>654</v>
       </c>
@@ -9809,7 +9808,7 @@
         <v>17274</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B215" t="s">
         <v>656</v>
       </c>
@@ -9820,7 +9819,7 @@
         <v>10328</v>
       </c>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B216" t="s">
         <v>658</v>
       </c>
@@ -9831,7 +9830,7 @@
         <v>43172</v>
       </c>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B217" t="s">
         <v>660</v>
       </c>
@@ -9842,7 +9841,7 @@
         <v>36144</v>
       </c>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B218" t="s">
         <v>662</v>
       </c>
@@ -9853,7 +9852,7 @@
         <v>4994</v>
       </c>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B219" t="s">
         <v>664</v>
       </c>
@@ -9864,7 +9863,7 @@
         <v>8110</v>
       </c>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B220" t="s">
         <v>666</v>
       </c>
@@ -9875,7 +9874,7 @@
         <v>5774</v>
       </c>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B221" t="s">
         <v>668</v>
       </c>
@@ -9886,7 +9885,7 @@
         <v>8080</v>
       </c>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B222" t="s">
         <v>670</v>
       </c>
@@ -9897,7 +9896,7 @@
         <v>10355</v>
       </c>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B223" t="s">
         <v>672</v>
       </c>
@@ -9908,7 +9907,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B224" t="s">
         <v>674</v>
       </c>
@@ -9919,7 +9918,7 @@
         <v>3179</v>
       </c>
     </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B225" t="s">
         <v>676</v>
       </c>
@@ -9930,7 +9929,7 @@
         <v>13946</v>
       </c>
     </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B226" t="s">
         <v>678</v>
       </c>
@@ -9941,7 +9940,7 @@
         <v>30899</v>
       </c>
     </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B227" t="s">
         <v>680</v>
       </c>
@@ -9952,7 +9951,7 @@
         <v>22672</v>
       </c>
     </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B228" t="s">
         <v>682</v>
       </c>
@@ -9963,7 +9962,7 @@
         <v>34308</v>
       </c>
     </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B229" t="s">
         <v>684</v>
       </c>
@@ -9974,7 +9973,7 @@
         <v>19639</v>
       </c>
     </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B230" t="s">
         <v>686</v>
       </c>
@@ -9985,7 +9984,7 @@
         <v>10510</v>
       </c>
     </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B231" t="s">
         <v>688</v>
       </c>
@@ -9996,7 +9995,7 @@
         <v>12012</v>
       </c>
     </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B232" t="s">
         <v>690</v>
       </c>
@@ -10007,7 +10006,7 @@
         <v>35390</v>
       </c>
     </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B233" t="s">
         <v>692</v>
       </c>
@@ -10018,7 +10017,7 @@
         <v>9839</v>
       </c>
     </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B234" t="s">
         <v>694</v>
       </c>
@@ -10029,7 +10028,7 @@
         <v>34461</v>
       </c>
     </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B235" t="s">
         <v>696</v>
       </c>
@@ -10040,7 +10039,7 @@
         <v>32490</v>
       </c>
     </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B236" t="s">
         <v>698</v>
       </c>
@@ -10051,7 +10050,7 @@
         <v>35271</v>
       </c>
     </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B237" t="s">
         <v>119</v>
       </c>
@@ -10062,7 +10061,7 @@
         <v>44820</v>
       </c>
     </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B238" t="s">
         <v>701</v>
       </c>
@@ -10073,7 +10072,7 @@
         <v>24834</v>
       </c>
     </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B239" t="s">
         <v>703</v>
       </c>
@@ -10084,7 +10083,7 @@
         <v>42935</v>
       </c>
     </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B240" t="s">
         <v>705</v>
       </c>
@@ -10095,7 +10094,7 @@
         <v>7409</v>
       </c>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B241" t="s">
         <v>707</v>
       </c>
@@ -10106,7 +10105,7 @@
         <v>63516</v>
       </c>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B242" t="s">
         <v>709</v>
       </c>
@@ -10117,7 +10116,7 @@
         <v>151763</v>
       </c>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B243" t="s">
         <v>711</v>
       </c>
@@ -10128,7 +10127,7 @@
         <v>13437</v>
       </c>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B244" t="s">
         <v>713</v>
       </c>
@@ -10139,7 +10138,7 @@
         <v>41588</v>
       </c>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B245" t="s">
         <v>715</v>
       </c>
@@ -10150,7 +10149,7 @@
         <v>28299</v>
       </c>
     </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B246" t="s">
         <v>717</v>
       </c>
@@ -10161,7 +10160,7 @@
         <v>35923</v>
       </c>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B247" t="s">
         <v>719</v>
       </c>
@@ -10172,7 +10171,7 @@
         <v>13989</v>
       </c>
     </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B248" t="s">
         <v>721</v>
       </c>
@@ -10183,7 +10182,7 @@
         <v>10059</v>
       </c>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B249" t="s">
         <v>723</v>
       </c>
@@ -10194,7 +10193,7 @@
         <v>18967</v>
       </c>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B250" t="s">
         <v>725</v>
       </c>
@@ -10205,7 +10204,7 @@
         <v>26996</v>
       </c>
     </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B251" t="s">
         <v>727</v>
       </c>
@@ -10216,7 +10215,7 @@
         <v>47738</v>
       </c>
     </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B252" t="s">
         <v>729</v>
       </c>
@@ -10227,7 +10226,7 @@
         <v>33801</v>
       </c>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B253" t="s">
         <v>731</v>
       </c>
@@ -10238,7 +10237,7 @@
         <v>20987</v>
       </c>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B254" t="s">
         <v>733</v>
       </c>
@@ -10249,7 +10248,7 @@
         <v>17027</v>
       </c>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B255" t="s">
         <v>735</v>
       </c>
@@ -10260,7 +10259,7 @@
         <v>55533</v>
       </c>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B256" t="s">
         <v>737</v>
       </c>
@@ -10271,7 +10270,7 @@
         <v>7797</v>
       </c>
     </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B257" t="s">
         <v>739</v>
       </c>
@@ -10282,7 +10281,7 @@
         <v>13469</v>
       </c>
     </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B258" t="s">
         <v>741</v>
       </c>
@@ -10293,7 +10292,7 @@
         <v>7913</v>
       </c>
     </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B259" t="s">
         <v>743</v>
       </c>
@@ -10304,7 +10303,7 @@
         <v>9793</v>
       </c>
     </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B260" t="s">
         <v>745</v>
       </c>
@@ -10315,7 +10314,7 @@
         <v>4432</v>
       </c>
     </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B261" t="s">
         <v>747</v>
       </c>
@@ -10326,7 +10325,7 @@
         <v>10139</v>
       </c>
     </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B262" t="s">
         <v>749</v>
       </c>
@@ -10337,7 +10336,7 @@
         <v>11575</v>
       </c>
     </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B263" t="s">
         <v>751</v>
       </c>
@@ -10348,7 +10347,7 @@
         <v>7059</v>
       </c>
     </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B264" t="s">
         <v>753</v>
       </c>
@@ -10359,7 +10358,7 @@
         <v>6202</v>
       </c>
     </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B265" t="s">
         <v>755</v>
       </c>
@@ -10370,7 +10369,7 @@
         <v>44437</v>
       </c>
     </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B266" t="s">
         <v>757</v>
       </c>
@@ -10381,7 +10380,7 @@
         <v>29952</v>
       </c>
     </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B267" t="s">
         <v>759</v>
       </c>
@@ -10392,7 +10391,7 @@
         <v>59159</v>
       </c>
     </row>
-    <row r="268" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B268" t="s">
         <v>761</v>
       </c>
@@ -10403,7 +10402,7 @@
         <v>20873</v>
       </c>
     </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B269" t="s">
         <v>763</v>
       </c>
@@ -10414,7 +10413,7 @@
         <v>6152</v>
       </c>
     </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B270" t="s">
         <v>765</v>
       </c>
@@ -10425,7 +10424,7 @@
         <v>11383</v>
       </c>
     </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B271" t="s">
         <v>767</v>
       </c>
@@ -10436,7 +10435,7 @@
         <v>4732</v>
       </c>
     </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B272" t="s">
         <v>769</v>
       </c>
@@ -10447,7 +10446,7 @@
         <v>78433</v>
       </c>
     </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B273" t="s">
         <v>771</v>
       </c>
@@ -10458,7 +10457,7 @@
         <v>3763</v>
       </c>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B274" t="s">
         <v>773</v>
       </c>
@@ -10469,7 +10468,7 @@
         <v>457760</v>
       </c>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B275" t="s">
         <v>775</v>
       </c>
@@ -10480,7 +10479,7 @@
         <v>13419</v>
       </c>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B276" t="s">
         <v>777</v>
       </c>
@@ -10491,7 +10490,7 @@
         <v>9115</v>
       </c>
     </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B277" t="s">
         <v>779</v>
       </c>
@@ -10502,7 +10501,7 @@
         <v>20551</v>
       </c>
     </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B278" t="s">
         <v>781</v>
       </c>
@@ -10512,8 +10511,11 @@
       <c r="D278" s="43">
         <v>49895</v>
       </c>
-    </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E278" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B279" t="s">
         <v>783</v>
       </c>
@@ -10523,8 +10525,11 @@
       <c r="D279" s="43">
         <v>7020</v>
       </c>
-    </row>
-    <row r="280" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E279" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B280" t="s">
         <v>785</v>
       </c>
@@ -10534,8 +10539,11 @@
       <c r="D280" s="43">
         <v>6964</v>
       </c>
-    </row>
-    <row r="281" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E280" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B281" t="s">
         <v>787</v>
       </c>
@@ -10545,8 +10553,11 @@
       <c r="D281" s="43">
         <v>31879</v>
       </c>
-    </row>
-    <row r="282" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E281" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B282" t="s">
         <v>789</v>
       </c>
@@ -10556,8 +10567,11 @@
       <c r="D282" s="43">
         <v>117887</v>
       </c>
-    </row>
-    <row r="283" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E282" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="283" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B283" t="s">
         <v>791</v>
       </c>
@@ -10567,8 +10581,11 @@
       <c r="D283" s="43">
         <v>85442</v>
       </c>
-    </row>
-    <row r="284" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E283" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B284" t="s">
         <v>793</v>
       </c>
@@ -10578,8 +10595,11 @@
       <c r="D284" s="43">
         <v>14641</v>
       </c>
-    </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E284" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="285" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B285" t="s">
         <v>795</v>
       </c>
@@ -10589,8 +10609,11 @@
       <c r="D285" s="43">
         <v>14749</v>
       </c>
-    </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E285" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="286" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B286" t="s">
         <v>797</v>
       </c>
@@ -10600,8 +10623,11 @@
       <c r="D286" s="43">
         <v>208145</v>
       </c>
-    </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E286" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="287" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B287" t="s">
         <v>799</v>
       </c>
@@ -10611,8 +10637,11 @@
       <c r="D287" s="43">
         <v>15995</v>
       </c>
-    </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E287" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="288" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B288" t="s">
         <v>801</v>
       </c>
@@ -10622,8 +10651,11 @@
       <c r="D288" s="43">
         <v>30712</v>
       </c>
-    </row>
-    <row r="289" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E288" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="289" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B289" t="s">
         <v>803</v>
       </c>
@@ -10633,8 +10665,11 @@
       <c r="D289" s="43">
         <v>19911</v>
       </c>
-    </row>
-    <row r="290" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E289" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="290" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B290" t="s">
         <v>805</v>
       </c>
@@ -10644,8 +10679,11 @@
       <c r="D290" s="43">
         <v>15067</v>
       </c>
-    </row>
-    <row r="291" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E290" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="291" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B291" t="s">
         <v>807</v>
       </c>
@@ -10655,8 +10693,11 @@
       <c r="D291" s="43">
         <v>27773</v>
       </c>
-    </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E291" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="292" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B292" t="s">
         <v>809</v>
       </c>
@@ -10666,8 +10707,11 @@
       <c r="D292" s="43">
         <v>12847</v>
       </c>
-    </row>
-    <row r="293" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E292" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="293" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B293" t="s">
         <v>811</v>
       </c>
@@ -10677,8 +10721,11 @@
       <c r="D293" s="43">
         <v>38140</v>
       </c>
-    </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E293" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="294" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B294" t="s">
         <v>813</v>
       </c>
@@ -10688,8 +10735,11 @@
       <c r="D294" s="43">
         <v>42475</v>
       </c>
-    </row>
-    <row r="295" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E294" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="295" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B295" t="s">
         <v>815</v>
       </c>
@@ -10699,8 +10749,11 @@
       <c r="D295" s="43">
         <v>5006</v>
       </c>
-    </row>
-    <row r="296" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E295" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="296" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B296" t="s">
         <v>817</v>
       </c>
@@ -10710,8 +10763,11 @@
       <c r="D296" s="43">
         <v>40978</v>
       </c>
-    </row>
-    <row r="297" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E296" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="297" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B297" t="s">
         <v>819</v>
       </c>
@@ -10722,7 +10778,7 @@
         <v>40444</v>
       </c>
     </row>
-    <row r="298" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B298" t="s">
         <v>821</v>
       </c>
@@ -10733,7 +10789,7 @@
         <v>17753</v>
       </c>
     </row>
-    <row r="299" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B299" t="s">
         <v>823</v>
       </c>
@@ -10744,7 +10800,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="300" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B300" t="s">
         <v>825</v>
       </c>
@@ -10755,7 +10811,7 @@
         <v>8354</v>
       </c>
     </row>
-    <row r="301" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B301" t="s">
         <v>827</v>
       </c>
@@ -10766,7 +10822,7 @@
         <v>10613</v>
       </c>
     </row>
-    <row r="302" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B302" t="s">
         <v>829</v>
       </c>
@@ -10777,7 +10833,7 @@
         <v>11961</v>
       </c>
     </row>
-    <row r="303" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B303" t="s">
         <v>831</v>
       </c>
@@ -10788,7 +10844,7 @@
         <v>96787</v>
       </c>
     </row>
-    <row r="304" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B304" t="s">
         <v>833</v>
       </c>
@@ -10799,7 +10855,7 @@
         <v>20488</v>
       </c>
     </row>
-    <row r="305" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B305" t="s">
         <v>835</v>
       </c>
@@ -10810,7 +10866,7 @@
         <v>5369</v>
       </c>
     </row>
-    <row r="306" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B306" t="s">
         <v>837</v>
       </c>
@@ -10821,7 +10877,7 @@
         <v>17928</v>
       </c>
     </row>
-    <row r="307" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B307" t="s">
         <v>839</v>
       </c>
@@ -10832,7 +10888,7 @@
         <v>124484</v>
       </c>
     </row>
-    <row r="308" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B308" t="s">
         <v>841</v>
       </c>
@@ -10843,7 +10899,7 @@
         <v>219053</v>
       </c>
     </row>
-    <row r="309" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B309" t="s">
         <v>843</v>
       </c>
@@ -10854,7 +10910,7 @@
         <v>171121</v>
       </c>
     </row>
-    <row r="310" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B310" t="s">
         <v>845</v>
       </c>
@@ -10865,7 +10921,7 @@
         <v>179070</v>
       </c>
     </row>
-    <row r="311" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B311" t="s">
         <v>847</v>
       </c>
@@ -10876,7 +10932,7 @@
         <v>242634</v>
       </c>
     </row>
-    <row r="312" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B312" t="s">
         <v>849</v>
       </c>
@@ -10887,7 +10943,7 @@
         <v>176440</v>
       </c>
     </row>
-    <row r="313" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B313" t="s">
         <v>851</v>
       </c>
@@ -10898,7 +10954,7 @@
         <v>148392</v>
       </c>
     </row>
-    <row r="314" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B314" t="s">
         <v>853</v>
       </c>
@@ -10909,7 +10965,7 @@
         <v>146367</v>
       </c>
     </row>
-    <row r="315" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B315" t="s">
         <v>855</v>
       </c>
@@ -10920,7 +10976,7 @@
         <v>322061</v>
       </c>
     </row>
-    <row r="316" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B316" t="s">
         <v>857</v>
       </c>
@@ -10931,7 +10987,7 @@
         <v>83011</v>
       </c>
     </row>
-    <row r="317" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B317" t="s">
         <v>859</v>
       </c>
@@ -10942,7 +10998,7 @@
         <v>38123</v>
       </c>
     </row>
-    <row r="318" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B318" t="s">
         <v>861</v>
       </c>
@@ -10953,7 +11009,7 @@
         <v>279078</v>
       </c>
     </row>
-    <row r="319" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B319" t="s">
         <v>863</v>
       </c>
@@ -10964,7 +11020,7 @@
         <v>227964</v>
       </c>
     </row>
-    <row r="320" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B320" t="s">
         <v>865</v>
       </c>
@@ -10975,7 +11031,7 @@
         <v>230215</v>
       </c>
     </row>
-    <row r="321" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B321" t="s">
         <v>867</v>
       </c>
@@ -10986,7 +11042,7 @@
         <v>140227</v>
       </c>
     </row>
-    <row r="322" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B322" t="s">
         <v>869</v>
       </c>
@@ -10997,7 +11053,7 @@
         <v>101522</v>
       </c>
     </row>
-    <row r="323" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B323" t="s">
         <v>871</v>
       </c>
@@ -11008,7 +11064,7 @@
         <v>92474</v>
       </c>
     </row>
-    <row r="324" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B324" t="s">
         <v>873</v>
       </c>
@@ -11019,7 +11075,7 @@
         <v>137915</v>
       </c>
     </row>
-    <row r="325" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B325" t="s">
         <v>875</v>
       </c>
@@ -11030,7 +11086,7 @@
         <v>229646</v>
       </c>
     </row>
-    <row r="326" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B326" t="s">
         <v>877</v>
       </c>
@@ -11041,7 +11097,7 @@
         <v>57722</v>
       </c>
     </row>
-    <row r="327" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B327" t="s">
         <v>879</v>
       </c>
@@ -11052,7 +11108,7 @@
         <v>35581</v>
       </c>
     </row>
-    <row r="328" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B328" t="s">
         <v>881</v>
       </c>
@@ -11063,7 +11119,7 @@
         <v>43933</v>
       </c>
     </row>
-    <row r="329" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B329" t="s">
         <v>883</v>
       </c>
@@ -11074,7 +11130,7 @@
         <v>68922</v>
       </c>
     </row>
-    <row r="330" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B330" t="s">
         <v>885</v>
       </c>
@@ -11085,7 +11141,7 @@
         <v>211318</v>
       </c>
     </row>
-    <row r="331" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B331" t="s">
         <v>887</v>
       </c>
@@ -11096,7 +11152,7 @@
         <v>82025</v>
       </c>
     </row>
-    <row r="332" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B332" t="s">
         <v>889</v>
       </c>
@@ -11107,7 +11163,7 @@
         <v>47194</v>
       </c>
     </row>
-    <row r="333" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B333" t="s">
         <v>891</v>
       </c>
@@ -11118,7 +11174,7 @@
         <v>332550</v>
       </c>
     </row>
-    <row r="334" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B334" t="s">
         <v>893</v>
       </c>
@@ -11129,7 +11185,7 @@
         <v>65769</v>
       </c>
     </row>
-    <row r="335" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B335" t="s">
         <v>895</v>
       </c>
@@ -11140,7 +11196,7 @@
         <v>43699</v>
       </c>
     </row>
-    <row r="336" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B336" t="s">
         <v>897</v>
       </c>
@@ -11151,7 +11207,7 @@
         <v>137453</v>
       </c>
     </row>
-    <row r="337" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B337" t="s">
         <v>899</v>
       </c>
@@ -11162,7 +11218,7 @@
         <v>80430</v>
       </c>
     </row>
-    <row r="338" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B338" t="s">
         <v>901</v>
       </c>
@@ -11173,7 +11229,7 @@
         <v>120074</v>
       </c>
     </row>
-    <row r="339" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B339" t="s">
         <v>903</v>
       </c>
@@ -11184,7 +11240,7 @@
         <v>27110</v>
       </c>
     </row>
-    <row r="340" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B340" t="s">
         <v>905</v>
       </c>
@@ -11195,7 +11251,7 @@
         <v>29340</v>
       </c>
     </row>
-    <row r="341" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B341" t="s">
         <v>907</v>
       </c>
@@ -11206,7 +11262,7 @@
         <v>38375</v>
       </c>
     </row>
-    <row r="342" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B342" t="s">
         <v>909</v>
       </c>
@@ -11217,7 +11273,7 @@
         <v>14438</v>
       </c>
     </row>
-    <row r="343" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B343" t="s">
         <v>911</v>
       </c>
@@ -11228,7 +11284,7 @@
         <v>212383</v>
       </c>
     </row>
-    <row r="344" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B344" t="s">
         <v>913</v>
       </c>
@@ -11239,7 +11295,7 @@
         <v>126697</v>
       </c>
     </row>
-    <row r="345" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B345" t="s">
         <v>915</v>
       </c>
@@ -11250,7 +11306,7 @@
         <v>16643</v>
       </c>
     </row>
-    <row r="346" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B346" t="s">
         <v>917</v>
       </c>
@@ -11261,7 +11317,7 @@
         <v>83920</v>
       </c>
     </row>
-    <row r="347" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B347" t="s">
         <v>919</v>
       </c>
@@ -11272,7 +11328,7 @@
         <v>97373</v>
       </c>
     </row>
-    <row r="348" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B348" t="s">
         <v>921</v>
       </c>
@@ -11283,7 +11339,7 @@
         <v>334092</v>
       </c>
     </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B349" t="s">
         <v>923</v>
       </c>
@@ -11294,7 +11350,7 @@
         <v>261627</v>
       </c>
     </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B350" t="s">
         <v>925</v>
       </c>
@@ -11305,7 +11361,7 @@
         <v>45066</v>
       </c>
     </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B351" t="s">
         <v>927</v>
       </c>
@@ -11316,7 +11372,7 @@
         <v>148620</v>
       </c>
     </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B352" t="s">
         <v>929</v>
       </c>
@@ -11327,7 +11383,7 @@
         <v>132937</v>
       </c>
     </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B353" t="s">
         <v>931</v>
       </c>
@@ -11338,7 +11394,7 @@
         <v>9245</v>
       </c>
     </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B354" t="s">
         <v>933</v>
       </c>
@@ -11349,7 +11405,7 @@
         <v>296293</v>
       </c>
     </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B355" t="s">
         <v>935</v>
       </c>
@@ -11360,7 +11416,7 @@
         <v>520425</v>
       </c>
     </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B356" t="s">
         <v>937</v>
       </c>
@@ -11371,7 +11427,7 @@
         <v>349439</v>
       </c>
     </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B357" t="s">
         <v>939</v>
       </c>
@@ -11382,7 +11438,7 @@
         <v>218793</v>
       </c>
     </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B358" t="s">
         <v>941</v>
       </c>
@@ -11393,7 +11449,7 @@
         <v>88034</v>
       </c>
     </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B359" t="s">
         <v>943</v>
       </c>
@@ -11404,7 +11460,7 @@
         <v>586732</v>
       </c>
     </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B360" t="s">
         <v>945</v>
       </c>
@@ -11415,7 +11471,7 @@
         <v>344723</v>
       </c>
     </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B361" t="s">
         <v>947</v>
       </c>
@@ -11426,7 +11482,7 @@
         <v>163544</v>
       </c>
     </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B362" t="s">
         <v>949</v>
       </c>
@@ -11437,7 +11493,7 @@
         <v>1416584</v>
       </c>
     </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B363" t="s">
         <v>951</v>
       </c>
@@ -11448,7 +11504,7 @@
         <v>530391</v>
       </c>
     </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B364" t="s">
         <v>953</v>
       </c>
@@ -11459,7 +11515,7 @@
         <v>1123901</v>
       </c>
     </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B365" t="s">
         <v>955</v>
       </c>
@@ -11470,7 +11526,7 @@
         <v>61256</v>
       </c>
     </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B366" t="s">
         <v>957</v>
       </c>
@@ -11481,7 +11537,7 @@
         <v>77621</v>
       </c>
     </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B367" t="s">
         <v>959</v>
       </c>
@@ -11492,7 +11548,7 @@
         <v>29242</v>
       </c>
     </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B368" t="s">
         <v>961</v>
       </c>
@@ -11503,7 +11559,7 @@
         <v>161188</v>
       </c>
     </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B369" t="s">
         <v>963</v>
       </c>
@@ -11514,7 +11570,7 @@
         <v>331383</v>
       </c>
     </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B370" t="s">
         <v>965</v>
       </c>
@@ -11525,7 +11581,7 @@
         <v>155017</v>
       </c>
     </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B371" t="s">
         <v>967</v>
       </c>
@@ -11536,7 +11592,7 @@
         <v>163308</v>
       </c>
     </row>
-    <row r="372" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B372" t="s">
         <v>969</v>
       </c>
@@ -11547,7 +11603,7 @@
         <v>63364</v>
       </c>
     </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B373" t="s">
         <v>971</v>
       </c>
@@ -11558,7 +11614,7 @@
         <v>193482</v>
       </c>
     </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B374" t="s">
         <v>973</v>
       </c>
@@ -11569,7 +11625,7 @@
         <v>311584</v>
       </c>
     </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B375" t="s">
         <v>975</v>
       </c>
@@ -11580,7 +11636,7 @@
         <v>232966</v>
       </c>
     </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B376" t="s">
         <v>977</v>
       </c>
@@ -11591,7 +11647,7 @@
         <v>49844</v>
       </c>
     </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B377" t="s">
         <v>979</v>
       </c>
@@ -11602,7 +11658,7 @@
         <v>202086</v>
       </c>
     </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B378" t="s">
         <v>981</v>
       </c>
@@ -11613,7 +11669,7 @@
         <v>125875</v>
       </c>
     </row>
-    <row r="379" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B379" t="s">
         <v>983</v>
       </c>
@@ -11624,7 +11680,7 @@
         <v>33044</v>
       </c>
     </row>
-    <row r="380" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B380" t="s">
         <v>985</v>
       </c>
@@ -11635,7 +11691,7 @@
         <v>11848</v>
       </c>
     </row>
-    <row r="381" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B381" t="s">
         <v>987</v>
       </c>
@@ -11646,7 +11702,7 @@
         <v>36577</v>
       </c>
     </row>
-    <row r="382" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B382" t="s">
         <v>989</v>
       </c>
@@ -11657,7 +11713,7 @@
         <v>88795</v>
       </c>
     </row>
-    <row r="383" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B383" t="s">
         <v>991</v>
       </c>
@@ -11668,7 +11724,7 @@
         <v>561730</v>
       </c>
     </row>
-    <row r="384" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B384" t="s">
         <v>993</v>
       </c>
@@ -11679,7 +11735,7 @@
         <v>330772</v>
       </c>
     </row>
-    <row r="385" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B385" t="s">
         <v>995</v>
       </c>
@@ -11690,7 +11746,7 @@
         <v>171767</v>
       </c>
     </row>
-    <row r="386" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B386" t="s">
         <v>997</v>
       </c>
@@ -11701,7 +11757,7 @@
         <v>56592</v>
       </c>
     </row>
-    <row r="387" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B387" t="s">
         <v>999</v>
       </c>
@@ -11712,7 +11768,7 @@
         <v>28243</v>
       </c>
     </row>
-    <row r="388" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B388" t="s">
         <v>1001</v>
       </c>
@@ -11723,7 +11779,7 @@
         <v>71905</v>
       </c>
     </row>
-    <row r="389" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B389" t="s">
         <v>1003</v>
       </c>
@@ -11734,7 +11790,7 @@
         <v>44806</v>
       </c>
     </row>
-    <row r="390" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B390" t="s">
         <v>1005</v>
       </c>
@@ -11745,7 +11801,7 @@
         <v>56610</v>
       </c>
     </row>
-    <row r="391" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B391" t="s">
         <v>1007</v>
       </c>
@@ -11756,18 +11812,21 @@
         <v>47162</v>
       </c>
     </row>
-    <row r="392" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B392" t="s">
         <v>1009</v>
       </c>
-      <c r="C392" t="s">
+      <c r="C392" s="49" t="s">
         <v>1010</v>
       </c>
       <c r="D392" s="43">
         <v>89811</v>
       </c>
-    </row>
-    <row r="393" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E392" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="393" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B393" t="s">
         <v>1011</v>
       </c>
@@ -11778,7 +11837,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="394" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B394" t="s">
         <v>1013</v>
       </c>
@@ -11789,7 +11848,7 @@
         <v>225344</v>
       </c>
     </row>
-    <row r="395" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B395" t="s">
         <v>1015</v>
       </c>
@@ -11800,7 +11859,7 @@
         <v>72133</v>
       </c>
     </row>
-    <row r="396" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B396" t="s">
         <v>1017</v>
       </c>
@@ -11811,7 +11870,7 @@
         <v>465471</v>
       </c>
     </row>
-    <row r="397" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B397" t="s">
         <v>1019</v>
       </c>
@@ -11822,7 +11881,7 @@
         <v>116720</v>
       </c>
     </row>
-    <row r="398" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B398" t="s">
         <v>1021</v>
       </c>
@@ -11833,7 +11892,7 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="399" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B399" t="s">
         <v>1023</v>
       </c>
@@ -11844,7 +11903,7 @@
         <v>110970</v>
       </c>
     </row>
-    <row r="400" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B400" t="s">
         <v>1025</v>
       </c>
@@ -11855,7 +11914,7 @@
         <v>53964</v>
       </c>
     </row>
-    <row r="401" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B401" t="s">
         <v>1027</v>
       </c>
@@ -11866,7 +11925,7 @@
         <v>75155</v>
       </c>
     </row>
-    <row r="402" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B402" t="s">
         <v>1029</v>
       </c>
@@ -11877,7 +11936,7 @@
         <v>35396</v>
       </c>
     </row>
-    <row r="403" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B403" t="s">
         <v>1031</v>
       </c>
@@ -11888,7 +11947,7 @@
         <v>813054</v>
       </c>
     </row>
-    <row r="404" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B404" t="s">
         <v>1033</v>
       </c>
@@ -11899,7 +11958,7 @@
         <v>184319</v>
       </c>
     </row>
-    <row r="405" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B405" t="s">
         <v>1035</v>
       </c>
@@ -11910,7 +11969,7 @@
         <v>46401</v>
       </c>
     </row>
-    <row r="406" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B406" t="s">
         <v>1037</v>
       </c>
@@ -11921,7 +11980,7 @@
         <v>93433</v>
       </c>
     </row>
-    <row r="407" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B407" t="s">
         <v>1039</v>
       </c>
@@ -11932,7 +11991,7 @@
         <v>48681</v>
       </c>
     </row>
-    <row r="408" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B408" t="s">
         <v>1041</v>
       </c>
@@ -11943,7 +12002,7 @@
         <v>45458</v>
       </c>
     </row>
-    <row r="409" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B409" t="s">
         <v>1043</v>
       </c>
@@ -11954,7 +12013,7 @@
         <v>22884</v>
       </c>
     </row>
-    <row r="410" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B410" t="s">
         <v>1045</v>
       </c>
@@ -11965,7 +12024,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="411" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B411" t="s">
         <v>1047</v>
       </c>
@@ -11976,7 +12035,7 @@
         <v>41997</v>
       </c>
     </row>
-    <row r="412" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B412" t="s">
         <v>1049</v>
       </c>
@@ -11987,7 +12046,7 @@
         <v>44265</v>
       </c>
     </row>
-    <row r="413" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B413" t="s">
         <v>1051</v>
       </c>
@@ -11998,7 +12057,7 @@
         <v>14730</v>
       </c>
     </row>
-    <row r="414" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B414" t="s">
         <v>1053</v>
       </c>
@@ -12009,7 +12068,7 @@
         <v>18301</v>
       </c>
     </row>
-    <row r="415" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B415" t="s">
         <v>1055</v>
       </c>
@@ -12020,7 +12079,7 @@
         <v>35926</v>
       </c>
     </row>
-    <row r="416" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B416" t="s">
         <v>1057</v>
       </c>
@@ -12031,7 +12090,7 @@
         <v>81758</v>
       </c>
     </row>
-    <row r="417" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B417" t="s">
         <v>1059</v>
       </c>
@@ -12042,7 +12101,7 @@
         <v>258628</v>
       </c>
     </row>
-    <row r="418" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B418" t="s">
         <v>1061</v>
       </c>
@@ -12053,7 +12112,7 @@
         <v>336211</v>
       </c>
     </row>
-    <row r="419" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B419" t="s">
         <v>1063</v>
       </c>
@@ -12064,7 +12123,7 @@
         <v>303694</v>
       </c>
     </row>
-    <row r="420" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B420" t="s">
         <v>1065</v>
       </c>
@@ -12075,7 +12134,7 @@
         <v>98573</v>
       </c>
     </row>
-    <row r="421" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B421" t="s">
         <v>1067</v>
       </c>
@@ -12086,7 +12145,7 @@
         <v>120747</v>
       </c>
     </row>
-    <row r="422" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B422" t="s">
         <v>1069</v>
       </c>
@@ -12097,7 +12156,7 @@
         <v>22166</v>
       </c>
     </row>
-    <row r="423" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B423" t="s">
         <v>1071</v>
       </c>
@@ -12108,7 +12167,7 @@
         <v>37604</v>
       </c>
     </row>
-    <row r="424" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B424" t="s">
         <v>1073</v>
       </c>
@@ -12119,7 +12178,7 @@
         <v>22329</v>
       </c>
     </row>
-    <row r="425" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B425" t="s">
         <v>1075</v>
       </c>
@@ -12130,7 +12189,7 @@
         <v>80111</v>
       </c>
     </row>
-    <row r="426" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B426" t="s">
         <v>1077</v>
       </c>
@@ -12141,7 +12200,7 @@
         <v>20088</v>
       </c>
     </row>
-    <row r="427" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B427" t="s">
         <v>1079</v>
       </c>
@@ -12152,7 +12211,7 @@
         <v>28962</v>
       </c>
     </row>
-    <row r="428" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B428" t="s">
         <v>1081</v>
       </c>
@@ -12163,7 +12222,7 @@
         <v>62899</v>
       </c>
     </row>
-    <row r="429" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="429" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B429" t="s">
         <v>1083</v>
       </c>
@@ -12174,7 +12233,7 @@
         <v>93020</v>
       </c>
     </row>
-    <row r="430" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="430" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B430" t="s">
         <v>1085</v>
       </c>
@@ -12185,7 +12244,7 @@
         <v>57520</v>
       </c>
     </row>
-    <row r="431" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="431" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B431" t="s">
         <v>1087</v>
       </c>
@@ -12196,7 +12255,7 @@
         <v>75682</v>
       </c>
     </row>
-    <row r="432" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="432" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B432" t="s">
         <v>1089</v>
       </c>
@@ -12207,7 +12266,7 @@
         <v>21314</v>
       </c>
     </row>
-    <row r="433" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B433" t="s">
         <v>1091</v>
       </c>
@@ -12218,7 +12277,7 @@
         <v>613306</v>
       </c>
     </row>
-    <row r="434" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B434" t="s">
         <v>1093</v>
       </c>
@@ -12229,7 +12288,7 @@
         <v>390322</v>
       </c>
     </row>
-    <row r="435" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B435" t="s">
         <v>1095</v>
       </c>
@@ -12240,7 +12299,7 @@
         <v>62768</v>
       </c>
     </row>
-    <row r="436" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B436" t="s">
         <v>1097</v>
       </c>
@@ -12251,7 +12310,7 @@
         <v>13843</v>
       </c>
     </row>
-    <row r="437" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B437" t="s">
         <v>1099</v>
       </c>
@@ -12262,7 +12321,7 @@
         <v>17451</v>
       </c>
     </row>
-    <row r="438" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="438" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B438" t="s">
         <v>1101</v>
       </c>
@@ -12273,7 +12332,7 @@
         <v>974593</v>
       </c>
     </row>
-    <row r="439" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="439" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B439" t="s">
         <v>1103</v>
       </c>
@@ -12284,7 +12343,7 @@
         <v>286138</v>
       </c>
     </row>
-    <row r="440" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="440" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B440" t="s">
         <v>1105</v>
       </c>
@@ -12295,7 +12354,7 @@
         <v>879668</v>
       </c>
     </row>
-    <row r="441" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="441" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B441" t="s">
         <v>1107</v>
       </c>
@@ -12306,7 +12365,7 @@
         <v>16399</v>
       </c>
     </row>
-    <row r="442" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="442" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B442" t="s">
         <v>1109</v>
       </c>
@@ -12317,7 +12376,7 @@
         <v>62898</v>
       </c>
     </row>
-    <row r="443" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B443" t="s">
         <v>1111</v>
       </c>
@@ -12330,10 +12389,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{B5579375-C498-4002-96D3-8F4425FD980D}"/>
-    <hyperlink ref="B9" r:id="rId2" xr:uid="{25BB6CA8-B61B-4BD2-BA01-105A06EF14A4}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{0F00647C-6D03-4E62-A3E4-AA5737E9FE43}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{944A3612-1AB2-43EA-A0EF-44B3D588A2C0}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{0A2CDDC6-8248-44B3-AA12-610A57421684}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{CEC2967C-5861-49FB-8980-BEFC6FF4727A}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{3761CBAC-F8BA-4960-A726-EC1941E66D35}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{2767DD6C-02C9-414F-8622-AF4FAEE28C1D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
@@ -12346,22 +12405,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" customWidth="1"/>
-    <col min="7" max="7" width="23.5" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+    <col min="7" max="7" width="23.54296875" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" customWidth="1"/>
+    <col min="10" max="10" width="21.7265625" customWidth="1"/>
+    <col min="11" max="11" width="18.81640625" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="19" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="65"/>
       <c r="B1" s="66" t="s">
         <v>144</v>
@@ -12397,7 +12456,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="61"/>
       <c r="B2" s="52" t="s">
         <v>142</v>
@@ -12433,7 +12492,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="62" t="s">
         <v>111</v>
       </c>
@@ -12471,18 +12530,18 @@
       </c>
       <c r="J3" s="54">
         <f>'U.S. Data for ISIC Splits'!P10/SUM('U.S. Data for ISIC Splits'!$P10:$R10)</f>
-        <v>0.80427475032164764</v>
+        <v>0.68459935185860177</v>
       </c>
       <c r="K3" s="63">
         <f>'U.S. Data for ISIC Splits'!Q10/SUM('U.S. Data for ISIC Splits'!$P10:$R10)</f>
-        <v>0.16748643824657769</v>
+        <v>0.14256459875540944</v>
       </c>
       <c r="L3" s="55">
         <f>'U.S. Data for ISIC Splits'!R10/SUM('U.S. Data for ISIC Splits'!$P10:$R10)</f>
-        <v>2.8238811431774698E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.17283604938598873</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="62" t="s">
         <v>112</v>
       </c>
@@ -12520,18 +12579,18 @@
       </c>
       <c r="J4" s="54">
         <f>'U.S. Data for ISIC Splits'!P11/SUM('U.S. Data for ISIC Splits'!$P11:$R11)</f>
-        <v>0.80427475032164764</v>
+        <v>0.68459935185860166</v>
       </c>
       <c r="K4" s="63">
         <f>'U.S. Data for ISIC Splits'!Q11/SUM('U.S. Data for ISIC Splits'!$P11:$R11)</f>
-        <v>0.16748643824657769</v>
+        <v>0.14256459875540944</v>
       </c>
       <c r="L4" s="55">
         <f>'U.S. Data for ISIC Splits'!R11/SUM('U.S. Data for ISIC Splits'!$P11:$R11)</f>
-        <v>2.8238811431774698E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.17283604938598873</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="62" t="s">
         <v>113</v>
       </c>
@@ -12569,15 +12628,15 @@
       </c>
       <c r="J5" s="56">
         <f>'U.S. Data for ISIC Splits'!P12/SUM('U.S. Data for ISIC Splits'!$P12:$R12)</f>
-        <v>0.80427475032164764</v>
+        <v>0.68459935185860177</v>
       </c>
       <c r="K5" s="64">
         <f>'U.S. Data for ISIC Splits'!Q12/SUM('U.S. Data for ISIC Splits'!$P12:$R12)</f>
-        <v>0.16748643824657769</v>
+        <v>0.14256459875540944</v>
       </c>
       <c r="L5" s="57">
         <f>'U.S. Data for ISIC Splits'!R12/SUM('U.S. Data for ISIC Splits'!$P12:$R12)</f>
-        <v>2.8238811431774695E-2</v>
+        <v>0.17283604938598873</v>
       </c>
     </row>
   </sheetData>
@@ -12595,26 +12654,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="26" width="10.1640625" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" customWidth="1"/>
+    <col min="2" max="26" width="10.1796875" customWidth="1"/>
     <col min="27" max="27" width="14" customWidth="1"/>
-    <col min="28" max="28" width="11.6640625" customWidth="1"/>
-    <col min="29" max="43" width="10.1640625" customWidth="1"/>
+    <col min="28" max="28" width="11.7265625" customWidth="1"/>
+    <col min="29" max="43" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="69" t="s">
         <v>143</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -12638,25 +12697,25 @@
       <c r="K1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="69" t="s">
+      <c r="L1" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="M1" s="70" t="s">
+      <c r="M1" s="69" t="s">
         <v>107</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="69" t="s">
+      <c r="O1" s="68" t="s">
         <v>1113</v>
       </c>
-      <c r="P1" s="70" t="s">
+      <c r="P1" s="69" t="s">
         <v>1114</v>
       </c>
-      <c r="Q1" s="69" t="s">
+      <c r="Q1" s="68" t="s">
         <v>1118</v>
       </c>
-      <c r="R1" s="70" t="s">
+      <c r="R1" s="69" t="s">
         <v>1119</v>
       </c>
       <c r="S1" s="4" t="s">
@@ -12680,13 +12739,13 @@
       <c r="Y1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="69" t="s">
+      <c r="Z1" s="68" t="s">
         <v>1115</v>
       </c>
-      <c r="AA1" s="74" t="s">
+      <c r="AA1" s="73" t="s">
         <v>1116</v>
       </c>
-      <c r="AB1" s="70" t="s">
+      <c r="AB1" s="69" t="s">
         <v>1117</v>
       </c>
       <c r="AC1" s="4" t="s">
@@ -12735,7 +12794,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
         <v>104</v>
       </c>
@@ -12743,11 +12802,11 @@
         <f>'OECD VAL'!C10/SUM('OECD VAL'!C9:C11)</f>
         <v>6.1517190580761986E-2</v>
       </c>
-      <c r="C2" s="71">
+      <c r="C2" s="70">
         <f>('OECD VAL'!$D$10*'Split ISIC Code Shares'!B$4)/SUMPRODUCT('OECD VAL'!$D$9:$D$11,'Split ISIC Code Shares'!B$3:B$5)</f>
         <v>4.9495022154874085E-2</v>
       </c>
-      <c r="D2" s="72">
+      <c r="D2" s="71">
         <f>('OECD VAL'!$D$10*'Split ISIC Code Shares'!C$4)/SUMPRODUCT('OECD VAL'!$D$9:$D$11,'Split ISIC Code Shares'!C$3:C$5)</f>
         <v>0.10511453602057504</v>
       </c>
@@ -12779,11 +12838,11 @@
         <f>'OECD VAL'!K10/SUM('OECD VAL'!K9:K11)</f>
         <v>2.1425789482983619E-2</v>
       </c>
-      <c r="L2" s="71">
+      <c r="L2" s="70">
         <f>('OECD VAL'!$L$10*'Split ISIC Code Shares'!D$4)/SUMPRODUCT('OECD VAL'!$L$9:$L$11,'Split ISIC Code Shares'!D$3:D$5)</f>
         <v>3.484244036412798E-2</v>
       </c>
-      <c r="M2" s="72">
+      <c r="M2" s="71">
         <f>('OECD VAL'!$L$10*'Split ISIC Code Shares'!E$4)/SUMPRODUCT('OECD VAL'!$L$9:$L$11,'Split ISIC Code Shares'!E$3:E$5)</f>
         <v>3.484244036412798E-2</v>
       </c>
@@ -12791,19 +12850,19 @@
         <f>'OECD VAL'!M10/SUM('OECD VAL'!M9:M11)</f>
         <v>2.1680370671842714E-2</v>
       </c>
-      <c r="O2" s="71">
+      <c r="O2" s="70">
         <f>('OECD VAL'!$N$10*'Split ISIC Code Shares'!F$4)/SUMPRODUCT('OECD VAL'!$N$9:$N$11,'Split ISIC Code Shares'!F$3:F$5)</f>
         <v>2.8480429060816683E-2</v>
       </c>
-      <c r="P2" s="72">
+      <c r="P2" s="71">
         <f>('OECD VAL'!$N$10*'Split ISIC Code Shares'!G$4)/SUMPRODUCT('OECD VAL'!$N$9:$N$11,'Split ISIC Code Shares'!G$3:G$5)</f>
         <v>2.848042906081668E-2</v>
       </c>
-      <c r="Q2" s="71">
+      <c r="Q2" s="70">
         <f>('OECD VAL'!$O$10*'Split ISIC Code Shares'!H$4)/SUMPRODUCT('OECD VAL'!$O$9:$O$11,'Split ISIC Code Shares'!H$3:H$5)</f>
         <v>4.3506251471436601E-2</v>
       </c>
-      <c r="R2" s="72">
+      <c r="R2" s="71">
         <f>('OECD VAL'!$O$10*'Split ISIC Code Shares'!I$4)/SUMPRODUCT('OECD VAL'!$O$9:$O$11,'Split ISIC Code Shares'!I$3:I$5)</f>
         <v>4.3506251471436608E-2</v>
       </c>
@@ -12835,15 +12894,15 @@
         <f>'OECD VAL'!V10/SUM('OECD VAL'!V9:V11)</f>
         <v>1.9698422822110023E-2</v>
       </c>
-      <c r="Z2" s="71">
+      <c r="Z2" s="70">
         <f>('OECD VAL'!$W$10*'Split ISIC Code Shares'!J$4)/SUMPRODUCT('OECD VAL'!$W$9:$W$11,'Split ISIC Code Shares'!J$3:J$5)</f>
-        <v>0.13319579866756548</v>
-      </c>
-      <c r="AA2" s="73">
+        <v>0.13319579866756545</v>
+      </c>
+      <c r="AA2" s="72">
         <f>('OECD VAL'!$W$10*'Split ISIC Code Shares'!K$4)/SUMPRODUCT('OECD VAL'!$W$9:$W$11,'Split ISIC Code Shares'!K$3:K$5)</f>
         <v>0.13319579866756548</v>
       </c>
-      <c r="AB2" s="72">
+      <c r="AB2" s="71">
         <f>('OECD VAL'!$W$10*'Split ISIC Code Shares'!L$4)/SUMPRODUCT('OECD VAL'!$W$9:$W$11,'Split ISIC Code Shares'!L$3:L$5)</f>
         <v>0.13319579866756548</v>
       </c>
@@ -12908,7 +12967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="Q3" s="62"/>
     </row>
   </sheetData>

--- a/InputData/io-model/DToPaSoVAbIC/Domestic Taxes on Prod as Shr of Val Added by ISIC Code.xlsx
+++ b/InputData/io-model/DToPaSoVAbIC/Domestic Taxes on Prod as Shr of Val Added by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lainie Rowland\Desktop\GitHub Repos\state-eps-data-repository\CA\io-model\DToPaSoVAbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\California\Models\eps-california\InputData\io-model\DToPaSoVAbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4B28D2E-C55E-4D50-94FC-C16E00312658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876BFA66-9EA8-454F-8AA7-D662CE7A6615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="600" windowWidth="18270" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="1128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="1144">
   <si>
     <t>Source:</t>
   </si>
@@ -3421,6 +3421,54 @@
   </si>
   <si>
     <t>California</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="utf-16"?&gt;&lt;WebTableParameter xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns="http://stats.oecd.org/OECDStatWS/2004/03/01/"&gt;&lt;DataTable Code="IOTSI4_2018" HasMetadata="true"&gt;&lt;Name LocaleIsoCode="en"&gt;Input-Output Tables (IOTs) 2018 ed.&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Tableaux des Entrées-Sorties (TES) éd. 2018&lt;/Name&gt;&lt;Dimension Code="VAR" HasMetadata="false" Display="codesandlabels"&gt;&lt;Name LocaleIsoCode="en"&gt;Variable&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Variable&lt;/Name&gt;&lt;Member Code="TTL" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0" IsDisplayed="true"&gt;&lt;Name LocaleIsoCode="en"&gt;Total&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Total&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="DOMIMP" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Domestic output and imports&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Production intérieure et importations&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="VAL" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Value added&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Valeur ajoutée&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LEONTFT" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Leontief inverse matrix (total)&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Matrice inverse de Leontiev (total)&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LEONTFD" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Leontief inverse matrix (domestic)&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Matrice inverse de Leontiev (intérieure)&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ICESHR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Imports content of exports, as % of exports&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Contenu en importations des exportations, en % des exportations&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="COU" HasMetadata="false" Display="codesandlabels"&gt;&lt;Name LocaleIsoCode="en"&gt;Country&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pays&lt;/Name&gt;&lt;Member Code="AUS" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Australia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Australie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="AUT" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Austria&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Autriche&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="BEL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Belgium&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Belgique&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CAN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Canada&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Canada&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CHL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Chile&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Chili&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CZE" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Czech Republic&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;République tchèque&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="DNK" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Denmark&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Danemark&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="EST" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Estonia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Estonie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="FIN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Finland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Finlande&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="FRA" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;France&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;France&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="DEU" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Germany&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Allemagne&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="GRC" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Greece&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Grèce&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="HUN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Hungary&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Hongrie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ISL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Iceland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Islande&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="IRL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Ireland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Irlande&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ISR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Israel&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Israël&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ITA" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Italy&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Italie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="JPN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Japan&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Japon&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="KOR" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Korea&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Corée&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LVA" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Latvia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Lettonie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LTU" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Lithuania&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Lituanie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LUX" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Luxembourg&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Luxembourg&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="MEX" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Mexico&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Mexique&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NLD" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Netherlands&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pays-Bas&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NZL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;New Zealand&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Nouvelle-Zélande&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NOR" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Norway&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Norvège&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="POL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Poland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pologne&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="PRT" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Portugal&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Portugal&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="SVK" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Slovak Republic&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;République slovaque&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="SVN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Slovenia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Slovénie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ESP" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Spain&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Espagne&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="SWE" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Sweden&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Suède&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CHE" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Switzerland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Suisse&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="TUR" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Turkey&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Turquie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="GBR" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;United Kingdom&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Royaume-Uni&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="USA" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0" IsDisplayed="true"&gt;&lt;Name LocaleIsoCode="en"&gt;United States&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;États-Unis&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ARG" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Argentina&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Argentine&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="BGR" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Bulgaria&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Bulgarie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="BRA" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Brazil&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Brésil&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="BRN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Brunei Darussalam&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Brunei Darussalam&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CHN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;China (People's Republic of)&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Chine (République populaire de)&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="COL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Colombia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Colombie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CRI" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Costa Rica&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Costa Rica&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CYP" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Cyprus&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Chypre&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="HKG" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Hong Kong, China&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Hong Kong, Chine&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="HRV" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Croatia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Croatie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="IDN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Indonesia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Indonésie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="IND" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;India&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Inde&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="KAZ" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Kazakhstan&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Kazakhstan&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="KHM" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Cambodia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Cambodge&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="MLT" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Malta&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Malte&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="MYS" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Malaysia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Malaisie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="MAR" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Morocco&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Maroc&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="PER" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Peru&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pérou&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="PHL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Philippines&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Philippines&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ROU" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Romania&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Roumanie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="RUS" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Russian Federation&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Fédération de Russie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="SAU" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Saudi Arabia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Arabie saoudite&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="SGP" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Singapore&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Singapour&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="THA" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Thailand&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Thaïlande&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="TUN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Tunisia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Tunisie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="TWN" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Chinese Taipei&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Taipei chinois&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="VNM" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Viet Nam&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Viet Nam&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ZAF" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;South Africa&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Afrique du Sud&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="TIME" HasMetadata="false" CommonCode="TIME" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Time&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Temps&lt;/Name&gt;&lt;Member Code="2005" HasMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;2005&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;2005&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="2006" HasMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;2006&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;2006&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="2007" HasMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;2007&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;2007&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="2008" HasMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;2008&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;2008&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="2009" HasMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;2009&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;2009&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="2010" HasMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;2010&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;2010&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="2011" HasMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;2011&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;2011&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="2012" HasMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;2012&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;2012&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="2013" HasMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;2013&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;2013&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="2014" HasMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;2014&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;2014&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="2015" HasMetadata="false" IsDisplayed="true"&gt;&lt;Name LocaleIsoCode="en"&gt;2015&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;2015&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="ROW" HasMetadata="false" Display="codesandlabels"&gt;&lt;Name LocaleIsoCode="en"&gt;From: (sector in row)&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;De: (secteur en ligne)&lt;/Name&gt;&lt;Member Code="VALU" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Value added at basic prices&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Valeur ajoutée aux prix de base&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="OUTPUT" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Output at basic prices&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Production aux prix de base&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="TOTAL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Total&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Total&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="COL" HasMetadata="false" Display="codesandlabels"&gt;&lt;Name LocaleIsoCode="en"&gt;To: (sector in column)&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;À: (secteur en colonne)&lt;/Name&gt;&lt;Member Code="D01T03" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Agriculture, forestry and fishing&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Agriculture, sylviculture et pêche&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D05T06" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Mining and extraction of energy producing products&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Extraction de matériaux énergétiques&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D07T08" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Mining and quarrying of non-energy producing products&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Extraction de matériaux non énergétiques&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D09" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Mining support service activities&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Services de soutien aux industries extractives&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D10T12" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Food products, beverages and tobacco&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Produits alimentaires, boissons et tabac&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D13T15" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Textiles, wearing apparel, leather and related products&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Textiles, articles d'habillement, cuir et articles connexes&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D16" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Wood and products of wood and cork&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Production de bois, fabrication d'articles en bois et en liège&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D17T18" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Paper products and printing&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Industrie du papier, du carton et imprimerie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D19" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Coke and refined petroleum products&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Cokéfaction et raffinage&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D20T21" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Chemicals and pharmaceutical products&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Produits chimiques et pharmaceutiques&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D22" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Rubber and plastic products&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Produits en caoutchouc et matières plastiques&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D23" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Other non-metallic mineral products&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Autres produits minéraux non métalliques&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D24" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Basic metals&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Métallurgie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D25" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Fabricated metal products&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Fabrication d'ouvrages en métaux&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D26" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Computer, electronic and optical products&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Produits informatiques, appareils électroniques et optiques&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D27" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Electrical equipment&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Équipements électriques&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D28" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Machinery and equipment, nec &lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Machines et matériel d'équipement, nca&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D29" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Motor vehicles, trailers and semi-trailers&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Véhicules automobiles, remorques et semi-remorques&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D30" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Other transport equipment&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Autres matériels de transport&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D31T33" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Other manufacturing; repair and installation of machinery and equipment&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Autres activités de fabrication; réparation et installation de machines et équipement&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D35T39" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Electricity, gas, water supply, sewerage, waste and remediation services&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Electricité, gaz, eau et traitement des déchets&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D41T43" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Construction&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Construction&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D45T47" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Wholesale and retail trade; repair of motor vehicles&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Commerce de gros et de détail; réparation de véhicules&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D49T53" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Transportation and storage&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Transports et entreposage&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D55T56" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Accomodation and food services&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Hébergement et restauration&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D58T60" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Publishing, audiovisual and broadcasting activities&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Edition, audiovisuel et diffusion&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D61" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Telecommunications&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Télécommunications&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D62T63" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;IT and other information services&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Activités informatiques et services d'information&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D64T66" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Financial and insurance activities&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Activités financières et d'assurance&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D68" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Real estate activities&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Activités immobilières&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D69T82" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Other business sector services&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Autres activités du secteur des entreprises&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D84" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Public admin. and defence; compulsory social security&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Administration publique et défense; sécurité sociale obligatoire&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D85" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Education&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Enseignement&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D86T88" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Human health and social work&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Santé humaine et action sociale&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D90T96" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Arts, entertainment, recreation and other service activities&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Arts, spectacles, récréation et autres activités de services&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D97T98" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Private households with employed persons&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Activités des ménages privés employant du personnel domestique&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="HFCE" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Final consumption expenditure of households&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Dépenses des ménages&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NPISH" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Final consumption expenditure of non-profit institutions serving households&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Dépenses des institutions à but non lucratif&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="GGFC" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Final consumption expenditure of general government&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Dépenses gouvernementales&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="GFCF" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Gross Fixed Capital Formation&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Formation brute de capital fixe&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="INVNT" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Changes in inventories&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Variations de stocks&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CONS_ABR" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Direct purchases abroad by residents (imports)&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Dépenses directes à l'étranger des résidents (importations)&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CONS_NONRES" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Direct purchases by non-residents (exports)&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Dépenses directes des non résidents (exportations)&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="EXPO" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Exports (cross border)&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Exportations (transfrontalières)&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="IMPO" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Imports (cross border)&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Importations (transfrontalières)&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="TOTAL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Total&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Total&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ICESHR" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Imports content of exports shares&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Parts du contenu en importations des exportations&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;WBOSInformations&gt;&lt;TimeDimension WebTreeWasUsed="false"&gt;&lt;StartCodes Annual="2005" /&gt;&lt;/TimeDimension&gt;&lt;/WBOSInformations&gt;&lt;Tabulation Axis="horizontal"&gt;&lt;Dimension Code="COL" /&gt;&lt;/Tabulation&gt;&lt;Tabulation Axis="vertical"&gt;&lt;Dimension Code="ROW" /&gt;&lt;/Tabulation&gt;&lt;Tabulation Axis="page"&gt;&lt;Dimension Code="VAR" /&gt;&lt;Dimension Code="COU" /&gt;&lt;Dimension Code="TIME" CommonCode="TIME" /&gt;&lt;/Tabulation&gt;&lt;Formatting&gt;&lt;Labels LocaleIsoCode="en" /&gt;&lt;Power&gt;0&lt;/Power&gt;&lt;Decimals&gt;1&lt;/Decimals&gt;&lt;SkipEmptyLines&gt;true&lt;/SkipEmptyLines&gt;&lt;SkipEmptyCols&gt;false&lt;/SkipEmptyCols&gt;&lt;SkipLineHierarchy&gt;true&lt;/SkipLineHierarchy&gt;&lt;SkipColHierarchy&gt;false&lt;/SkipColHierarchy&gt;&lt;Page&gt;1&lt;/Page&gt;&lt;/Formatting&gt;&lt;/DataTable&gt;&lt;Format&gt;&lt;ShowEmptyAxes&gt;true&lt;/ShowEmptyAxes&gt;&lt;Page&gt;1&lt;/Page&gt;&lt;EnableSort&gt;true&lt;/EnableSort&gt;&lt;IncludeFlagColumn&gt;false&lt;/IncludeFlagColumn&gt;&lt;IncludeTimeSeriesId&gt;false&lt;/IncludeTimeSeriesId&gt;&lt;DoBarChart&gt;false&lt;/DoBarChart&gt;&lt;FreezePanes&gt;false&lt;/FreezePanes&gt;&lt;MaxBarChartLen&gt;65&lt;/MaxBarChartLen&gt;&lt;/Format&gt;&lt;Query&gt;&lt;AbsoluteUri&gt;http://stats.oecd.org//View.aspx?QueryId=&amp;amp;QueryType=Public&amp;amp;Lang=en&lt;/AbsoluteUri&gt;&lt;/Query&gt;&lt;/WebTableParameter&gt;</t>
+  </si>
+  <si>
+    <t>Dataset: Input-Output Tables (IOTs) 2018 ed.</t>
+  </si>
+  <si>
+    <t>TTL: Total</t>
+  </si>
+  <si>
+    <t>HFCE: Final consumption expenditure of households</t>
+  </si>
+  <si>
+    <t>NPISH: Final consumption expenditure of non-profit institutions serving households</t>
+  </si>
+  <si>
+    <t>GGFC: Final consumption expenditure of general government</t>
+  </si>
+  <si>
+    <t>GFCF: Gross Fixed Capital Formation</t>
+  </si>
+  <si>
+    <t>INVNT: Changes in inventories</t>
+  </si>
+  <si>
+    <t>CONS_ABR: Direct purchases abroad by residents (imports)</t>
+  </si>
+  <si>
+    <t>CONS_NONRES: Direct purchases by non-residents (exports)</t>
+  </si>
+  <si>
+    <t>EXPO: Exports (cross border)</t>
+  </si>
+  <si>
+    <t>IMPO: Imports (cross border)</t>
+  </si>
+  <si>
+    <t>VALU: Value added at basic prices</t>
+  </si>
+  <si>
+    <t>OUTPUT: Output at basic prices</t>
+  </si>
+  <si>
+    <t>Data extracted on 13 May 2022 20:40 UTC (GMT) from OECD.Stat</t>
+  </si>
+  <si>
+    <t>For state sales tax, we add it to the values here based on the rate (7.5% for CA) and the share of each industry that is value added.</t>
   </si>
 </sst>
 </file>
@@ -3800,7 +3848,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3992,6 +4040,61 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4276,16 +4379,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="77.54296875" customWidth="1"/>
+    <col min="2" max="2" width="77.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -4296,7 +4402,7 @@
         <v>44516</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4304,202 +4410,207 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="74" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="74" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="74" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>0.9686815713640794</v>
       </c>
       <c r="B49" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1143</v>
       </c>
     </row>
   </sheetData>
@@ -4515,27 +4626,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85A05A9-5EF4-439D-BB96-CB75B2819958}">
-  <dimension ref="A1:AL12"/>
+  <dimension ref="A1:AU27"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.453125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="2.453125" style="6" customWidth="1"/>
-    <col min="3" max="24" width="9.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="31" width="9.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="34" width="9.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="9.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="9.1796875" style="6"/>
+    <col min="1" max="1" width="27.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" style="6" customWidth="1"/>
+    <col min="3" max="24" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="31" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
@@ -4544,12 +4655,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A3" s="76" t="s">
         <v>42</v>
       </c>
@@ -4593,7 +4704,7 @@
       <c r="AK3" s="84"/>
       <c r="AL3" s="85"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A4" s="76" t="s">
         <v>4</v>
       </c>
@@ -4637,7 +4748,7 @@
       <c r="AK4" s="79"/>
       <c r="AL4" s="80"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A5" s="76" t="s">
         <v>6</v>
       </c>
@@ -4681,7 +4792,7 @@
       <c r="AK5" s="79"/>
       <c r="AL5" s="80"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A6" s="76" t="s">
         <v>8</v>
       </c>
@@ -4725,7 +4836,7 @@
       <c r="AK6" s="79"/>
       <c r="AL6" s="80"/>
     </row>
-    <row r="7" spans="1:38" ht="100" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" ht="126" x14ac:dyDescent="0.2">
       <c r="A7" s="81" t="s">
         <v>44</v>
       </c>
@@ -4839,7 +4950,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>81</v>
       </c>
@@ -4955,7 +5066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>88</v>
       </c>
@@ -5071,7 +5182,7 @@
         <v>21351.7</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>89</v>
       </c>
@@ -5187,7 +5298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>90</v>
       </c>
@@ -5303,13 +5414,1142 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>91</v>
       </c>
     </row>
+    <row r="15" spans="1:47" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="86" t="e">
+        <f ca="1">DotStatQuery(B15)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B15" s="86" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+      <c r="AJ15"/>
+      <c r="AK15"/>
+      <c r="AL15"/>
+      <c r="AM15"/>
+      <c r="AN15"/>
+      <c r="AO15"/>
+      <c r="AP15"/>
+      <c r="AQ15"/>
+      <c r="AR15"/>
+      <c r="AS15"/>
+      <c r="AT15"/>
+      <c r="AU15"/>
+    </row>
+    <row r="16" spans="1:47" ht="24" x14ac:dyDescent="0.25">
+      <c r="A16" s="87" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+      <c r="AK16"/>
+      <c r="AL16"/>
+      <c r="AM16"/>
+      <c r="AN16"/>
+      <c r="AO16"/>
+      <c r="AP16"/>
+      <c r="AQ16"/>
+      <c r="AR16"/>
+      <c r="AS16"/>
+      <c r="AT16"/>
+      <c r="AU16"/>
+    </row>
+    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A17" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="89"/>
+      <c r="C17" s="90" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="91"/>
+      <c r="S17" s="91"/>
+      <c r="T17" s="91"/>
+      <c r="U17" s="91"/>
+      <c r="V17" s="91"/>
+      <c r="W17" s="91"/>
+      <c r="X17" s="91"/>
+      <c r="Y17" s="91"/>
+      <c r="Z17" s="91"/>
+      <c r="AA17" s="91"/>
+      <c r="AB17" s="91"/>
+      <c r="AC17" s="91"/>
+      <c r="AD17" s="91"/>
+      <c r="AE17" s="91"/>
+      <c r="AF17" s="91"/>
+      <c r="AG17" s="91"/>
+      <c r="AH17" s="91"/>
+      <c r="AI17" s="91"/>
+      <c r="AJ17" s="91"/>
+      <c r="AK17" s="91"/>
+      <c r="AL17" s="91"/>
+      <c r="AM17" s="91"/>
+      <c r="AN17" s="91"/>
+      <c r="AO17" s="91"/>
+      <c r="AP17" s="91"/>
+      <c r="AQ17" s="91"/>
+      <c r="AR17" s="91"/>
+      <c r="AS17" s="91"/>
+      <c r="AT17" s="91"/>
+      <c r="AU17" s="92"/>
+    </row>
+    <row r="18" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A18" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="89"/>
+      <c r="C18" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="94"/>
+      <c r="Z18" s="94"/>
+      <c r="AA18" s="94"/>
+      <c r="AB18" s="94"/>
+      <c r="AC18" s="94"/>
+      <c r="AD18" s="94"/>
+      <c r="AE18" s="94"/>
+      <c r="AF18" s="94"/>
+      <c r="AG18" s="94"/>
+      <c r="AH18" s="94"/>
+      <c r="AI18" s="94"/>
+      <c r="AJ18" s="94"/>
+      <c r="AK18" s="94"/>
+      <c r="AL18" s="94"/>
+      <c r="AM18" s="94"/>
+      <c r="AN18" s="94"/>
+      <c r="AO18" s="94"/>
+      <c r="AP18" s="94"/>
+      <c r="AQ18" s="94"/>
+      <c r="AR18" s="94"/>
+      <c r="AS18" s="94"/>
+      <c r="AT18" s="94"/>
+      <c r="AU18" s="95"/>
+    </row>
+    <row r="19" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A19" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="89"/>
+      <c r="C19" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="94"/>
+      <c r="T19" s="94"/>
+      <c r="U19" s="94"/>
+      <c r="V19" s="94"/>
+      <c r="W19" s="94"/>
+      <c r="X19" s="94"/>
+      <c r="Y19" s="94"/>
+      <c r="Z19" s="94"/>
+      <c r="AA19" s="94"/>
+      <c r="AB19" s="94"/>
+      <c r="AC19" s="94"/>
+      <c r="AD19" s="94"/>
+      <c r="AE19" s="94"/>
+      <c r="AF19" s="94"/>
+      <c r="AG19" s="94"/>
+      <c r="AH19" s="94"/>
+      <c r="AI19" s="94"/>
+      <c r="AJ19" s="94"/>
+      <c r="AK19" s="94"/>
+      <c r="AL19" s="94"/>
+      <c r="AM19" s="94"/>
+      <c r="AN19" s="94"/>
+      <c r="AO19" s="94"/>
+      <c r="AP19" s="94"/>
+      <c r="AQ19" s="94"/>
+      <c r="AR19" s="94"/>
+      <c r="AS19" s="94"/>
+      <c r="AT19" s="94"/>
+      <c r="AU19" s="95"/>
+    </row>
+    <row r="20" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A20" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="89"/>
+      <c r="C20" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="94"/>
+      <c r="U20" s="94"/>
+      <c r="V20" s="94"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="94"/>
+      <c r="Y20" s="94"/>
+      <c r="Z20" s="94"/>
+      <c r="AA20" s="94"/>
+      <c r="AB20" s="94"/>
+      <c r="AC20" s="94"/>
+      <c r="AD20" s="94"/>
+      <c r="AE20" s="94"/>
+      <c r="AF20" s="94"/>
+      <c r="AG20" s="94"/>
+      <c r="AH20" s="94"/>
+      <c r="AI20" s="94"/>
+      <c r="AJ20" s="94"/>
+      <c r="AK20" s="94"/>
+      <c r="AL20" s="94"/>
+      <c r="AM20" s="94"/>
+      <c r="AN20" s="94"/>
+      <c r="AO20" s="94"/>
+      <c r="AP20" s="94"/>
+      <c r="AQ20" s="94"/>
+      <c r="AR20" s="94"/>
+      <c r="AS20" s="94"/>
+      <c r="AT20" s="94"/>
+      <c r="AU20" s="95"/>
+    </row>
+    <row r="21" spans="1:47" ht="126" x14ac:dyDescent="0.2">
+      <c r="A21" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="97"/>
+      <c r="C21" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="98" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="98" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="M21" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="N21" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="O21" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="P21" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q21" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="R21" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="S21" s="98" t="s">
+        <v>61</v>
+      </c>
+      <c r="T21" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="U21" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="V21" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="W21" s="98" t="s">
+        <v>65</v>
+      </c>
+      <c r="X21" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y21" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z21" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA21" s="98" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB21" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC21" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD21" s="98" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE21" s="98" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF21" s="98" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG21" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH21" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI21" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ21" s="98" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK21" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL21" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM21" s="98" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AN21" s="98" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AO21" s="98" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AP21" s="98" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AQ21" s="98" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AR21" s="98" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AS21" s="98" t="s">
+        <v>1137</v>
+      </c>
+      <c r="AT21" s="98" t="s">
+        <v>1138</v>
+      </c>
+      <c r="AU21" s="98" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:47" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="99" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="N22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="O22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="P22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="R22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="S22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="T22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="U22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="V22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="W22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="X22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT22" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU22" s="100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:47" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="101" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B23" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="102">
+        <v>193880.1</v>
+      </c>
+      <c r="D23" s="102">
+        <v>224457.8</v>
+      </c>
+      <c r="E23" s="102">
+        <v>41179.699999999997</v>
+      </c>
+      <c r="F23" s="102">
+        <v>51902.2</v>
+      </c>
+      <c r="G23" s="102">
+        <v>248447.3</v>
+      </c>
+      <c r="H23" s="102">
+        <v>27632.7</v>
+      </c>
+      <c r="I23" s="102">
+        <v>29104</v>
+      </c>
+      <c r="J23" s="102">
+        <v>96638.1</v>
+      </c>
+      <c r="K23" s="102">
+        <v>158470.79999999999</v>
+      </c>
+      <c r="L23" s="102">
+        <v>375984.4</v>
+      </c>
+      <c r="M23" s="102">
+        <v>79855</v>
+      </c>
+      <c r="N23" s="102">
+        <v>51405.3</v>
+      </c>
+      <c r="O23" s="102">
+        <v>55642.9</v>
+      </c>
+      <c r="P23" s="102">
+        <v>146781</v>
+      </c>
+      <c r="Q23" s="102">
+        <v>278512</v>
+      </c>
+      <c r="R23" s="102">
+        <v>56318.400000000001</v>
+      </c>
+      <c r="S23" s="102">
+        <v>147210</v>
+      </c>
+      <c r="T23" s="102">
+        <v>160519.29999999999</v>
+      </c>
+      <c r="U23" s="102">
+        <v>134148.79999999999</v>
+      </c>
+      <c r="V23" s="102">
+        <v>113138.6</v>
+      </c>
+      <c r="W23" s="102">
+        <v>305741.09999999998</v>
+      </c>
+      <c r="X23" s="102">
+        <v>739913.7</v>
+      </c>
+      <c r="Y23" s="102">
+        <v>1844823.9</v>
+      </c>
+      <c r="Z23" s="102">
+        <v>578089.19999999995</v>
+      </c>
+      <c r="AA23" s="102">
+        <v>484860</v>
+      </c>
+      <c r="AB23" s="102">
+        <v>435104.7</v>
+      </c>
+      <c r="AC23" s="102">
+        <v>281228.7</v>
+      </c>
+      <c r="AD23" s="102">
+        <v>374165.9</v>
+      </c>
+      <c r="AE23" s="102">
+        <v>1330550.3</v>
+      </c>
+      <c r="AF23" s="102">
+        <v>2176388.2999999998</v>
+      </c>
+      <c r="AG23" s="102">
+        <v>2036776.7</v>
+      </c>
+      <c r="AH23" s="102">
+        <v>1550704.7</v>
+      </c>
+      <c r="AI23" s="102">
+        <v>967494.7</v>
+      </c>
+      <c r="AJ23" s="102">
+        <v>1284195.5</v>
+      </c>
+      <c r="AK23" s="102">
+        <v>467632.2</v>
+      </c>
+      <c r="AL23" s="102">
+        <v>21351.7</v>
+      </c>
+      <c r="AM23" s="102">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="102">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="102">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="102">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="102">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="102">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="102">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="102">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:47" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="101" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B24" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="103">
+        <v>455757.4</v>
+      </c>
+      <c r="D24" s="103">
+        <v>293671.09999999998</v>
+      </c>
+      <c r="E24" s="103">
+        <v>64889.3</v>
+      </c>
+      <c r="F24" s="103">
+        <v>87786.1</v>
+      </c>
+      <c r="G24" s="103">
+        <v>935808.4</v>
+      </c>
+      <c r="H24" s="103">
+        <v>87018.8</v>
+      </c>
+      <c r="I24" s="103">
+        <v>98613</v>
+      </c>
+      <c r="J24" s="103">
+        <v>269203.3</v>
+      </c>
+      <c r="K24" s="103">
+        <v>490118.1</v>
+      </c>
+      <c r="L24" s="103">
+        <v>785327</v>
+      </c>
+      <c r="M24" s="103">
+        <v>230983</v>
+      </c>
+      <c r="N24" s="103">
+        <v>119491.4</v>
+      </c>
+      <c r="O24" s="103">
+        <v>225243.7</v>
+      </c>
+      <c r="P24" s="103">
+        <v>367581.1</v>
+      </c>
+      <c r="Q24" s="103">
+        <v>380874.8</v>
+      </c>
+      <c r="R24" s="103">
+        <v>125254.1</v>
+      </c>
+      <c r="S24" s="103">
+        <v>380878.6</v>
+      </c>
+      <c r="T24" s="103">
+        <v>666400</v>
+      </c>
+      <c r="U24" s="103">
+        <v>334983</v>
+      </c>
+      <c r="V24" s="103">
+        <v>246719.5</v>
+      </c>
+      <c r="W24" s="103">
+        <v>475620.1</v>
+      </c>
+      <c r="X24" s="103">
+        <v>1351706.6</v>
+      </c>
+      <c r="Y24" s="103">
+        <v>2970593.4</v>
+      </c>
+      <c r="Z24" s="103">
+        <v>1121923.2</v>
+      </c>
+      <c r="AA24" s="103">
+        <v>917753.9</v>
+      </c>
+      <c r="AB24" s="103">
+        <v>657592</v>
+      </c>
+      <c r="AC24" s="103">
+        <v>635977.4</v>
+      </c>
+      <c r="AD24" s="103">
+        <v>578097.80000000005</v>
+      </c>
+      <c r="AE24" s="103">
+        <v>2294683.9</v>
+      </c>
+      <c r="AF24" s="103">
+        <v>3002385.4</v>
+      </c>
+      <c r="AG24" s="103">
+        <v>3345452.3</v>
+      </c>
+      <c r="AH24" s="103">
+        <v>2508797.2999999998</v>
+      </c>
+      <c r="AI24" s="103">
+        <v>1304057.3999999999</v>
+      </c>
+      <c r="AJ24" s="103">
+        <v>2187438.6</v>
+      </c>
+      <c r="AK24" s="103">
+        <v>800816.1</v>
+      </c>
+      <c r="AL24" s="103">
+        <v>21351.7</v>
+      </c>
+      <c r="AM24" s="103">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="103">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="103">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="103">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="103">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="103">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="103">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="103">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:47" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="104" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+      <c r="AE25"/>
+      <c r="AF25"/>
+      <c r="AG25"/>
+      <c r="AH25"/>
+      <c r="AI25"/>
+      <c r="AJ25"/>
+      <c r="AK25"/>
+      <c r="AL25"/>
+      <c r="AM25"/>
+      <c r="AN25"/>
+      <c r="AO25"/>
+      <c r="AP25"/>
+      <c r="AQ25"/>
+      <c r="AR25"/>
+      <c r="AS25"/>
+      <c r="AT25"/>
+      <c r="AU25"/>
+    </row>
+    <row r="27" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="C27" s="6">
+        <f>0.075/(C23/C24)</f>
+        <v>0.17630383417380122</v>
+      </c>
+      <c r="D27" s="6">
+        <f t="shared" ref="D27:AU27" si="0">0.075/(D23/D24)</f>
+        <v>9.8126830522262981E-2</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1181819561580099</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.12685314880679432</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.28249705269487735</v>
+      </c>
+      <c r="H27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.23618430337969146</v>
+      </c>
+      <c r="I27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.25412228559648159</v>
+      </c>
+      <c r="J27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.20892637065505218</v>
+      </c>
+      <c r="K27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.23195981530982362</v>
+      </c>
+      <c r="L27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.15665417235395934</v>
+      </c>
+      <c r="M27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.21693976582555882</v>
+      </c>
+      <c r="N27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.17433717924027287</v>
+      </c>
+      <c r="O27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.30360167245057323</v>
+      </c>
+      <c r="P27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1878211927974329</v>
+      </c>
+      <c r="Q27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.10256509593841558</v>
+      </c>
+      <c r="R27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.16680263466291656</v>
+      </c>
+      <c r="S27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.19404860403505195</v>
+      </c>
+      <c r="T27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.31136442782892776</v>
+      </c>
+      <c r="U27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.18728251762222251</v>
+      </c>
+      <c r="V27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1635512769293592</v>
+      </c>
+      <c r="W27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.11667226781090276</v>
+      </c>
+      <c r="X27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1370132692501842</v>
+      </c>
+      <c r="Y27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.12076735616879206</v>
+      </c>
+      <c r="Z27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.14555580695851092</v>
+      </c>
+      <c r="AA27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.14196168481623561</v>
+      </c>
+      <c r="AB27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.11335064870593214</v>
+      </c>
+      <c r="AC27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.16960681822303342</v>
+      </c>
+      <c r="AD27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.11587730202030704</v>
+      </c>
+      <c r="AE27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.12934594994266654</v>
+      </c>
+      <c r="AF27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.10346448976958754</v>
+      </c>
+      <c r="AG27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1231892148510929</v>
+      </c>
+      <c r="AH27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.12133825189283298</v>
+      </c>
+      <c r="AI27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.10109027470641441</v>
+      </c>
+      <c r="AJ27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1277514950021239</v>
+      </c>
+      <c r="AK27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.12843685165392801</v>
+      </c>
+      <c r="AL27" s="6">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AM27" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN27" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO27" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP27" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ27" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR27" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS27" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT27" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU27" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="18">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:AU20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:AU17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:AU18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:AU19"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:AL6"/>
     <mergeCell ref="A7:B7"/>
@@ -5324,6 +6564,9 @@
     <hyperlink ref="A2" r:id="rId1" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=IOTSI4_2018&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{4BD8A92A-72AB-40B8-AA8E-E586984C163B}"/>
     <hyperlink ref="C3" r:id="rId2" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=IOTSI4_2018&amp;Coords=[VAR].[VAL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{3CF70634-1B71-4900-84CF-E78B822B3BE4}"/>
     <hyperlink ref="A12" r:id="rId3" display="https://stats-3.oecd.org/index.aspx?DatasetCode=IOTSI4_2018" xr:uid="{8EED0287-6082-4234-AD70-A42CF32C6108}"/>
+    <hyperlink ref="A16" r:id="rId4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=IOTSI4_2018&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{604A5FD7-4790-4022-92AE-B325D69F7450}"/>
+    <hyperlink ref="C17" r:id="rId5" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=IOTSI4_2018&amp;Coords=[VAR].[TTL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{37D89601-49EE-412C-8BB1-157F1E12734B}"/>
+    <hyperlink ref="A25" r:id="rId6" display="https://stats-2.oecd.org/index.aspx?DatasetCode=IOTSI4_2018" xr:uid="{C412C09E-6726-40EE-97B8-1850471DA8D8}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5341,37 +6584,37 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.26953125" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" customWidth="1"/>
-    <col min="3" max="3" width="40.1796875" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" customWidth="1"/>
-    <col min="5" max="5" width="24.1796875" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" customWidth="1"/>
-    <col min="7" max="9" width="20.81640625" customWidth="1"/>
-    <col min="10" max="10" width="19.81640625" customWidth="1"/>
-    <col min="11" max="11" width="23.453125" customWidth="1"/>
-    <col min="12" max="12" width="22.453125" customWidth="1"/>
-    <col min="13" max="13" width="20.26953125" customWidth="1"/>
-    <col min="14" max="15" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" customWidth="1"/>
+    <col min="14" max="15" width="18.42578125" customWidth="1"/>
     <col min="16" max="16" width="23" customWidth="1"/>
-    <col min="17" max="17" width="20.81640625" customWidth="1"/>
-    <col min="18" max="18" width="19.1796875" customWidth="1"/>
-    <col min="19" max="19" width="16.54296875" customWidth="1"/>
+    <col min="17" max="17" width="20.85546875" customWidth="1"/>
+    <col min="18" max="18" width="19.140625" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="29" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" s="29" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>146</v>
       </c>
@@ -5430,7 +6673,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>117</v>
       </c>
@@ -5463,7 +6706,7 @@
       <c r="O4" s="30"/>
       <c r="S4" s="30"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>120</v>
       </c>
@@ -5517,7 +6760,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>123</v>
       </c>
@@ -5570,7 +6813,7 @@
       </c>
       <c r="S6" s="30"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>169</v>
       </c>
@@ -5630,7 +6873,7 @@
       </c>
       <c r="S7" s="30"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>126</v>
       </c>
@@ -5662,7 +6905,7 @@
         <v>513760000000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>129</v>
       </c>
@@ -5738,7 +6981,7 @@
         <v>299232000000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>131</v>
       </c>
@@ -5811,7 +7054,7 @@
         <v>77628000000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>171</v>
       </c>
@@ -5884,7 +7127,7 @@
         <v>59011000000</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>132</v>
       </c>
@@ -5957,37 +7200,37 @@
         <v>162593000000</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G25" s="1" t="s">
         <v>177</v>
       </c>
@@ -5995,7 +7238,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
         <v>178</v>
       </c>
@@ -6023,7 +7266,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>181</v>
       </c>
@@ -6052,7 +7295,7 @@
         <v>7310806</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>184</v>
       </c>
@@ -6082,7 +7325,7 @@
       </c>
       <c r="N28" s="21"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>187</v>
       </c>
@@ -6112,7 +7355,7 @@
       </c>
       <c r="N29" s="21"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>190</v>
       </c>
@@ -6142,7 +7385,7 @@
       </c>
       <c r="N30" s="21"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>193</v>
       </c>
@@ -6171,7 +7414,7 @@
         <v>9964</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>196</v>
       </c>
@@ -6200,7 +7443,7 @@
         <v>129835</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>199</v>
       </c>
@@ -6229,7 +7472,7 @@
         <v>86727</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>202</v>
       </c>
@@ -6258,7 +7501,7 @@
         <v>26971</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>205</v>
       </c>
@@ -6287,7 +7530,7 @@
         <v>16137</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>208</v>
       </c>
@@ -6316,7 +7559,7 @@
         <v>162593</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>211</v>
       </c>
@@ -6345,7 +7588,7 @@
         <v>227490</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>214</v>
       </c>
@@ -6374,7 +7617,7 @@
         <v>1037641</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>217</v>
       </c>
@@ -6403,7 +7646,7 @@
         <v>490800</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>220</v>
       </c>
@@ -6435,7 +7678,7 @@
         <v>11353</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>223</v>
       </c>
@@ -6467,7 +7710,7 @@
         <v>26135</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>226</v>
       </c>
@@ -6496,7 +7739,7 @@
         <v>25947</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>229</v>
       </c>
@@ -6525,7 +7768,7 @@
         <v>46896</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>232</v>
       </c>
@@ -6554,7 +7797,7 @@
         <v>54260</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>235</v>
       </c>
@@ -6583,7 +7826,7 @@
         <v>121224</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>238</v>
       </c>
@@ -6612,7 +7855,7 @@
         <v>28080</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>241</v>
       </c>
@@ -6641,7 +7884,7 @@
         <v>72921</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>244</v>
       </c>
@@ -6673,7 +7916,7 @@
         <v>68800</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>248</v>
       </c>
@@ -6705,7 +7948,7 @@
         <v>8477</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>251</v>
       </c>
@@ -6737,7 +7980,7 @@
         <v>26708</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>254</v>
       </c>
@@ -6769,7 +8012,7 @@
         <v>546841</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>257</v>
       </c>
@@ -6801,7 +8044,7 @@
         <v>128122</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>260</v>
       </c>
@@ -6833,7 +8076,7 @@
         <v>5348</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>263</v>
       </c>
@@ -6865,7 +8108,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>266</v>
       </c>
@@ -6897,7 +8140,7 @@
         <v>27760</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>269</v>
       </c>
@@ -6929,7 +8172,7 @@
         <v>13421</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>272</v>
       </c>
@@ -6961,7 +8204,7 @@
         <v>121879</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>275</v>
       </c>
@@ -6993,7 +8236,7 @@
         <v>216206</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>279</v>
       </c>
@@ -7025,7 +8268,7 @@
         <v>32875</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>283</v>
       </c>
@@ -7054,7 +8297,7 @@
         <v>422674</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>286</v>
       </c>
@@ -7083,7 +8326,7 @@
         <v>229589</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>289</v>
       </c>
@@ -7112,7 +8355,7 @@
         <v>210828</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>292</v>
       </c>
@@ -7141,7 +8384,7 @@
         <v>47193</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>295</v>
       </c>
@@ -7170,7 +8413,7 @@
         <v>19867</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>298</v>
       </c>
@@ -7199,7 +8442,7 @@
         <v>7603</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>301</v>
       </c>
@@ -7228,7 +8471,7 @@
         <v>52871</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>304</v>
       </c>
@@ -7257,7 +8500,7 @@
         <v>20673</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>307</v>
       </c>
@@ -7286,7 +8529,7 @@
         <v>26712</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>310</v>
       </c>
@@ -7315,7 +8558,7 @@
         <v>28010</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>313</v>
       </c>
@@ -7344,7 +8587,7 @@
         <v>7898</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>316</v>
       </c>
@@ -7373,7 +8616,7 @@
         <v>532970</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>319</v>
       </c>
@@ -7402,7 +8645,7 @@
         <v>103343</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>322</v>
       </c>
@@ -7431,7 +8674,7 @@
         <v>46882</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>325</v>
       </c>
@@ -7460,7 +8703,7 @@
         <v>273993</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>328</v>
       </c>
@@ -7489,7 +8732,7 @@
         <v>108752</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>331</v>
       </c>
@@ -7521,7 +8764,7 @@
         <v>2577118</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>335</v>
       </c>
@@ -7553,7 +8796,7 @@
         <v>583890</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>339</v>
       </c>
@@ -7585,7 +8828,7 @@
         <v>306900</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>342</v>
       </c>
@@ -7617,7 +8860,7 @@
         <v>-1604</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>345</v>
       </c>
@@ -7649,7 +8892,7 @@
         <v>263076</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>348</v>
       </c>
@@ -7681,7 +8924,7 @@
         <v>15519</v>
       </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>351</v>
       </c>
@@ -7713,7 +8956,7 @@
         <v>1993228</v>
       </c>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>354</v>
       </c>
@@ -7745,7 +8988,7 @@
         <v>1840595</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>357</v>
       </c>
@@ -7777,7 +9020,7 @@
         <v>152633</v>
       </c>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>360</v>
       </c>
@@ -7809,7 +9052,7 @@
         <v>571091</v>
       </c>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>363</v>
       </c>
@@ -7841,7 +9084,7 @@
         <v>404035</v>
       </c>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>366</v>
       </c>
@@ -7873,7 +9116,7 @@
         <v>99788</v>
       </c>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>369</v>
       </c>
@@ -7905,7 +9148,7 @@
         <v>44213</v>
       </c>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>373</v>
       </c>
@@ -7937,7 +9180,7 @@
         <v>260034</v>
       </c>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>376</v>
       </c>
@@ -7969,7 +9212,7 @@
         <v>37122</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>380</v>
       </c>
@@ -8001,7 +9244,7 @@
         <v>129933</v>
       </c>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>383</v>
       </c>
@@ -8033,7 +9276,7 @@
         <v>111954</v>
       </c>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>386</v>
       </c>
@@ -8065,7 +9308,7 @@
         <v>17979</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>389</v>
       </c>
@@ -8097,7 +9340,7 @@
         <v>269876</v>
       </c>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>392</v>
       </c>
@@ -8129,7 +9372,7 @@
         <v>44604</v>
       </c>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>395</v>
       </c>
@@ -8161,7 +9404,7 @@
         <v>225272</v>
       </c>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>398</v>
       </c>
@@ -8193,7 +9436,7 @@
         <v>140714</v>
       </c>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>401</v>
       </c>
@@ -8222,7 +9465,7 @@
         <v>74709</v>
       </c>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>404</v>
       </c>
@@ -8251,7 +9494,7 @@
         <v>9849</v>
       </c>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>407</v>
       </c>
@@ -8280,7 +9523,7 @@
         <v>208314</v>
       </c>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>410</v>
       </c>
@@ -8309,7 +9552,7 @@
         <v>73075</v>
       </c>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>413</v>
       </c>
@@ -8338,7 +9581,7 @@
         <v>52602</v>
       </c>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>416</v>
       </c>
@@ -8367,7 +9610,7 @@
         <v>20473</v>
       </c>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>419</v>
       </c>
@@ -8396,7 +9639,7 @@
         <v>135239</v>
       </c>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>422</v>
       </c>
@@ -8425,7 +9668,7 @@
         <v>53331</v>
       </c>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>425</v>
       </c>
@@ -8454,7 +9697,7 @@
         <v>81908</v>
       </c>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>428</v>
       </c>
@@ -8483,7 +9726,7 @@
         <v>83782</v>
       </c>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>431</v>
       </c>
@@ -8512,7 +9755,7 @@
         <v>517651</v>
       </c>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>434</v>
       </c>
@@ -8541,7 +9784,7 @@
         <v>268250</v>
       </c>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>437</v>
       </c>
@@ -8570,7 +9813,7 @@
         <v>263735</v>
       </c>
     </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>441</v>
       </c>
@@ -8599,7 +9842,7 @@
         <v>4515</v>
       </c>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>444</v>
       </c>
@@ -8628,7 +9871,7 @@
         <v>249400</v>
       </c>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>447</v>
       </c>
@@ -8657,7 +9900,7 @@
         <v>192044</v>
       </c>
     </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>450</v>
       </c>
@@ -8686,7 +9929,7 @@
         <v>57356</v>
       </c>
     </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>453</v>
       </c>
@@ -8701,7 +9944,7 @@
       </c>
       <c r="I115" s="43"/>
     </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>456</v>
       </c>
@@ -8721,7 +9964,7 @@
         <v>3268592</v>
       </c>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>459</v>
       </c>
@@ -8741,7 +9984,7 @@
         <v>12630266</v>
       </c>
     </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>462</v>
       </c>
@@ -8752,7 +9995,7 @@
         <v>30700</v>
       </c>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>464</v>
       </c>
@@ -8763,7 +10006,7 @@
         <v>9198</v>
       </c>
     </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>466</v>
       </c>
@@ -8774,7 +10017,7 @@
         <v>28981</v>
       </c>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>468</v>
       </c>
@@ -8785,7 +10028,7 @@
         <v>21607</v>
       </c>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>470</v>
       </c>
@@ -8796,7 +10039,7 @@
         <v>6176</v>
       </c>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>472</v>
       </c>
@@ -8807,7 +10050,7 @@
         <v>26748</v>
       </c>
     </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>474</v>
       </c>
@@ -8818,7 +10061,7 @@
         <v>4893</v>
       </c>
     </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>476</v>
       </c>
@@ -8829,7 +10072,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>478</v>
       </c>
@@ -8840,7 +10083,7 @@
         <v>21334</v>
       </c>
     </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>480</v>
       </c>
@@ -8851,7 +10094,7 @@
         <v>4558</v>
       </c>
     </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>482</v>
       </c>
@@ -8862,7 +10105,7 @@
         <v>32747</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>484</v>
       </c>
@@ -8873,7 +10116,7 @@
         <v>6678</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>486</v>
       </c>
@@ -8884,7 +10127,7 @@
         <v>6497</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>488</v>
       </c>
@@ -8895,7 +10138,7 @@
         <v>8423</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>490</v>
       </c>
@@ -8906,7 +10149,7 @@
         <v>8202</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>492</v>
       </c>
@@ -8917,7 +10160,7 @@
         <v>9125</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>494</v>
       </c>
@@ -8928,7 +10171,7 @@
         <v>15140</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>496</v>
       </c>
@@ -8939,7 +10182,7 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>498</v>
       </c>
@@ -8950,7 +10193,7 @@
         <v>4321</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>500</v>
       </c>
@@ -8961,7 +10204,7 @@
         <v>27555</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>502</v>
       </c>
@@ -8972,7 +10215,7 @@
         <v>10106</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>504</v>
       </c>
@@ -8983,7 +10226,7 @@
         <v>16822</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>506</v>
       </c>
@@ -8994,7 +10237,7 @@
         <v>27754</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>508</v>
       </c>
@@ -9005,7 +10248,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>510</v>
       </c>
@@ -9016,7 +10259,7 @@
         <v>5866</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>512</v>
       </c>
@@ -9027,7 +10270,7 @@
         <v>2845</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>514</v>
       </c>
@@ -9038,7 +10281,7 @@
         <v>22220</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>516</v>
       </c>
@@ -9049,7 +10292,7 @@
         <v>11611</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>518</v>
       </c>
@@ -9060,7 +10303,7 @@
         <v>12846</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>520</v>
       </c>
@@ -9071,7 +10314,7 @@
         <v>8291</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>522</v>
       </c>
@@ -9082,7 +10325,7 @@
         <v>10778</v>
       </c>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>524</v>
       </c>
@@ -9093,7 +10336,7 @@
         <v>11850</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>526</v>
       </c>
@@ -9104,7 +10347,7 @@
         <v>33887</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>528</v>
       </c>
@@ -9115,7 +10358,7 @@
         <v>6694</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>530</v>
       </c>
@@ -9126,7 +10369,7 @@
         <v>57088</v>
       </c>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>532</v>
       </c>
@@ -9137,7 +10380,7 @@
         <v>20663</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>534</v>
       </c>
@@ -9148,7 +10391,7 @@
         <v>32586</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>536</v>
       </c>
@@ -9159,7 +10402,7 @@
         <v>28912</v>
       </c>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>538</v>
       </c>
@@ -9170,7 +10413,7 @@
         <v>47917</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>540</v>
       </c>
@@ -9181,7 +10424,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>542</v>
       </c>
@@ -9192,7 +10435,7 @@
         <v>11888</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>544</v>
       </c>
@@ -9203,7 +10446,7 @@
         <v>5417</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>546</v>
       </c>
@@ -9214,7 +10457,7 @@
         <v>11523</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>548</v>
       </c>
@@ -9225,7 +10468,7 @@
         <v>17491</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>550</v>
       </c>
@@ -9236,7 +10479,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>552</v>
       </c>
@@ -9247,7 +10490,7 @@
         <v>12072</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>554</v>
       </c>
@@ -9258,7 +10501,7 @@
         <v>2914</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>556</v>
       </c>
@@ -9269,7 +10512,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>558</v>
       </c>
@@ -9280,7 +10523,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>560</v>
       </c>
@@ -9291,7 +10534,7 @@
         <v>11324</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>562</v>
       </c>
@@ -9302,7 +10545,7 @@
         <v>3539</v>
       </c>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>564</v>
       </c>
@@ -9313,7 +10556,7 @@
         <v>4775</v>
       </c>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>566</v>
       </c>
@@ -9324,7 +10567,7 @@
         <v>3881</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>568</v>
       </c>
@@ -9335,7 +10578,7 @@
         <v>3862</v>
       </c>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>570</v>
       </c>
@@ -9346,7 +10589,7 @@
         <v>5125</v>
       </c>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>572</v>
       </c>
@@ -9357,7 +10600,7 @@
         <v>5491</v>
       </c>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>574</v>
       </c>
@@ -9368,7 +10611,7 @@
         <v>10506</v>
       </c>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>576</v>
       </c>
@@ -9379,7 +10622,7 @@
         <v>11675</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>578</v>
       </c>
@@ -9390,7 +10633,7 @@
         <v>10352</v>
       </c>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>580</v>
       </c>
@@ -9401,7 +10644,7 @@
         <v>8071</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>582</v>
       </c>
@@ -9412,7 +10655,7 @@
         <v>3739</v>
       </c>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>584</v>
       </c>
@@ -9423,7 +10666,7 @@
         <v>14491</v>
       </c>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>586</v>
       </c>
@@ -9434,7 +10677,7 @@
         <v>13999</v>
       </c>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>588</v>
       </c>
@@ -9445,7 +10688,7 @@
         <v>3310</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>590</v>
       </c>
@@ -9456,7 +10699,7 @@
         <v>10808</v>
       </c>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>592</v>
       </c>
@@ -9467,7 +10710,7 @@
         <v>67427</v>
       </c>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>594</v>
       </c>
@@ -9478,7 +10721,7 @@
         <v>267597</v>
       </c>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>596</v>
       </c>
@@ -9489,7 +10732,7 @@
         <v>35528</v>
       </c>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>598</v>
       </c>
@@ -9500,7 +10743,7 @@
         <v>14072</v>
       </c>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>600</v>
       </c>
@@ -9511,7 +10754,7 @@
         <v>10276</v>
       </c>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>602</v>
       </c>
@@ -9522,7 +10765,7 @@
         <v>4256</v>
       </c>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>604</v>
       </c>
@@ -9533,7 +10776,7 @@
         <v>14299</v>
       </c>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>606</v>
       </c>
@@ -9544,7 +10787,7 @@
         <v>34899</v>
       </c>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>608</v>
       </c>
@@ -9555,7 +10798,7 @@
         <v>25253</v>
       </c>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>610</v>
       </c>
@@ -9566,7 +10809,7 @@
         <v>38361</v>
       </c>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>612</v>
       </c>
@@ -9577,7 +10820,7 @@
         <v>32361</v>
       </c>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>614</v>
       </c>
@@ -9588,7 +10831,7 @@
         <v>37764</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>616</v>
       </c>
@@ -9599,7 +10842,7 @@
         <v>68959</v>
       </c>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>618</v>
       </c>
@@ -9610,7 +10853,7 @@
         <v>26026</v>
       </c>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>620</v>
       </c>
@@ -9621,7 +10864,7 @@
         <v>137534</v>
       </c>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>622</v>
       </c>
@@ -9632,7 +10875,7 @@
         <v>50032</v>
       </c>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>624</v>
       </c>
@@ -9643,7 +10886,7 @@
         <v>40127</v>
       </c>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>626</v>
       </c>
@@ -9654,7 +10897,7 @@
         <v>21738</v>
       </c>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>628</v>
       </c>
@@ -9665,7 +10908,7 @@
         <v>5902</v>
       </c>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>630</v>
       </c>
@@ -9676,7 +10919,7 @@
         <v>21968</v>
       </c>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>632</v>
       </c>
@@ -9687,7 +10930,7 @@
         <v>26079</v>
       </c>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>634</v>
       </c>
@@ -9698,7 +10941,7 @@
         <v>9645</v>
       </c>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
         <v>636</v>
       </c>
@@ -9709,7 +10952,7 @@
         <v>6712</v>
       </c>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>638</v>
       </c>
@@ -9720,7 +10963,7 @@
         <v>4176</v>
       </c>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>640</v>
       </c>
@@ -9731,7 +10974,7 @@
         <v>9213</v>
       </c>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>642</v>
       </c>
@@ -9742,7 +10985,7 @@
         <v>15041</v>
       </c>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>644</v>
       </c>
@@ -9753,7 +10996,7 @@
         <v>11419</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>646</v>
       </c>
@@ -9764,7 +11007,7 @@
         <v>4252</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>648</v>
       </c>
@@ -9775,7 +11018,7 @@
         <v>4806</v>
       </c>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>650</v>
       </c>
@@ -9786,7 +11029,7 @@
         <v>3237</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>652</v>
       </c>
@@ -9797,7 +11040,7 @@
         <v>7431</v>
       </c>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>654</v>
       </c>
@@ -9808,7 +11051,7 @@
         <v>17274</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>656</v>
       </c>
@@ -9819,7 +11062,7 @@
         <v>10328</v>
       </c>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>658</v>
       </c>
@@ -9830,7 +11073,7 @@
         <v>43172</v>
       </c>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>660</v>
       </c>
@@ -9841,7 +11084,7 @@
         <v>36144</v>
       </c>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>662</v>
       </c>
@@ -9852,7 +11095,7 @@
         <v>4994</v>
       </c>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>664</v>
       </c>
@@ -9863,7 +11106,7 @@
         <v>8110</v>
       </c>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>666</v>
       </c>
@@ -9874,7 +11117,7 @@
         <v>5774</v>
       </c>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>668</v>
       </c>
@@ -9885,7 +11128,7 @@
         <v>8080</v>
       </c>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>670</v>
       </c>
@@ -9896,7 +11139,7 @@
         <v>10355</v>
       </c>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
         <v>672</v>
       </c>
@@ -9907,7 +11150,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>674</v>
       </c>
@@ -9918,7 +11161,7 @@
         <v>3179</v>
       </c>
     </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>676</v>
       </c>
@@ -9929,7 +11172,7 @@
         <v>13946</v>
       </c>
     </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>678</v>
       </c>
@@ -9940,7 +11183,7 @@
         <v>30899</v>
       </c>
     </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>680</v>
       </c>
@@ -9951,7 +11194,7 @@
         <v>22672</v>
       </c>
     </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>682</v>
       </c>
@@ -9962,7 +11205,7 @@
         <v>34308</v>
       </c>
     </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
         <v>684</v>
       </c>
@@ -9973,7 +11216,7 @@
         <v>19639</v>
       </c>
     </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>686</v>
       </c>
@@ -9984,7 +11227,7 @@
         <v>10510</v>
       </c>
     </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>688</v>
       </c>
@@ -9995,7 +11238,7 @@
         <v>12012</v>
       </c>
     </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
         <v>690</v>
       </c>
@@ -10006,7 +11249,7 @@
         <v>35390</v>
       </c>
     </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
         <v>692</v>
       </c>
@@ -10017,7 +11260,7 @@
         <v>9839</v>
       </c>
     </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
         <v>694</v>
       </c>
@@ -10028,7 +11271,7 @@
         <v>34461</v>
       </c>
     </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
         <v>696</v>
       </c>
@@ -10039,7 +11282,7 @@
         <v>32490</v>
       </c>
     </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
         <v>698</v>
       </c>
@@ -10050,7 +11293,7 @@
         <v>35271</v>
       </c>
     </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
         <v>119</v>
       </c>
@@ -10061,7 +11304,7 @@
         <v>44820</v>
       </c>
     </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>701</v>
       </c>
@@ -10072,7 +11315,7 @@
         <v>24834</v>
       </c>
     </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>703</v>
       </c>
@@ -10083,7 +11326,7 @@
         <v>42935</v>
       </c>
     </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
         <v>705</v>
       </c>
@@ -10094,7 +11337,7 @@
         <v>7409</v>
       </c>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
         <v>707</v>
       </c>
@@ -10105,7 +11348,7 @@
         <v>63516</v>
       </c>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
         <v>709</v>
       </c>
@@ -10116,7 +11359,7 @@
         <v>151763</v>
       </c>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>711</v>
       </c>
@@ -10127,7 +11370,7 @@
         <v>13437</v>
       </c>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>713</v>
       </c>
@@ -10138,7 +11381,7 @@
         <v>41588</v>
       </c>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
         <v>715</v>
       </c>
@@ -10149,7 +11392,7 @@
         <v>28299</v>
       </c>
     </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
         <v>717</v>
       </c>
@@ -10160,7 +11403,7 @@
         <v>35923</v>
       </c>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
         <v>719</v>
       </c>
@@ -10171,7 +11414,7 @@
         <v>13989</v>
       </c>
     </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
         <v>721</v>
       </c>
@@ -10182,7 +11425,7 @@
         <v>10059</v>
       </c>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
         <v>723</v>
       </c>
@@ -10193,7 +11436,7 @@
         <v>18967</v>
       </c>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
         <v>725</v>
       </c>
@@ -10204,7 +11447,7 @@
         <v>26996</v>
       </c>
     </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
         <v>727</v>
       </c>
@@ -10215,7 +11458,7 @@
         <v>47738</v>
       </c>
     </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
         <v>729</v>
       </c>
@@ -10226,7 +11469,7 @@
         <v>33801</v>
       </c>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
         <v>731</v>
       </c>
@@ -10237,7 +11480,7 @@
         <v>20987</v>
       </c>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
         <v>733</v>
       </c>
@@ -10248,7 +11491,7 @@
         <v>17027</v>
       </c>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
         <v>735</v>
       </c>
@@ -10259,7 +11502,7 @@
         <v>55533</v>
       </c>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
         <v>737</v>
       </c>
@@ -10270,7 +11513,7 @@
         <v>7797</v>
       </c>
     </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
         <v>739</v>
       </c>
@@ -10281,7 +11524,7 @@
         <v>13469</v>
       </c>
     </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
         <v>741</v>
       </c>
@@ -10292,7 +11535,7 @@
         <v>7913</v>
       </c>
     </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
         <v>743</v>
       </c>
@@ -10303,7 +11546,7 @@
         <v>9793</v>
       </c>
     </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
         <v>745</v>
       </c>
@@ -10314,7 +11557,7 @@
         <v>4432</v>
       </c>
     </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
         <v>747</v>
       </c>
@@ -10325,7 +11568,7 @@
         <v>10139</v>
       </c>
     </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
         <v>749</v>
       </c>
@@ -10336,7 +11579,7 @@
         <v>11575</v>
       </c>
     </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
         <v>751</v>
       </c>
@@ -10347,7 +11590,7 @@
         <v>7059</v>
       </c>
     </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
         <v>753</v>
       </c>
@@ -10358,7 +11601,7 @@
         <v>6202</v>
       </c>
     </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
         <v>755</v>
       </c>
@@ -10369,7 +11612,7 @@
         <v>44437</v>
       </c>
     </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
         <v>757</v>
       </c>
@@ -10380,7 +11623,7 @@
         <v>29952</v>
       </c>
     </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
         <v>759</v>
       </c>
@@ -10391,7 +11634,7 @@
         <v>59159</v>
       </c>
     </row>
-    <row r="268" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
         <v>761</v>
       </c>
@@ -10402,7 +11645,7 @@
         <v>20873</v>
       </c>
     </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
         <v>763</v>
       </c>
@@ -10413,7 +11656,7 @@
         <v>6152</v>
       </c>
     </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
         <v>765</v>
       </c>
@@ -10424,7 +11667,7 @@
         <v>11383</v>
       </c>
     </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
         <v>767</v>
       </c>
@@ -10435,7 +11678,7 @@
         <v>4732</v>
       </c>
     </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
         <v>769</v>
       </c>
@@ -10446,7 +11689,7 @@
         <v>78433</v>
       </c>
     </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
         <v>771</v>
       </c>
@@ -10457,7 +11700,7 @@
         <v>3763</v>
       </c>
     </row>
-    <row r="274" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
         <v>773</v>
       </c>
@@ -10468,7 +11711,7 @@
         <v>457760</v>
       </c>
     </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
         <v>775</v>
       </c>
@@ -10479,7 +11722,7 @@
         <v>13419</v>
       </c>
     </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
         <v>777</v>
       </c>
@@ -10490,7 +11733,7 @@
         <v>9115</v>
       </c>
     </row>
-    <row r="277" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
         <v>779</v>
       </c>
@@ -10501,7 +11744,7 @@
         <v>20551</v>
       </c>
     </row>
-    <row r="278" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
         <v>781</v>
       </c>
@@ -10515,7 +11758,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
         <v>783</v>
       </c>
@@ -10529,7 +11772,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
         <v>785</v>
       </c>
@@ -10543,7 +11786,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="281" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
         <v>787</v>
       </c>
@@ -10557,7 +11800,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="282" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
         <v>789</v>
       </c>
@@ -10571,7 +11814,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="283" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
         <v>791</v>
       </c>
@@ -10585,7 +11828,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="284" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
         <v>793</v>
       </c>
@@ -10599,7 +11842,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="285" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
         <v>795</v>
       </c>
@@ -10613,7 +11856,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="286" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
         <v>797</v>
       </c>
@@ -10627,7 +11870,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="287" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
         <v>799</v>
       </c>
@@ -10641,7 +11884,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="288" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
         <v>801</v>
       </c>
@@ -10655,7 +11898,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="289" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
         <v>803</v>
       </c>
@@ -10669,7 +11912,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
         <v>805</v>
       </c>
@@ -10683,7 +11926,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
         <v>807</v>
       </c>
@@ -10697,7 +11940,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="292" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
         <v>809</v>
       </c>
@@ -10711,7 +11954,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="293" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
         <v>811</v>
       </c>
@@ -10725,7 +11968,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="294" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
         <v>813</v>
       </c>
@@ -10739,7 +11982,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="295" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
         <v>815</v>
       </c>
@@ -10753,7 +11996,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="296" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
         <v>817</v>
       </c>
@@ -10767,7 +12010,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="297" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
         <v>819</v>
       </c>
@@ -10778,7 +12021,7 @@
         <v>40444</v>
       </c>
     </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
         <v>821</v>
       </c>
@@ -10789,7 +12032,7 @@
         <v>17753</v>
       </c>
     </row>
-    <row r="299" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
         <v>823</v>
       </c>
@@ -10800,7 +12043,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="300" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
         <v>825</v>
       </c>
@@ -10811,7 +12054,7 @@
         <v>8354</v>
       </c>
     </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
         <v>827</v>
       </c>
@@ -10822,7 +12065,7 @@
         <v>10613</v>
       </c>
     </row>
-    <row r="302" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
         <v>829</v>
       </c>
@@ -10833,7 +12076,7 @@
         <v>11961</v>
       </c>
     </row>
-    <row r="303" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
         <v>831</v>
       </c>
@@ -10844,7 +12087,7 @@
         <v>96787</v>
       </c>
     </row>
-    <row r="304" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
         <v>833</v>
       </c>
@@ -10855,7 +12098,7 @@
         <v>20488</v>
       </c>
     </row>
-    <row r="305" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
         <v>835</v>
       </c>
@@ -10866,7 +12109,7 @@
         <v>5369</v>
       </c>
     </row>
-    <row r="306" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="306" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
         <v>837</v>
       </c>
@@ -10877,7 +12120,7 @@
         <v>17928</v>
       </c>
     </row>
-    <row r="307" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
         <v>839</v>
       </c>
@@ -10888,7 +12131,7 @@
         <v>124484</v>
       </c>
     </row>
-    <row r="308" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="308" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
         <v>841</v>
       </c>
@@ -10899,7 +12142,7 @@
         <v>219053</v>
       </c>
     </row>
-    <row r="309" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="309" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
         <v>843</v>
       </c>
@@ -10910,7 +12153,7 @@
         <v>171121</v>
       </c>
     </row>
-    <row r="310" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
         <v>845</v>
       </c>
@@ -10921,7 +12164,7 @@
         <v>179070</v>
       </c>
     </row>
-    <row r="311" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="311" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
         <v>847</v>
       </c>
@@ -10932,7 +12175,7 @@
         <v>242634</v>
       </c>
     </row>
-    <row r="312" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="312" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
         <v>849</v>
       </c>
@@ -10943,7 +12186,7 @@
         <v>176440</v>
       </c>
     </row>
-    <row r="313" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
         <v>851</v>
       </c>
@@ -10954,7 +12197,7 @@
         <v>148392</v>
       </c>
     </row>
-    <row r="314" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="314" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
         <v>853</v>
       </c>
@@ -10965,7 +12208,7 @@
         <v>146367</v>
       </c>
     </row>
-    <row r="315" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
         <v>855</v>
       </c>
@@ -10976,7 +12219,7 @@
         <v>322061</v>
       </c>
     </row>
-    <row r="316" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="316" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
         <v>857</v>
       </c>
@@ -10987,7 +12230,7 @@
         <v>83011</v>
       </c>
     </row>
-    <row r="317" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="317" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
         <v>859</v>
       </c>
@@ -10998,7 +12241,7 @@
         <v>38123</v>
       </c>
     </row>
-    <row r="318" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="318" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
         <v>861</v>
       </c>
@@ -11009,7 +12252,7 @@
         <v>279078</v>
       </c>
     </row>
-    <row r="319" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="319" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
         <v>863</v>
       </c>
@@ -11020,7 +12263,7 @@
         <v>227964</v>
       </c>
     </row>
-    <row r="320" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="320" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
         <v>865</v>
       </c>
@@ -11031,7 +12274,7 @@
         <v>230215</v>
       </c>
     </row>
-    <row r="321" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
         <v>867</v>
       </c>
@@ -11042,7 +12285,7 @@
         <v>140227</v>
       </c>
     </row>
-    <row r="322" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
         <v>869</v>
       </c>
@@ -11053,7 +12296,7 @@
         <v>101522</v>
       </c>
     </row>
-    <row r="323" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
         <v>871</v>
       </c>
@@ -11064,7 +12307,7 @@
         <v>92474</v>
       </c>
     </row>
-    <row r="324" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
         <v>873</v>
       </c>
@@ -11075,7 +12318,7 @@
         <v>137915</v>
       </c>
     </row>
-    <row r="325" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
         <v>875</v>
       </c>
@@ -11086,7 +12329,7 @@
         <v>229646</v>
       </c>
     </row>
-    <row r="326" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
         <v>877</v>
       </c>
@@ -11097,7 +12340,7 @@
         <v>57722</v>
       </c>
     </row>
-    <row r="327" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
         <v>879</v>
       </c>
@@ -11108,7 +12351,7 @@
         <v>35581</v>
       </c>
     </row>
-    <row r="328" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
         <v>881</v>
       </c>
@@ -11119,7 +12362,7 @@
         <v>43933</v>
       </c>
     </row>
-    <row r="329" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
         <v>883</v>
       </c>
@@ -11130,7 +12373,7 @@
         <v>68922</v>
       </c>
     </row>
-    <row r="330" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
         <v>885</v>
       </c>
@@ -11141,7 +12384,7 @@
         <v>211318</v>
       </c>
     </row>
-    <row r="331" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="331" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
         <v>887</v>
       </c>
@@ -11152,7 +12395,7 @@
         <v>82025</v>
       </c>
     </row>
-    <row r="332" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
         <v>889</v>
       </c>
@@ -11163,7 +12406,7 @@
         <v>47194</v>
       </c>
     </row>
-    <row r="333" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
         <v>891</v>
       </c>
@@ -11174,7 +12417,7 @@
         <v>332550</v>
       </c>
     </row>
-    <row r="334" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
         <v>893</v>
       </c>
@@ -11185,7 +12428,7 @@
         <v>65769</v>
       </c>
     </row>
-    <row r="335" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
         <v>895</v>
       </c>
@@ -11196,7 +12439,7 @@
         <v>43699</v>
       </c>
     </row>
-    <row r="336" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
         <v>897</v>
       </c>
@@ -11207,7 +12450,7 @@
         <v>137453</v>
       </c>
     </row>
-    <row r="337" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
         <v>899</v>
       </c>
@@ -11218,7 +12461,7 @@
         <v>80430</v>
       </c>
     </row>
-    <row r="338" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
         <v>901</v>
       </c>
@@ -11229,7 +12472,7 @@
         <v>120074</v>
       </c>
     </row>
-    <row r="339" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
         <v>903</v>
       </c>
@@ -11240,7 +12483,7 @@
         <v>27110</v>
       </c>
     </row>
-    <row r="340" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
         <v>905</v>
       </c>
@@ -11251,7 +12494,7 @@
         <v>29340</v>
       </c>
     </row>
-    <row r="341" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
         <v>907</v>
       </c>
@@ -11262,7 +12505,7 @@
         <v>38375</v>
       </c>
     </row>
-    <row r="342" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B342" t="s">
         <v>909</v>
       </c>
@@ -11273,7 +12516,7 @@
         <v>14438</v>
       </c>
     </row>
-    <row r="343" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B343" t="s">
         <v>911</v>
       </c>
@@ -11284,7 +12527,7 @@
         <v>212383</v>
       </c>
     </row>
-    <row r="344" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B344" t="s">
         <v>913</v>
       </c>
@@ -11295,7 +12538,7 @@
         <v>126697</v>
       </c>
     </row>
-    <row r="345" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B345" t="s">
         <v>915</v>
       </c>
@@ -11306,7 +12549,7 @@
         <v>16643</v>
       </c>
     </row>
-    <row r="346" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
         <v>917</v>
       </c>
@@ -11317,7 +12560,7 @@
         <v>83920</v>
       </c>
     </row>
-    <row r="347" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B347" t="s">
         <v>919</v>
       </c>
@@ -11328,7 +12571,7 @@
         <v>97373</v>
       </c>
     </row>
-    <row r="348" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
         <v>921</v>
       </c>
@@ -11339,7 +12582,7 @@
         <v>334092</v>
       </c>
     </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
         <v>923</v>
       </c>
@@ -11350,7 +12593,7 @@
         <v>261627</v>
       </c>
     </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
         <v>925</v>
       </c>
@@ -11361,7 +12604,7 @@
         <v>45066</v>
       </c>
     </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="351" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B351" t="s">
         <v>927</v>
       </c>
@@ -11372,7 +12615,7 @@
         <v>148620</v>
       </c>
     </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="352" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
         <v>929</v>
       </c>
@@ -11383,7 +12626,7 @@
         <v>132937</v>
       </c>
     </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
         <v>931</v>
       </c>
@@ -11394,7 +12637,7 @@
         <v>9245</v>
       </c>
     </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
         <v>933</v>
       </c>
@@ -11405,7 +12648,7 @@
         <v>296293</v>
       </c>
     </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
         <v>935</v>
       </c>
@@ -11416,7 +12659,7 @@
         <v>520425</v>
       </c>
     </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
         <v>937</v>
       </c>
@@ -11427,7 +12670,7 @@
         <v>349439</v>
       </c>
     </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B357" t="s">
         <v>939</v>
       </c>
@@ -11438,7 +12681,7 @@
         <v>218793</v>
       </c>
     </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
         <v>941</v>
       </c>
@@ -11449,7 +12692,7 @@
         <v>88034</v>
       </c>
     </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
         <v>943</v>
       </c>
@@ -11460,7 +12703,7 @@
         <v>586732</v>
       </c>
     </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B360" t="s">
         <v>945</v>
       </c>
@@ -11471,7 +12714,7 @@
         <v>344723</v>
       </c>
     </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
         <v>947</v>
       </c>
@@ -11482,7 +12725,7 @@
         <v>163544</v>
       </c>
     </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B362" t="s">
         <v>949</v>
       </c>
@@ -11493,7 +12736,7 @@
         <v>1416584</v>
       </c>
     </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B363" t="s">
         <v>951</v>
       </c>
@@ -11504,7 +12747,7 @@
         <v>530391</v>
       </c>
     </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B364" t="s">
         <v>953</v>
       </c>
@@ -11515,7 +12758,7 @@
         <v>1123901</v>
       </c>
     </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B365" t="s">
         <v>955</v>
       </c>
@@ -11526,7 +12769,7 @@
         <v>61256</v>
       </c>
     </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B366" t="s">
         <v>957</v>
       </c>
@@ -11537,7 +12780,7 @@
         <v>77621</v>
       </c>
     </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B367" t="s">
         <v>959</v>
       </c>
@@ -11548,7 +12791,7 @@
         <v>29242</v>
       </c>
     </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B368" t="s">
         <v>961</v>
       </c>
@@ -11559,7 +12802,7 @@
         <v>161188</v>
       </c>
     </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B369" t="s">
         <v>963</v>
       </c>
@@ -11570,7 +12813,7 @@
         <v>331383</v>
       </c>
     </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B370" t="s">
         <v>965</v>
       </c>
@@ -11581,7 +12824,7 @@
         <v>155017</v>
       </c>
     </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B371" t="s">
         <v>967</v>
       </c>
@@ -11592,7 +12835,7 @@
         <v>163308</v>
       </c>
     </row>
-    <row r="372" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B372" t="s">
         <v>969</v>
       </c>
@@ -11603,7 +12846,7 @@
         <v>63364</v>
       </c>
     </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B373" t="s">
         <v>971</v>
       </c>
@@ -11614,7 +12857,7 @@
         <v>193482</v>
       </c>
     </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B374" t="s">
         <v>973</v>
       </c>
@@ -11625,7 +12868,7 @@
         <v>311584</v>
       </c>
     </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B375" t="s">
         <v>975</v>
       </c>
@@ -11636,7 +12879,7 @@
         <v>232966</v>
       </c>
     </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B376" t="s">
         <v>977</v>
       </c>
@@ -11647,7 +12890,7 @@
         <v>49844</v>
       </c>
     </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B377" t="s">
         <v>979</v>
       </c>
@@ -11658,7 +12901,7 @@
         <v>202086</v>
       </c>
     </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B378" t="s">
         <v>981</v>
       </c>
@@ -11669,7 +12912,7 @@
         <v>125875</v>
       </c>
     </row>
-    <row r="379" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B379" t="s">
         <v>983</v>
       </c>
@@ -11680,7 +12923,7 @@
         <v>33044</v>
       </c>
     </row>
-    <row r="380" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B380" t="s">
         <v>985</v>
       </c>
@@ -11691,7 +12934,7 @@
         <v>11848</v>
       </c>
     </row>
-    <row r="381" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B381" t="s">
         <v>987</v>
       </c>
@@ -11702,7 +12945,7 @@
         <v>36577</v>
       </c>
     </row>
-    <row r="382" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B382" t="s">
         <v>989</v>
       </c>
@@ -11713,7 +12956,7 @@
         <v>88795</v>
       </c>
     </row>
-    <row r="383" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B383" t="s">
         <v>991</v>
       </c>
@@ -11724,7 +12967,7 @@
         <v>561730</v>
       </c>
     </row>
-    <row r="384" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B384" t="s">
         <v>993</v>
       </c>
@@ -11735,7 +12978,7 @@
         <v>330772</v>
       </c>
     </row>
-    <row r="385" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="385" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B385" t="s">
         <v>995</v>
       </c>
@@ -11746,7 +12989,7 @@
         <v>171767</v>
       </c>
     </row>
-    <row r="386" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="386" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B386" t="s">
         <v>997</v>
       </c>
@@ -11757,7 +13000,7 @@
         <v>56592</v>
       </c>
     </row>
-    <row r="387" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="387" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B387" t="s">
         <v>999</v>
       </c>
@@ -11768,7 +13011,7 @@
         <v>28243</v>
       </c>
     </row>
-    <row r="388" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="388" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B388" t="s">
         <v>1001</v>
       </c>
@@ -11779,7 +13022,7 @@
         <v>71905</v>
       </c>
     </row>
-    <row r="389" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="389" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B389" t="s">
         <v>1003</v>
       </c>
@@ -11790,7 +13033,7 @@
         <v>44806</v>
       </c>
     </row>
-    <row r="390" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="390" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B390" t="s">
         <v>1005</v>
       </c>
@@ -11801,7 +13044,7 @@
         <v>56610</v>
       </c>
     </row>
-    <row r="391" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="391" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B391" t="s">
         <v>1007</v>
       </c>
@@ -11812,7 +13055,7 @@
         <v>47162</v>
       </c>
     </row>
-    <row r="392" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="392" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B392" t="s">
         <v>1009</v>
       </c>
@@ -11826,7 +13069,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="393" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="393" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B393" t="s">
         <v>1011</v>
       </c>
@@ -11837,7 +13080,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="394" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="394" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B394" t="s">
         <v>1013</v>
       </c>
@@ -11848,7 +13091,7 @@
         <v>225344</v>
       </c>
     </row>
-    <row r="395" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="395" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B395" t="s">
         <v>1015</v>
       </c>
@@ -11859,7 +13102,7 @@
         <v>72133</v>
       </c>
     </row>
-    <row r="396" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="396" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B396" t="s">
         <v>1017</v>
       </c>
@@ -11870,7 +13113,7 @@
         <v>465471</v>
       </c>
     </row>
-    <row r="397" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="397" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B397" t="s">
         <v>1019</v>
       </c>
@@ -11881,7 +13124,7 @@
         <v>116720</v>
       </c>
     </row>
-    <row r="398" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="398" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B398" t="s">
         <v>1021</v>
       </c>
@@ -11892,7 +13135,7 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="399" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="399" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B399" t="s">
         <v>1023</v>
       </c>
@@ -11903,7 +13146,7 @@
         <v>110970</v>
       </c>
     </row>
-    <row r="400" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="400" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B400" t="s">
         <v>1025</v>
       </c>
@@ -11914,7 +13157,7 @@
         <v>53964</v>
       </c>
     </row>
-    <row r="401" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="401" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B401" t="s">
         <v>1027</v>
       </c>
@@ -11925,7 +13168,7 @@
         <v>75155</v>
       </c>
     </row>
-    <row r="402" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="402" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B402" t="s">
         <v>1029</v>
       </c>
@@ -11936,7 +13179,7 @@
         <v>35396</v>
       </c>
     </row>
-    <row r="403" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="403" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B403" t="s">
         <v>1031</v>
       </c>
@@ -11947,7 +13190,7 @@
         <v>813054</v>
       </c>
     </row>
-    <row r="404" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B404" t="s">
         <v>1033</v>
       </c>
@@ -11958,7 +13201,7 @@
         <v>184319</v>
       </c>
     </row>
-    <row r="405" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="405" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B405" t="s">
         <v>1035</v>
       </c>
@@ -11969,7 +13212,7 @@
         <v>46401</v>
       </c>
     </row>
-    <row r="406" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="406" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B406" t="s">
         <v>1037</v>
       </c>
@@ -11980,7 +13223,7 @@
         <v>93433</v>
       </c>
     </row>
-    <row r="407" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="407" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B407" t="s">
         <v>1039</v>
       </c>
@@ -11991,7 +13234,7 @@
         <v>48681</v>
       </c>
     </row>
-    <row r="408" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="408" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B408" t="s">
         <v>1041</v>
       </c>
@@ -12002,7 +13245,7 @@
         <v>45458</v>
       </c>
     </row>
-    <row r="409" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="409" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B409" t="s">
         <v>1043</v>
       </c>
@@ -12013,7 +13256,7 @@
         <v>22884</v>
       </c>
     </row>
-    <row r="410" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="410" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B410" t="s">
         <v>1045</v>
       </c>
@@ -12024,7 +13267,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="411" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="411" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B411" t="s">
         <v>1047</v>
       </c>
@@ -12035,7 +13278,7 @@
         <v>41997</v>
       </c>
     </row>
-    <row r="412" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="412" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B412" t="s">
         <v>1049</v>
       </c>
@@ -12046,7 +13289,7 @@
         <v>44265</v>
       </c>
     </row>
-    <row r="413" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="413" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B413" t="s">
         <v>1051</v>
       </c>
@@ -12057,7 +13300,7 @@
         <v>14730</v>
       </c>
     </row>
-    <row r="414" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="414" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B414" t="s">
         <v>1053</v>
       </c>
@@ -12068,7 +13311,7 @@
         <v>18301</v>
       </c>
     </row>
-    <row r="415" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="415" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B415" t="s">
         <v>1055</v>
       </c>
@@ -12079,7 +13322,7 @@
         <v>35926</v>
       </c>
     </row>
-    <row r="416" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="416" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B416" t="s">
         <v>1057</v>
       </c>
@@ -12090,7 +13333,7 @@
         <v>81758</v>
       </c>
     </row>
-    <row r="417" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="417" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B417" t="s">
         <v>1059</v>
       </c>
@@ -12101,7 +13344,7 @@
         <v>258628</v>
       </c>
     </row>
-    <row r="418" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="418" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B418" t="s">
         <v>1061</v>
       </c>
@@ -12112,7 +13355,7 @@
         <v>336211</v>
       </c>
     </row>
-    <row r="419" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="419" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B419" t="s">
         <v>1063</v>
       </c>
@@ -12123,7 +13366,7 @@
         <v>303694</v>
       </c>
     </row>
-    <row r="420" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="420" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B420" t="s">
         <v>1065</v>
       </c>
@@ -12134,7 +13377,7 @@
         <v>98573</v>
       </c>
     </row>
-    <row r="421" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="421" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B421" t="s">
         <v>1067</v>
       </c>
@@ -12145,7 +13388,7 @@
         <v>120747</v>
       </c>
     </row>
-    <row r="422" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="422" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B422" t="s">
         <v>1069</v>
       </c>
@@ -12156,7 +13399,7 @@
         <v>22166</v>
       </c>
     </row>
-    <row r="423" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="423" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B423" t="s">
         <v>1071</v>
       </c>
@@ -12167,7 +13410,7 @@
         <v>37604</v>
       </c>
     </row>
-    <row r="424" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="424" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B424" t="s">
         <v>1073</v>
       </c>
@@ -12178,7 +13421,7 @@
         <v>22329</v>
       </c>
     </row>
-    <row r="425" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="425" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B425" t="s">
         <v>1075</v>
       </c>
@@ -12189,7 +13432,7 @@
         <v>80111</v>
       </c>
     </row>
-    <row r="426" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="426" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B426" t="s">
         <v>1077</v>
       </c>
@@ -12200,7 +13443,7 @@
         <v>20088</v>
       </c>
     </row>
-    <row r="427" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="427" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B427" t="s">
         <v>1079</v>
       </c>
@@ -12211,7 +13454,7 @@
         <v>28962</v>
       </c>
     </row>
-    <row r="428" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="428" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B428" t="s">
         <v>1081</v>
       </c>
@@ -12222,7 +13465,7 @@
         <v>62899</v>
       </c>
     </row>
-    <row r="429" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="429" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B429" t="s">
         <v>1083</v>
       </c>
@@ -12233,7 +13476,7 @@
         <v>93020</v>
       </c>
     </row>
-    <row r="430" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="430" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B430" t="s">
         <v>1085</v>
       </c>
@@ -12244,7 +13487,7 @@
         <v>57520</v>
       </c>
     </row>
-    <row r="431" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="431" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B431" t="s">
         <v>1087</v>
       </c>
@@ -12255,7 +13498,7 @@
         <v>75682</v>
       </c>
     </row>
-    <row r="432" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="432" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B432" t="s">
         <v>1089</v>
       </c>
@@ -12266,7 +13509,7 @@
         <v>21314</v>
       </c>
     </row>
-    <row r="433" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="433" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B433" t="s">
         <v>1091</v>
       </c>
@@ -12277,7 +13520,7 @@
         <v>613306</v>
       </c>
     </row>
-    <row r="434" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="434" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B434" t="s">
         <v>1093</v>
       </c>
@@ -12288,7 +13531,7 @@
         <v>390322</v>
       </c>
     </row>
-    <row r="435" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="435" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B435" t="s">
         <v>1095</v>
       </c>
@@ -12299,7 +13542,7 @@
         <v>62768</v>
       </c>
     </row>
-    <row r="436" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="436" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B436" t="s">
         <v>1097</v>
       </c>
@@ -12310,7 +13553,7 @@
         <v>13843</v>
       </c>
     </row>
-    <row r="437" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="437" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B437" t="s">
         <v>1099</v>
       </c>
@@ -12321,7 +13564,7 @@
         <v>17451</v>
       </c>
     </row>
-    <row r="438" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="438" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B438" t="s">
         <v>1101</v>
       </c>
@@ -12332,7 +13575,7 @@
         <v>974593</v>
       </c>
     </row>
-    <row r="439" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="439" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B439" t="s">
         <v>1103</v>
       </c>
@@ -12343,7 +13586,7 @@
         <v>286138</v>
       </c>
     </row>
-    <row r="440" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="440" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B440" t="s">
         <v>1105</v>
       </c>
@@ -12354,7 +13597,7 @@
         <v>879668</v>
       </c>
     </row>
-    <row r="441" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="441" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B441" t="s">
         <v>1107</v>
       </c>
@@ -12365,7 +13608,7 @@
         <v>16399</v>
       </c>
     </row>
-    <row r="442" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="442" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B442" t="s">
         <v>1109</v>
       </c>
@@ -12376,7 +13619,7 @@
         <v>62898</v>
       </c>
     </row>
-    <row r="443" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="443" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B443" t="s">
         <v>1111</v>
       </c>
@@ -12405,22 +13648,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.81640625" customWidth="1"/>
-    <col min="3" max="3" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" customWidth="1"/>
-    <col min="7" max="7" width="23.54296875" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" customWidth="1"/>
-    <col min="9" max="9" width="14.54296875" customWidth="1"/>
-    <col min="10" max="10" width="21.7265625" customWidth="1"/>
-    <col min="11" max="11" width="18.81640625" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="65"/>
       <c r="B1" s="66" t="s">
         <v>144</v>
@@ -12456,7 +13699,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="61"/>
       <c r="B2" s="52" t="s">
         <v>142</v>
@@ -12492,7 +13735,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
         <v>111</v>
       </c>
@@ -12541,7 +13784,7 @@
         <v>0.17283604938598873</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
         <v>112</v>
       </c>
@@ -12590,7 +13833,7 @@
         <v>0.17283604938598873</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="62" t="s">
         <v>113</v>
       </c>
@@ -12652,18 +13895,20 @@
   </sheetPr>
   <dimension ref="A1:AQ3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AQ11" sqref="AQ11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" customWidth="1"/>
-    <col min="2" max="26" width="10.1796875" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="26" width="10.140625" customWidth="1"/>
     <col min="27" max="27" width="14" customWidth="1"/>
-    <col min="28" max="28" width="11.7265625" customWidth="1"/>
-    <col min="29" max="43" width="10.1796875" customWidth="1"/>
+    <col min="28" max="28" width="11.7109375" customWidth="1"/>
+    <col min="29" max="43" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>84</v>
       </c>
@@ -12794,180 +14039,180 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:43" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>104</v>
       </c>
       <c r="B2" s="16">
-        <f>'OECD VAL'!C10/SUM('OECD VAL'!C9:C11)</f>
-        <v>6.1517190580761986E-2</v>
+        <f>'OECD VAL'!C10/SUM('OECD VAL'!C9:C11)+'OECD VAL'!C27</f>
+        <v>0.23782102475456321</v>
       </c>
       <c r="C2" s="70">
-        <f>('OECD VAL'!$D$10*'Split ISIC Code Shares'!B$4)/SUMPRODUCT('OECD VAL'!$D$9:$D$11,'Split ISIC Code Shares'!B$3:B$5)</f>
-        <v>4.9495022154874085E-2</v>
+        <f>('OECD VAL'!$D$10*'Split ISIC Code Shares'!B$4)/SUMPRODUCT('OECD VAL'!$D$9:$D$11,'Split ISIC Code Shares'!B$3:B$5)+'OECD VAL'!D27</f>
+        <v>0.14762185267713707</v>
       </c>
       <c r="D2" s="71">
-        <f>('OECD VAL'!$D$10*'Split ISIC Code Shares'!C$4)/SUMPRODUCT('OECD VAL'!$D$9:$D$11,'Split ISIC Code Shares'!C$3:C$5)</f>
+        <f>('OECD VAL'!$D$10*'Split ISIC Code Shares'!C$4)/SUMPRODUCT('OECD VAL'!$D$9:$D$11,'Split ISIC Code Shares'!C$3:C$5)+'OECD VAL'!D26</f>
         <v>0.10511453602057504</v>
       </c>
       <c r="E2" s="16">
-        <f>'OECD VAL'!E10/SUM('OECD VAL'!E9:E11)</f>
-        <v>5.6127436576759913E-2</v>
+        <f>'OECD VAL'!E10/SUM('OECD VAL'!E9:E11)+'OECD VAL'!E27</f>
+        <v>0.17430939273476981</v>
       </c>
       <c r="F2" s="16">
-        <f>'OECD VAL'!F10/SUM('OECD VAL'!F9:F11)</f>
-        <v>4.0151804740454169E-2</v>
+        <f>'OECD VAL'!F10/SUM('OECD VAL'!F9:F11)+'OECD VAL'!F27</f>
+        <v>0.16700495354724848</v>
       </c>
       <c r="G2" s="16">
-        <f>'OECD VAL'!G10/SUM('OECD VAL'!G9:G11)</f>
-        <v>3.2299002645631493E-2</v>
+        <f>'OECD VAL'!G10/SUM('OECD VAL'!G9:G11)+'OECD VAL'!G27</f>
+        <v>0.31479605534050886</v>
       </c>
       <c r="H2" s="16">
-        <f>'OECD VAL'!H10/SUM('OECD VAL'!H9:H11)</f>
-        <v>3.1820922313056638E-2</v>
+        <f>'OECD VAL'!H10/SUM('OECD VAL'!H9:H11)+'OECD VAL'!H27</f>
+        <v>0.26800522569274809</v>
       </c>
       <c r="I2" s="16">
-        <f>'OECD VAL'!I10/SUM('OECD VAL'!I9:I11)</f>
-        <v>2.3560197910940078E-2</v>
+        <f>'OECD VAL'!I10/SUM('OECD VAL'!I9:I11)+'OECD VAL'!I27</f>
+        <v>0.27768248350742164</v>
       </c>
       <c r="J2" s="16">
-        <f>'OECD VAL'!J10/SUM('OECD VAL'!J9:J11)</f>
-        <v>2.5976535134693248E-2</v>
+        <f>'OECD VAL'!J10/SUM('OECD VAL'!J9:J11)+'OECD VAL'!J27</f>
+        <v>0.23490290578974543</v>
       </c>
       <c r="K2" s="16">
-        <f>'OECD VAL'!K10/SUM('OECD VAL'!K9:K11)</f>
-        <v>2.1425789482983619E-2</v>
+        <f>'OECD VAL'!K10/SUM('OECD VAL'!K9:K11)+'OECD VAL'!K27</f>
+        <v>0.25338560479280725</v>
       </c>
       <c r="L2" s="70">
-        <f>('OECD VAL'!$L$10*'Split ISIC Code Shares'!D$4)/SUMPRODUCT('OECD VAL'!$L$9:$L$11,'Split ISIC Code Shares'!D$3:D$5)</f>
-        <v>3.484244036412798E-2</v>
+        <f>('OECD VAL'!$L$10*'Split ISIC Code Shares'!D$4)/SUMPRODUCT('OECD VAL'!$L$9:$L$11,'Split ISIC Code Shares'!D$3:D$5)+'OECD VAL'!L27</f>
+        <v>0.19149661271808732</v>
       </c>
       <c r="M2" s="71">
-        <f>('OECD VAL'!$L$10*'Split ISIC Code Shares'!E$4)/SUMPRODUCT('OECD VAL'!$L$9:$L$11,'Split ISIC Code Shares'!E$3:E$5)</f>
-        <v>3.484244036412798E-2</v>
+        <f>('OECD VAL'!$L$10*'Split ISIC Code Shares'!E$4)/SUMPRODUCT('OECD VAL'!$L$9:$L$11,'Split ISIC Code Shares'!E$3:E$5)+'OECD VAL'!L27</f>
+        <v>0.19149661271808732</v>
       </c>
       <c r="N2" s="16">
-        <f>'OECD VAL'!M10/SUM('OECD VAL'!M9:M11)</f>
-        <v>2.1680370671842714E-2</v>
+        <f>'OECD VAL'!M10/SUM('OECD VAL'!M9:M11)+'OECD VAL'!M27</f>
+        <v>0.23862013649740155</v>
       </c>
       <c r="O2" s="70">
-        <f>('OECD VAL'!$N$10*'Split ISIC Code Shares'!F$4)/SUMPRODUCT('OECD VAL'!$N$9:$N$11,'Split ISIC Code Shares'!F$3:F$5)</f>
-        <v>2.8480429060816683E-2</v>
+        <f>('OECD VAL'!$N$10*'Split ISIC Code Shares'!F$4)/SUMPRODUCT('OECD VAL'!$N$9:$N$11,'Split ISIC Code Shares'!F$3:F$5)+'OECD VAL'!N27</f>
+        <v>0.20281760830108955</v>
       </c>
       <c r="P2" s="71">
-        <f>('OECD VAL'!$N$10*'Split ISIC Code Shares'!G$4)/SUMPRODUCT('OECD VAL'!$N$9:$N$11,'Split ISIC Code Shares'!G$3:G$5)</f>
-        <v>2.848042906081668E-2</v>
+        <f>('OECD VAL'!$N$10*'Split ISIC Code Shares'!G$4)/SUMPRODUCT('OECD VAL'!$N$9:$N$11,'Split ISIC Code Shares'!G$3:G$5)+'OECD VAL'!N27</f>
+        <v>0.20281760830108955</v>
       </c>
       <c r="Q2" s="70">
-        <f>('OECD VAL'!$O$10*'Split ISIC Code Shares'!H$4)/SUMPRODUCT('OECD VAL'!$O$9:$O$11,'Split ISIC Code Shares'!H$3:H$5)</f>
-        <v>4.3506251471436601E-2</v>
+        <f>('OECD VAL'!$O$10*'Split ISIC Code Shares'!H$4)/SUMPRODUCT('OECD VAL'!$O$9:$O$11,'Split ISIC Code Shares'!H$3:H$5)+'OECD VAL'!O27</f>
+        <v>0.34710792392200984</v>
       </c>
       <c r="R2" s="71">
-        <f>('OECD VAL'!$O$10*'Split ISIC Code Shares'!I$4)/SUMPRODUCT('OECD VAL'!$O$9:$O$11,'Split ISIC Code Shares'!I$3:I$5)</f>
-        <v>4.3506251471436608E-2</v>
+        <f>('OECD VAL'!$O$10*'Split ISIC Code Shares'!I$4)/SUMPRODUCT('OECD VAL'!$O$9:$O$11,'Split ISIC Code Shares'!I$3:I$5)+'OECD VAL'!O27</f>
+        <v>0.34710792392200984</v>
       </c>
       <c r="S2" s="16">
-        <f>'OECD VAL'!P10/SUM('OECD VAL'!P9:P11)</f>
-        <v>1.9307124350611618E-2</v>
+        <f>'OECD VAL'!P10/SUM('OECD VAL'!P9:P11)+'OECD VAL'!P27</f>
+        <v>0.20712831714804453</v>
       </c>
       <c r="T2" s="16">
-        <f>'OECD VAL'!Q10/SUM('OECD VAL'!Q9:Q11)</f>
-        <v>2.5746481393069176E-2</v>
+        <f>'OECD VAL'!Q10/SUM('OECD VAL'!Q9:Q11)+'OECD VAL'!Q27</f>
+        <v>0.12831157733148474</v>
       </c>
       <c r="U2" s="16">
-        <f>'OECD VAL'!R10/SUM('OECD VAL'!R9:R11)</f>
-        <v>2.0144197988579221E-2</v>
+        <f>'OECD VAL'!R10/SUM('OECD VAL'!R9:R11)+'OECD VAL'!R27</f>
+        <v>0.18694683265149578</v>
       </c>
       <c r="V2" s="16">
-        <f>'OECD VAL'!S10/SUM('OECD VAL'!S9:S11)</f>
-        <v>2.2632144555397051E-2</v>
+        <f>'OECD VAL'!S10/SUM('OECD VAL'!S9:S11)+'OECD VAL'!S27</f>
+        <v>0.216680748590449</v>
       </c>
       <c r="W2" s="16">
-        <f>'OECD VAL'!T10/SUM('OECD VAL'!T9:T11)</f>
-        <v>1.8663737124842539E-2</v>
+        <f>'OECD VAL'!T10/SUM('OECD VAL'!T9:T11)+'OECD VAL'!T27</f>
+        <v>0.3300281649537703</v>
       </c>
       <c r="X2" s="16">
-        <f>'OECD VAL'!U10/SUM('OECD VAL'!U9:U11)</f>
-        <v>1.7985856004675407E-2</v>
+        <f>'OECD VAL'!U10/SUM('OECD VAL'!U9:U11)+'OECD VAL'!U27</f>
+        <v>0.20526837362689793</v>
       </c>
       <c r="Y2" s="16">
-        <f>'OECD VAL'!V10/SUM('OECD VAL'!V9:V11)</f>
-        <v>1.9698422822110023E-2</v>
+        <f>'OECD VAL'!V10/SUM('OECD VAL'!V9:V11)+'OECD VAL'!V27</f>
+        <v>0.18324969975146921</v>
       </c>
       <c r="Z2" s="70">
-        <f>('OECD VAL'!$W$10*'Split ISIC Code Shares'!J$4)/SUMPRODUCT('OECD VAL'!$W$9:$W$11,'Split ISIC Code Shares'!J$3:J$5)</f>
-        <v>0.13319579866756545</v>
+        <f>('OECD VAL'!$W$10*'Split ISIC Code Shares'!J$4)/SUMPRODUCT('OECD VAL'!$W$9:$W$11,'Split ISIC Code Shares'!J$3:J$5)+'OECD VAL'!W27</f>
+        <v>0.24986806647846821</v>
       </c>
       <c r="AA2" s="72">
-        <f>('OECD VAL'!$W$10*'Split ISIC Code Shares'!K$4)/SUMPRODUCT('OECD VAL'!$W$9:$W$11,'Split ISIC Code Shares'!K$3:K$5)</f>
-        <v>0.13319579866756548</v>
+        <f>('OECD VAL'!$W$10*'Split ISIC Code Shares'!K$4)/SUMPRODUCT('OECD VAL'!$W$9:$W$11,'Split ISIC Code Shares'!K$3:K$5)+'OECD VAL'!W27</f>
+        <v>0.24986806647846824</v>
       </c>
       <c r="AB2" s="71">
-        <f>('OECD VAL'!$W$10*'Split ISIC Code Shares'!L$4)/SUMPRODUCT('OECD VAL'!$W$9:$W$11,'Split ISIC Code Shares'!L$3:L$5)</f>
-        <v>0.13319579866756548</v>
+        <f>('OECD VAL'!$W$10*'Split ISIC Code Shares'!L$4)/SUMPRODUCT('OECD VAL'!$W$9:$W$11,'Split ISIC Code Shares'!L$3:L$5)+'OECD VAL'!W27</f>
+        <v>0.24986806647846824</v>
       </c>
       <c r="AC2" s="16">
-        <f>'OECD VAL'!X10/SUM('OECD VAL'!X9:X11)</f>
-        <v>1.1137517809357384E-2</v>
+        <f>'OECD VAL'!X10/SUM('OECD VAL'!X9:X11)+'OECD VAL'!X27</f>
+        <v>0.14815078705954157</v>
       </c>
       <c r="AD2" s="16">
-        <f>'OECD VAL'!Y10/SUM('OECD VAL'!Y9:Y11)</f>
-        <v>2.9785512861146255E-2</v>
+        <f>'OECD VAL'!Y10/SUM('OECD VAL'!Y9:Y11)+'OECD VAL'!Y27</f>
+        <v>0.15055286902993831</v>
       </c>
       <c r="AE2" s="16">
-        <f>'OECD VAL'!Z10/SUM('OECD VAL'!Z9:Z11)</f>
-        <v>2.5606736815010557E-2</v>
+        <f>'OECD VAL'!Z10/SUM('OECD VAL'!Z9:Z11)+'OECD VAL'!Z27</f>
+        <v>0.17116254377352147</v>
       </c>
       <c r="AF2" s="16">
-        <f>'OECD VAL'!AA10/SUM('OECD VAL'!AA9:AA11)</f>
-        <v>4.8980458276615936E-2</v>
+        <f>'OECD VAL'!AA10/SUM('OECD VAL'!AA9:AA11)+'OECD VAL'!AA27</f>
+        <v>0.19094214309285154</v>
       </c>
       <c r="AG2" s="16">
-        <f>'OECD VAL'!AB10/SUM('OECD VAL'!AB9:AB11)</f>
-        <v>1.95745299924363E-2</v>
+        <f>'OECD VAL'!AB10/SUM('OECD VAL'!AB9:AB11)+'OECD VAL'!AB27</f>
+        <v>0.13292517869836845</v>
       </c>
       <c r="AH2" s="16">
-        <f>'OECD VAL'!AC10/SUM('OECD VAL'!AC9:AC11)</f>
-        <v>3.1512391871811096E-2</v>
+        <f>'OECD VAL'!AC10/SUM('OECD VAL'!AC9:AC11)+'OECD VAL'!AC27</f>
+        <v>0.20111921009484451</v>
       </c>
       <c r="AI2" s="16">
-        <f>'OECD VAL'!AD10/SUM('OECD VAL'!AD9:AD11)</f>
-        <v>9.3582739635012166E-3</v>
+        <f>'OECD VAL'!AD10/SUM('OECD VAL'!AD9:AD11)+'OECD VAL'!AD27</f>
+        <v>0.12523557598380824</v>
       </c>
       <c r="AJ2" s="16">
-        <f>'OECD VAL'!AE10/SUM('OECD VAL'!AE9:AE11)</f>
-        <v>3.1491443051795943E-2</v>
+        <f>'OECD VAL'!AE10/SUM('OECD VAL'!AE9:AE11)+'OECD VAL'!AE27</f>
+        <v>0.16083739299446248</v>
       </c>
       <c r="AK2" s="16">
-        <f>'OECD VAL'!AF10/SUM('OECD VAL'!AF9:AF11)</f>
-        <v>0.10974217146820722</v>
+        <f>'OECD VAL'!AF10/SUM('OECD VAL'!AF9:AF11)+'OECD VAL'!AF27</f>
+        <v>0.21320666123779475</v>
       </c>
       <c r="AL2" s="16">
-        <f>'OECD VAL'!AG10/SUM('OECD VAL'!AG9:AG11)</f>
-        <v>1.5065355463333142E-2</v>
+        <f>'OECD VAL'!AG10/SUM('OECD VAL'!AG9:AG11)+'OECD VAL'!AG27</f>
+        <v>0.13825457031442603</v>
       </c>
       <c r="AM2" s="16">
-        <f>'OECD VAL'!AH10/SUM('OECD VAL'!AH9:AH11)</f>
-        <v>7.6786727995343008E-3</v>
+        <f>'OECD VAL'!AH10/SUM('OECD VAL'!AH9:AH11)+'OECD VAL'!AH27</f>
+        <v>0.12901692469236728</v>
       </c>
       <c r="AN2" s="16">
-        <f>'OECD VAL'!AI10/SUM('OECD VAL'!AI9:AI11)</f>
-        <v>3.6848123302380888E-2</v>
+        <f>'OECD VAL'!AI10/SUM('OECD VAL'!AI9:AI11)+'OECD VAL'!AI27</f>
+        <v>0.13793839800879529</v>
       </c>
       <c r="AO2" s="16">
-        <f>'OECD VAL'!AJ10/SUM('OECD VAL'!AJ9:AJ11)</f>
-        <v>1.9753493918955489E-2</v>
+        <f>'OECD VAL'!AJ10/SUM('OECD VAL'!AJ9:AJ11)+'OECD VAL'!AJ27</f>
+        <v>0.14750498892107938</v>
       </c>
       <c r="AP2" s="16">
-        <f>'OECD VAL'!AK10/SUM('OECD VAL'!AK9:AK11)</f>
-        <v>2.973755864173263E-2</v>
+        <f>'OECD VAL'!AK10/SUM('OECD VAL'!AK9:AK11)+'OECD VAL'!AK27</f>
+        <v>0.15817441029566065</v>
       </c>
       <c r="AQ2" s="16">
-        <f>'OECD VAL'!AL10/SUM('OECD VAL'!AL9:AL11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+        <f>'OECD VAL'!AL10/SUM('OECD VAL'!AL9:AL11)+'OECD VAL'!AL27</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="Q3" s="62"/>
     </row>
   </sheetData>

--- a/InputData/io-model/DToPaSoVAbIC/Domestic Taxes on Prod as Shr of Val Added by ISIC Code.xlsx
+++ b/InputData/io-model/DToPaSoVAbIC/Domestic Taxes on Prod as Shr of Val Added by ISIC Code.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\California\Models\eps-california\InputData\io-model\DToPaSoVAbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\California\CA-eps\InputData\io-model\DToPaSoVAbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876BFA66-9EA8-454F-8AA7-D662CE7A6615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2573C57-F108-4F06-8B9C-08B725322F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="OECD VAL" sheetId="12" r:id="rId2"/>
-    <sheet name="U.S. Data for ISIC Splits" sheetId="16" r:id="rId3"/>
-    <sheet name="Split ISIC Code Shares" sheetId="14" r:id="rId4"/>
-    <sheet name="DToPaSoVAbIC" sheetId="2" r:id="rId5"/>
+    <sheet name="OECD VAL" sheetId="12" state="hidden" r:id="rId2"/>
+    <sheet name="U.S. Data for ISIC Splits" sheetId="16" state="hidden" r:id="rId3"/>
+    <sheet name="Split ISIC Code Shares" sheetId="14" state="hidden" r:id="rId4"/>
+    <sheet name="CA calcs" sheetId="17" r:id="rId5"/>
+    <sheet name="DToPaSoVAbIC" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="1153">
   <si>
     <t>Source:</t>
   </si>
@@ -3469,18 +3470,46 @@
   </si>
   <si>
     <t>For state sales tax, we add it to the values here based on the rate (7.5% for CA) and the share of each industry that is value added.</t>
+  </si>
+  <si>
+    <t>Combined state and local tax rate</t>
+  </si>
+  <si>
+    <t>Sales Tax Rate by State 2022</t>
+  </si>
+  <si>
+    <t>World Population Review</t>
+  </si>
+  <si>
+    <t>https://worldpopulationreview.com/state-rankings/sales-tax-by-state</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>BVAbIC</t>
+  </si>
+  <si>
+    <t>Bobic</t>
+  </si>
+  <si>
+    <t>divide value added by output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">divide tax rate by fraction </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3578,6 +3607,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="16">
@@ -3842,13 +3878,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4011,6 +4048,61 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -4041,67 +4133,16 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{3ADF3FF5-E4D2-4BC8-9960-7408DCCB591E}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{E7A904CB-E0BE-4FC5-AF33-5102F6195B0F}"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4114,6 +4155,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>84980</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA57AB3E-C94F-FE32-2A00-71CCBD8E9693}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5961905" cy="1714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4379,10 +4469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4465,151 +4555,174 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="74" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="74" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="74" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="18" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>1121</v>
+      <c r="A39" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>1123</v>
+      <c r="B43" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>1124</v>
+      <c r="B44" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>108</v>
+      <c r="B45" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>85</v>
+      <c r="A47" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="16">
-        <v>0.9686815713640794</v>
-      </c>
-      <c r="B49" t="s">
-        <v>86</v>
+      <c r="A49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1121</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="16">
+        <v>0.9686815713640794</v>
+      </c>
+      <c r="B60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>1143</v>
       </c>
     </row>
@@ -4617,7 +4730,7 @@
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{08759D76-7BB6-457A-8AB6-5DD1F0937482}"/>
     <hyperlink ref="B20" r:id="rId2" xr:uid="{F3556511-F288-4D2B-B2CA-B58C233BE9A0}"/>
-    <hyperlink ref="A45" r:id="rId3" xr:uid="{EA28878B-6689-4364-850A-8364807961A8}"/>
+    <hyperlink ref="A56" r:id="rId3" xr:uid="{EA28878B-6689-4364-850A-8364807961A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -4661,186 +4774,186 @@
       </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="83" t="s">
+      <c r="B3" s="96"/>
+      <c r="C3" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84"/>
-      <c r="AI3" s="84"/>
-      <c r="AJ3" s="84"/>
-      <c r="AK3" s="84"/>
-      <c r="AL3" s="85"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="103"/>
+      <c r="S3" s="103"/>
+      <c r="T3" s="103"/>
+      <c r="U3" s="103"/>
+      <c r="V3" s="103"/>
+      <c r="W3" s="103"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="103"/>
+      <c r="Z3" s="103"/>
+      <c r="AA3" s="103"/>
+      <c r="AB3" s="103"/>
+      <c r="AC3" s="103"/>
+      <c r="AD3" s="103"/>
+      <c r="AE3" s="103"/>
+      <c r="AF3" s="103"/>
+      <c r="AG3" s="103"/>
+      <c r="AH3" s="103"/>
+      <c r="AI3" s="103"/>
+      <c r="AJ3" s="103"/>
+      <c r="AK3" s="103"/>
+      <c r="AL3" s="104"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="78" t="s">
+      <c r="B4" s="96"/>
+      <c r="C4" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="79"/>
-      <c r="V4" s="79"/>
-      <c r="W4" s="79"/>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="79"/>
-      <c r="Z4" s="79"/>
-      <c r="AA4" s="79"/>
-      <c r="AB4" s="79"/>
-      <c r="AC4" s="79"/>
-      <c r="AD4" s="79"/>
-      <c r="AE4" s="79"/>
-      <c r="AF4" s="79"/>
-      <c r="AG4" s="79"/>
-      <c r="AH4" s="79"/>
-      <c r="AI4" s="79"/>
-      <c r="AJ4" s="79"/>
-      <c r="AK4" s="79"/>
-      <c r="AL4" s="80"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="98"/>
+      <c r="S4" s="98"/>
+      <c r="T4" s="98"/>
+      <c r="U4" s="98"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="98"/>
+      <c r="X4" s="98"/>
+      <c r="Y4" s="98"/>
+      <c r="Z4" s="98"/>
+      <c r="AA4" s="98"/>
+      <c r="AB4" s="98"/>
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="98"/>
+      <c r="AE4" s="98"/>
+      <c r="AF4" s="98"/>
+      <c r="AG4" s="98"/>
+      <c r="AH4" s="98"/>
+      <c r="AI4" s="98"/>
+      <c r="AJ4" s="98"/>
+      <c r="AK4" s="98"/>
+      <c r="AL4" s="99"/>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="78" t="s">
+      <c r="B5" s="96"/>
+      <c r="C5" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="79"/>
-      <c r="T5" s="79"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="79"/>
-      <c r="X5" s="79"/>
-      <c r="Y5" s="79"/>
-      <c r="Z5" s="79"/>
-      <c r="AA5" s="79"/>
-      <c r="AB5" s="79"/>
-      <c r="AC5" s="79"/>
-      <c r="AD5" s="79"/>
-      <c r="AE5" s="79"/>
-      <c r="AF5" s="79"/>
-      <c r="AG5" s="79"/>
-      <c r="AH5" s="79"/>
-      <c r="AI5" s="79"/>
-      <c r="AJ5" s="79"/>
-      <c r="AK5" s="79"/>
-      <c r="AL5" s="80"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
+      <c r="S5" s="98"/>
+      <c r="T5" s="98"/>
+      <c r="U5" s="98"/>
+      <c r="V5" s="98"/>
+      <c r="W5" s="98"/>
+      <c r="X5" s="98"/>
+      <c r="Y5" s="98"/>
+      <c r="Z5" s="98"/>
+      <c r="AA5" s="98"/>
+      <c r="AB5" s="98"/>
+      <c r="AC5" s="98"/>
+      <c r="AD5" s="98"/>
+      <c r="AE5" s="98"/>
+      <c r="AF5" s="98"/>
+      <c r="AG5" s="98"/>
+      <c r="AH5" s="98"/>
+      <c r="AI5" s="98"/>
+      <c r="AJ5" s="98"/>
+      <c r="AK5" s="98"/>
+      <c r="AL5" s="99"/>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="78" t="s">
+      <c r="B6" s="96"/>
+      <c r="C6" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="79"/>
-      <c r="V6" s="79"/>
-      <c r="W6" s="79"/>
-      <c r="X6" s="79"/>
-      <c r="Y6" s="79"/>
-      <c r="Z6" s="79"/>
-      <c r="AA6" s="79"/>
-      <c r="AB6" s="79"/>
-      <c r="AC6" s="79"/>
-      <c r="AD6" s="79"/>
-      <c r="AE6" s="79"/>
-      <c r="AF6" s="79"/>
-      <c r="AG6" s="79"/>
-      <c r="AH6" s="79"/>
-      <c r="AI6" s="79"/>
-      <c r="AJ6" s="79"/>
-      <c r="AK6" s="79"/>
-      <c r="AL6" s="80"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="98"/>
+      <c r="R6" s="98"/>
+      <c r="S6" s="98"/>
+      <c r="T6" s="98"/>
+      <c r="U6" s="98"/>
+      <c r="V6" s="98"/>
+      <c r="W6" s="98"/>
+      <c r="X6" s="98"/>
+      <c r="Y6" s="98"/>
+      <c r="Z6" s="98"/>
+      <c r="AA6" s="98"/>
+      <c r="AB6" s="98"/>
+      <c r="AC6" s="98"/>
+      <c r="AD6" s="98"/>
+      <c r="AE6" s="98"/>
+      <c r="AF6" s="98"/>
+      <c r="AG6" s="98"/>
+      <c r="AH6" s="98"/>
+      <c r="AI6" s="98"/>
+      <c r="AJ6" s="98"/>
+      <c r="AK6" s="98"/>
+      <c r="AL6" s="99"/>
     </row>
     <row r="7" spans="1:47" ht="126" x14ac:dyDescent="0.2">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="82"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="8" t="s">
         <v>45</v>
       </c>
@@ -5420,11 +5533,11 @@
       </c>
     </row>
     <row r="15" spans="1:47" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="86" t="e">
+      <c r="A15" s="76" t="e">
         <f ca="1">DotStatQuery(B15)</f>
         <v>#NAME?</v>
       </c>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="76" t="s">
         <v>1128</v>
       </c>
       <c r="C15"/>
@@ -5474,7 +5587,7 @@
       <c r="AU15"/>
     </row>
     <row r="16" spans="1:47" ht="24" x14ac:dyDescent="0.25">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="77" t="s">
         <v>1129</v>
       </c>
       <c r="B16"/>
@@ -5525,789 +5638,789 @@
       <c r="AU16"/>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="89"/>
-      <c r="C17" s="90" t="s">
+      <c r="B17" s="86"/>
+      <c r="C17" s="92" t="s">
         <v>1130</v>
       </c>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="91"/>
-      <c r="S17" s="91"/>
-      <c r="T17" s="91"/>
-      <c r="U17" s="91"/>
-      <c r="V17" s="91"/>
-      <c r="W17" s="91"/>
-      <c r="X17" s="91"/>
-      <c r="Y17" s="91"/>
-      <c r="Z17" s="91"/>
-      <c r="AA17" s="91"/>
-      <c r="AB17" s="91"/>
-      <c r="AC17" s="91"/>
-      <c r="AD17" s="91"/>
-      <c r="AE17" s="91"/>
-      <c r="AF17" s="91"/>
-      <c r="AG17" s="91"/>
-      <c r="AH17" s="91"/>
-      <c r="AI17" s="91"/>
-      <c r="AJ17" s="91"/>
-      <c r="AK17" s="91"/>
-      <c r="AL17" s="91"/>
-      <c r="AM17" s="91"/>
-      <c r="AN17" s="91"/>
-      <c r="AO17" s="91"/>
-      <c r="AP17" s="91"/>
-      <c r="AQ17" s="91"/>
-      <c r="AR17" s="91"/>
-      <c r="AS17" s="91"/>
-      <c r="AT17" s="91"/>
-      <c r="AU17" s="92"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="93"/>
+      <c r="R17" s="93"/>
+      <c r="S17" s="93"/>
+      <c r="T17" s="93"/>
+      <c r="U17" s="93"/>
+      <c r="V17" s="93"/>
+      <c r="W17" s="93"/>
+      <c r="X17" s="93"/>
+      <c r="Y17" s="93"/>
+      <c r="Z17" s="93"/>
+      <c r="AA17" s="93"/>
+      <c r="AB17" s="93"/>
+      <c r="AC17" s="93"/>
+      <c r="AD17" s="93"/>
+      <c r="AE17" s="93"/>
+      <c r="AF17" s="93"/>
+      <c r="AG17" s="93"/>
+      <c r="AH17" s="93"/>
+      <c r="AI17" s="93"/>
+      <c r="AJ17" s="93"/>
+      <c r="AK17" s="93"/>
+      <c r="AL17" s="93"/>
+      <c r="AM17" s="93"/>
+      <c r="AN17" s="93"/>
+      <c r="AO17" s="93"/>
+      <c r="AP17" s="93"/>
+      <c r="AQ17" s="93"/>
+      <c r="AR17" s="93"/>
+      <c r="AS17" s="93"/>
+      <c r="AT17" s="93"/>
+      <c r="AU17" s="94"/>
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A18" s="88" t="s">
+      <c r="A18" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="89"/>
-      <c r="C18" s="93" t="s">
+      <c r="B18" s="86"/>
+      <c r="C18" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="94"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="94"/>
-      <c r="S18" s="94"/>
-      <c r="T18" s="94"/>
-      <c r="U18" s="94"/>
-      <c r="V18" s="94"/>
-      <c r="W18" s="94"/>
-      <c r="X18" s="94"/>
-      <c r="Y18" s="94"/>
-      <c r="Z18" s="94"/>
-      <c r="AA18" s="94"/>
-      <c r="AB18" s="94"/>
-      <c r="AC18" s="94"/>
-      <c r="AD18" s="94"/>
-      <c r="AE18" s="94"/>
-      <c r="AF18" s="94"/>
-      <c r="AG18" s="94"/>
-      <c r="AH18" s="94"/>
-      <c r="AI18" s="94"/>
-      <c r="AJ18" s="94"/>
-      <c r="AK18" s="94"/>
-      <c r="AL18" s="94"/>
-      <c r="AM18" s="94"/>
-      <c r="AN18" s="94"/>
-      <c r="AO18" s="94"/>
-      <c r="AP18" s="94"/>
-      <c r="AQ18" s="94"/>
-      <c r="AR18" s="94"/>
-      <c r="AS18" s="94"/>
-      <c r="AT18" s="94"/>
-      <c r="AU18" s="95"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="88"/>
+      <c r="N18" s="88"/>
+      <c r="O18" s="88"/>
+      <c r="P18" s="88"/>
+      <c r="Q18" s="88"/>
+      <c r="R18" s="88"/>
+      <c r="S18" s="88"/>
+      <c r="T18" s="88"/>
+      <c r="U18" s="88"/>
+      <c r="V18" s="88"/>
+      <c r="W18" s="88"/>
+      <c r="X18" s="88"/>
+      <c r="Y18" s="88"/>
+      <c r="Z18" s="88"/>
+      <c r="AA18" s="88"/>
+      <c r="AB18" s="88"/>
+      <c r="AC18" s="88"/>
+      <c r="AD18" s="88"/>
+      <c r="AE18" s="88"/>
+      <c r="AF18" s="88"/>
+      <c r="AG18" s="88"/>
+      <c r="AH18" s="88"/>
+      <c r="AI18" s="88"/>
+      <c r="AJ18" s="88"/>
+      <c r="AK18" s="88"/>
+      <c r="AL18" s="88"/>
+      <c r="AM18" s="88"/>
+      <c r="AN18" s="88"/>
+      <c r="AO18" s="88"/>
+      <c r="AP18" s="88"/>
+      <c r="AQ18" s="88"/>
+      <c r="AR18" s="88"/>
+      <c r="AS18" s="88"/>
+      <c r="AT18" s="88"/>
+      <c r="AU18" s="89"/>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="89"/>
-      <c r="C19" s="93" t="s">
+      <c r="B19" s="86"/>
+      <c r="C19" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="94"/>
-      <c r="T19" s="94"/>
-      <c r="U19" s="94"/>
-      <c r="V19" s="94"/>
-      <c r="W19" s="94"/>
-      <c r="X19" s="94"/>
-      <c r="Y19" s="94"/>
-      <c r="Z19" s="94"/>
-      <c r="AA19" s="94"/>
-      <c r="AB19" s="94"/>
-      <c r="AC19" s="94"/>
-      <c r="AD19" s="94"/>
-      <c r="AE19" s="94"/>
-      <c r="AF19" s="94"/>
-      <c r="AG19" s="94"/>
-      <c r="AH19" s="94"/>
-      <c r="AI19" s="94"/>
-      <c r="AJ19" s="94"/>
-      <c r="AK19" s="94"/>
-      <c r="AL19" s="94"/>
-      <c r="AM19" s="94"/>
-      <c r="AN19" s="94"/>
-      <c r="AO19" s="94"/>
-      <c r="AP19" s="94"/>
-      <c r="AQ19" s="94"/>
-      <c r="AR19" s="94"/>
-      <c r="AS19" s="94"/>
-      <c r="AT19" s="94"/>
-      <c r="AU19" s="95"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="88"/>
+      <c r="Q19" s="88"/>
+      <c r="R19" s="88"/>
+      <c r="S19" s="88"/>
+      <c r="T19" s="88"/>
+      <c r="U19" s="88"/>
+      <c r="V19" s="88"/>
+      <c r="W19" s="88"/>
+      <c r="X19" s="88"/>
+      <c r="Y19" s="88"/>
+      <c r="Z19" s="88"/>
+      <c r="AA19" s="88"/>
+      <c r="AB19" s="88"/>
+      <c r="AC19" s="88"/>
+      <c r="AD19" s="88"/>
+      <c r="AE19" s="88"/>
+      <c r="AF19" s="88"/>
+      <c r="AG19" s="88"/>
+      <c r="AH19" s="88"/>
+      <c r="AI19" s="88"/>
+      <c r="AJ19" s="88"/>
+      <c r="AK19" s="88"/>
+      <c r="AL19" s="88"/>
+      <c r="AM19" s="88"/>
+      <c r="AN19" s="88"/>
+      <c r="AO19" s="88"/>
+      <c r="AP19" s="88"/>
+      <c r="AQ19" s="88"/>
+      <c r="AR19" s="88"/>
+      <c r="AS19" s="88"/>
+      <c r="AT19" s="88"/>
+      <c r="AU19" s="89"/>
     </row>
     <row r="20" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="93" t="s">
+      <c r="B20" s="86"/>
+      <c r="C20" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="94"/>
-      <c r="S20" s="94"/>
-      <c r="T20" s="94"/>
-      <c r="U20" s="94"/>
-      <c r="V20" s="94"/>
-      <c r="W20" s="94"/>
-      <c r="X20" s="94"/>
-      <c r="Y20" s="94"/>
-      <c r="Z20" s="94"/>
-      <c r="AA20" s="94"/>
-      <c r="AB20" s="94"/>
-      <c r="AC20" s="94"/>
-      <c r="AD20" s="94"/>
-      <c r="AE20" s="94"/>
-      <c r="AF20" s="94"/>
-      <c r="AG20" s="94"/>
-      <c r="AH20" s="94"/>
-      <c r="AI20" s="94"/>
-      <c r="AJ20" s="94"/>
-      <c r="AK20" s="94"/>
-      <c r="AL20" s="94"/>
-      <c r="AM20" s="94"/>
-      <c r="AN20" s="94"/>
-      <c r="AO20" s="94"/>
-      <c r="AP20" s="94"/>
-      <c r="AQ20" s="94"/>
-      <c r="AR20" s="94"/>
-      <c r="AS20" s="94"/>
-      <c r="AT20" s="94"/>
-      <c r="AU20" s="95"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="88"/>
+      <c r="P20" s="88"/>
+      <c r="Q20" s="88"/>
+      <c r="R20" s="88"/>
+      <c r="S20" s="88"/>
+      <c r="T20" s="88"/>
+      <c r="U20" s="88"/>
+      <c r="V20" s="88"/>
+      <c r="W20" s="88"/>
+      <c r="X20" s="88"/>
+      <c r="Y20" s="88"/>
+      <c r="Z20" s="88"/>
+      <c r="AA20" s="88"/>
+      <c r="AB20" s="88"/>
+      <c r="AC20" s="88"/>
+      <c r="AD20" s="88"/>
+      <c r="AE20" s="88"/>
+      <c r="AF20" s="88"/>
+      <c r="AG20" s="88"/>
+      <c r="AH20" s="88"/>
+      <c r="AI20" s="88"/>
+      <c r="AJ20" s="88"/>
+      <c r="AK20" s="88"/>
+      <c r="AL20" s="88"/>
+      <c r="AM20" s="88"/>
+      <c r="AN20" s="88"/>
+      <c r="AO20" s="88"/>
+      <c r="AP20" s="88"/>
+      <c r="AQ20" s="88"/>
+      <c r="AR20" s="88"/>
+      <c r="AS20" s="88"/>
+      <c r="AT20" s="88"/>
+      <c r="AU20" s="89"/>
     </row>
     <row r="21" spans="1:47" ht="126" x14ac:dyDescent="0.2">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="98" t="s">
+      <c r="B21" s="91"/>
+      <c r="C21" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="98" t="s">
+      <c r="D21" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="98" t="s">
+      <c r="E21" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="98" t="s">
+      <c r="F21" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="98" t="s">
+      <c r="G21" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="98" t="s">
+      <c r="H21" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="98" t="s">
+      <c r="I21" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="J21" s="98" t="s">
+      <c r="J21" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="K21" s="98" t="s">
+      <c r="K21" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="L21" s="98" t="s">
+      <c r="L21" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M21" s="98" t="s">
+      <c r="M21" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="N21" s="98" t="s">
+      <c r="N21" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="O21" s="98" t="s">
+      <c r="O21" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="P21" s="98" t="s">
+      <c r="P21" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="Q21" s="98" t="s">
+      <c r="Q21" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="R21" s="98" t="s">
+      <c r="R21" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="S21" s="98" t="s">
+      <c r="S21" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="T21" s="98" t="s">
+      <c r="T21" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="U21" s="98" t="s">
+      <c r="U21" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="V21" s="98" t="s">
+      <c r="V21" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="W21" s="98" t="s">
+      <c r="W21" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="X21" s="98" t="s">
+      <c r="X21" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="Y21" s="98" t="s">
+      <c r="Y21" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="Z21" s="98" t="s">
+      <c r="Z21" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="AA21" s="98" t="s">
+      <c r="AA21" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="AB21" s="98" t="s">
+      <c r="AB21" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="AC21" s="98" t="s">
+      <c r="AC21" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="AD21" s="98" t="s">
+      <c r="AD21" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="AE21" s="98" t="s">
+      <c r="AE21" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="AF21" s="98" t="s">
+      <c r="AF21" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="AG21" s="98" t="s">
+      <c r="AG21" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="AH21" s="98" t="s">
+      <c r="AH21" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="AI21" s="98" t="s">
+      <c r="AI21" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="AJ21" s="98" t="s">
+      <c r="AJ21" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="AK21" s="98" t="s">
+      <c r="AK21" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="AL21" s="98" t="s">
+      <c r="AL21" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="AM21" s="98" t="s">
+      <c r="AM21" s="78" t="s">
         <v>1131</v>
       </c>
-      <c r="AN21" s="98" t="s">
+      <c r="AN21" s="78" t="s">
         <v>1132</v>
       </c>
-      <c r="AO21" s="98" t="s">
+      <c r="AO21" s="78" t="s">
         <v>1133</v>
       </c>
-      <c r="AP21" s="98" t="s">
+      <c r="AP21" s="78" t="s">
         <v>1134</v>
       </c>
-      <c r="AQ21" s="98" t="s">
+      <c r="AQ21" s="78" t="s">
         <v>1135</v>
       </c>
-      <c r="AR21" s="98" t="s">
+      <c r="AR21" s="78" t="s">
         <v>1136</v>
       </c>
-      <c r="AS21" s="98" t="s">
+      <c r="AS21" s="78" t="s">
         <v>1137</v>
       </c>
-      <c r="AT21" s="98" t="s">
+      <c r="AT21" s="78" t="s">
         <v>1138</v>
       </c>
-      <c r="AU21" s="98" t="s">
+      <c r="AU21" s="78" t="s">
         <v>1139</v>
       </c>
     </row>
     <row r="22" spans="1:47" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="99" t="s">
+      <c r="A22" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="100" t="s">
+      <c r="B22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="100" t="s">
+      <c r="C22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="100" t="s">
+      <c r="D22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="100" t="s">
+      <c r="E22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="100" t="s">
+      <c r="F22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="100" t="s">
+      <c r="G22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="100" t="s">
+      <c r="H22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="100" t="s">
+      <c r="I22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="100" t="s">
+      <c r="J22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="K22" s="100" t="s">
+      <c r="K22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="100" t="s">
+      <c r="L22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="M22" s="100" t="s">
+      <c r="M22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="N22" s="100" t="s">
+      <c r="N22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="O22" s="100" t="s">
+      <c r="O22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="P22" s="100" t="s">
+      <c r="P22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="Q22" s="100" t="s">
+      <c r="Q22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="R22" s="100" t="s">
+      <c r="R22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="S22" s="100" t="s">
+      <c r="S22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="T22" s="100" t="s">
+      <c r="T22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="U22" s="100" t="s">
+      <c r="U22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="V22" s="100" t="s">
+      <c r="V22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="W22" s="100" t="s">
+      <c r="W22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="X22" s="100" t="s">
+      <c r="X22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="Y22" s="100" t="s">
+      <c r="Y22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="Z22" s="100" t="s">
+      <c r="Z22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="AA22" s="100" t="s">
+      <c r="AA22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="AB22" s="100" t="s">
+      <c r="AB22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="AC22" s="100" t="s">
+      <c r="AC22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="AD22" s="100" t="s">
+      <c r="AD22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="AE22" s="100" t="s">
+      <c r="AE22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="AF22" s="100" t="s">
+      <c r="AF22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="AG22" s="100" t="s">
+      <c r="AG22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="AH22" s="100" t="s">
+      <c r="AH22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="AI22" s="100" t="s">
+      <c r="AI22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="AJ22" s="100" t="s">
+      <c r="AJ22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="AK22" s="100" t="s">
+      <c r="AK22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="AL22" s="100" t="s">
+      <c r="AL22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="AM22" s="100" t="s">
+      <c r="AM22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="AN22" s="100" t="s">
+      <c r="AN22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="AO22" s="100" t="s">
+      <c r="AO22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="AP22" s="100" t="s">
+      <c r="AP22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="AQ22" s="100" t="s">
+      <c r="AQ22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="AR22" s="100" t="s">
+      <c r="AR22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="AS22" s="100" t="s">
+      <c r="AS22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="AT22" s="100" t="s">
+      <c r="AT22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="AU22" s="100" t="s">
+      <c r="AU22" s="80" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:47" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="101" t="s">
+      <c r="A23" s="81" t="s">
         <v>1140</v>
       </c>
-      <c r="B23" s="100" t="s">
+      <c r="B23" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="102">
+      <c r="C23" s="82">
         <v>193880.1</v>
       </c>
-      <c r="D23" s="102">
+      <c r="D23" s="82">
         <v>224457.8</v>
       </c>
-      <c r="E23" s="102">
+      <c r="E23" s="82">
         <v>41179.699999999997</v>
       </c>
-      <c r="F23" s="102">
+      <c r="F23" s="82">
         <v>51902.2</v>
       </c>
-      <c r="G23" s="102">
+      <c r="G23" s="82">
         <v>248447.3</v>
       </c>
-      <c r="H23" s="102">
+      <c r="H23" s="82">
         <v>27632.7</v>
       </c>
-      <c r="I23" s="102">
+      <c r="I23" s="82">
         <v>29104</v>
       </c>
-      <c r="J23" s="102">
+      <c r="J23" s="82">
         <v>96638.1</v>
       </c>
-      <c r="K23" s="102">
+      <c r="K23" s="82">
         <v>158470.79999999999</v>
       </c>
-      <c r="L23" s="102">
+      <c r="L23" s="82">
         <v>375984.4</v>
       </c>
-      <c r="M23" s="102">
+      <c r="M23" s="82">
         <v>79855</v>
       </c>
-      <c r="N23" s="102">
+      <c r="N23" s="82">
         <v>51405.3</v>
       </c>
-      <c r="O23" s="102">
+      <c r="O23" s="82">
         <v>55642.9</v>
       </c>
-      <c r="P23" s="102">
+      <c r="P23" s="82">
         <v>146781</v>
       </c>
-      <c r="Q23" s="102">
+      <c r="Q23" s="82">
         <v>278512</v>
       </c>
-      <c r="R23" s="102">
+      <c r="R23" s="82">
         <v>56318.400000000001</v>
       </c>
-      <c r="S23" s="102">
+      <c r="S23" s="82">
         <v>147210</v>
       </c>
-      <c r="T23" s="102">
+      <c r="T23" s="82">
         <v>160519.29999999999</v>
       </c>
-      <c r="U23" s="102">
+      <c r="U23" s="82">
         <v>134148.79999999999</v>
       </c>
-      <c r="V23" s="102">
+      <c r="V23" s="82">
         <v>113138.6</v>
       </c>
-      <c r="W23" s="102">
+      <c r="W23" s="82">
         <v>305741.09999999998</v>
       </c>
-      <c r="X23" s="102">
+      <c r="X23" s="82">
         <v>739913.7</v>
       </c>
-      <c r="Y23" s="102">
+      <c r="Y23" s="82">
         <v>1844823.9</v>
       </c>
-      <c r="Z23" s="102">
+      <c r="Z23" s="82">
         <v>578089.19999999995</v>
       </c>
-      <c r="AA23" s="102">
+      <c r="AA23" s="82">
         <v>484860</v>
       </c>
-      <c r="AB23" s="102">
+      <c r="AB23" s="82">
         <v>435104.7</v>
       </c>
-      <c r="AC23" s="102">
+      <c r="AC23" s="82">
         <v>281228.7</v>
       </c>
-      <c r="AD23" s="102">
+      <c r="AD23" s="82">
         <v>374165.9</v>
       </c>
-      <c r="AE23" s="102">
+      <c r="AE23" s="82">
         <v>1330550.3</v>
       </c>
-      <c r="AF23" s="102">
+      <c r="AF23" s="82">
         <v>2176388.2999999998</v>
       </c>
-      <c r="AG23" s="102">
+      <c r="AG23" s="82">
         <v>2036776.7</v>
       </c>
-      <c r="AH23" s="102">
+      <c r="AH23" s="82">
         <v>1550704.7</v>
       </c>
-      <c r="AI23" s="102">
+      <c r="AI23" s="82">
         <v>967494.7</v>
       </c>
-      <c r="AJ23" s="102">
+      <c r="AJ23" s="82">
         <v>1284195.5</v>
       </c>
-      <c r="AK23" s="102">
+      <c r="AK23" s="82">
         <v>467632.2</v>
       </c>
-      <c r="AL23" s="102">
+      <c r="AL23" s="82">
         <v>21351.7</v>
       </c>
-      <c r="AM23" s="102">
+      <c r="AM23" s="82">
         <v>0</v>
       </c>
-      <c r="AN23" s="102">
+      <c r="AN23" s="82">
         <v>0</v>
       </c>
-      <c r="AO23" s="102">
+      <c r="AO23" s="82">
         <v>0</v>
       </c>
-      <c r="AP23" s="102">
+      <c r="AP23" s="82">
         <v>0</v>
       </c>
-      <c r="AQ23" s="102">
+      <c r="AQ23" s="82">
         <v>0</v>
       </c>
-      <c r="AR23" s="102">
+      <c r="AR23" s="82">
         <v>0</v>
       </c>
-      <c r="AS23" s="102">
+      <c r="AS23" s="82">
         <v>0</v>
       </c>
-      <c r="AT23" s="102">
+      <c r="AT23" s="82">
         <v>0</v>
       </c>
-      <c r="AU23" s="102">
+      <c r="AU23" s="82">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:47" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="101" t="s">
+      <c r="A24" s="81" t="s">
         <v>1141</v>
       </c>
-      <c r="B24" s="100" t="s">
+      <c r="B24" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="103">
+      <c r="C24" s="83">
         <v>455757.4</v>
       </c>
-      <c r="D24" s="103">
+      <c r="D24" s="83">
         <v>293671.09999999998</v>
       </c>
-      <c r="E24" s="103">
+      <c r="E24" s="83">
         <v>64889.3</v>
       </c>
-      <c r="F24" s="103">
+      <c r="F24" s="83">
         <v>87786.1</v>
       </c>
-      <c r="G24" s="103">
+      <c r="G24" s="83">
         <v>935808.4</v>
       </c>
-      <c r="H24" s="103">
+      <c r="H24" s="83">
         <v>87018.8</v>
       </c>
-      <c r="I24" s="103">
+      <c r="I24" s="83">
         <v>98613</v>
       </c>
-      <c r="J24" s="103">
+      <c r="J24" s="83">
         <v>269203.3</v>
       </c>
-      <c r="K24" s="103">
+      <c r="K24" s="83">
         <v>490118.1</v>
       </c>
-      <c r="L24" s="103">
+      <c r="L24" s="83">
         <v>785327</v>
       </c>
-      <c r="M24" s="103">
+      <c r="M24" s="83">
         <v>230983</v>
       </c>
-      <c r="N24" s="103">
+      <c r="N24" s="83">
         <v>119491.4</v>
       </c>
-      <c r="O24" s="103">
+      <c r="O24" s="83">
         <v>225243.7</v>
       </c>
-      <c r="P24" s="103">
+      <c r="P24" s="83">
         <v>367581.1</v>
       </c>
-      <c r="Q24" s="103">
+      <c r="Q24" s="83">
         <v>380874.8</v>
       </c>
-      <c r="R24" s="103">
+      <c r="R24" s="83">
         <v>125254.1</v>
       </c>
-      <c r="S24" s="103">
+      <c r="S24" s="83">
         <v>380878.6</v>
       </c>
-      <c r="T24" s="103">
+      <c r="T24" s="83">
         <v>666400</v>
       </c>
-      <c r="U24" s="103">
+      <c r="U24" s="83">
         <v>334983</v>
       </c>
-      <c r="V24" s="103">
+      <c r="V24" s="83">
         <v>246719.5</v>
       </c>
-      <c r="W24" s="103">
+      <c r="W24" s="83">
         <v>475620.1</v>
       </c>
-      <c r="X24" s="103">
+      <c r="X24" s="83">
         <v>1351706.6</v>
       </c>
-      <c r="Y24" s="103">
+      <c r="Y24" s="83">
         <v>2970593.4</v>
       </c>
-      <c r="Z24" s="103">
+      <c r="Z24" s="83">
         <v>1121923.2</v>
       </c>
-      <c r="AA24" s="103">
+      <c r="AA24" s="83">
         <v>917753.9</v>
       </c>
-      <c r="AB24" s="103">
+      <c r="AB24" s="83">
         <v>657592</v>
       </c>
-      <c r="AC24" s="103">
+      <c r="AC24" s="83">
         <v>635977.4</v>
       </c>
-      <c r="AD24" s="103">
+      <c r="AD24" s="83">
         <v>578097.80000000005</v>
       </c>
-      <c r="AE24" s="103">
+      <c r="AE24" s="83">
         <v>2294683.9</v>
       </c>
-      <c r="AF24" s="103">
+      <c r="AF24" s="83">
         <v>3002385.4</v>
       </c>
-      <c r="AG24" s="103">
+      <c r="AG24" s="83">
         <v>3345452.3</v>
       </c>
-      <c r="AH24" s="103">
+      <c r="AH24" s="83">
         <v>2508797.2999999998</v>
       </c>
-      <c r="AI24" s="103">
+      <c r="AI24" s="83">
         <v>1304057.3999999999</v>
       </c>
-      <c r="AJ24" s="103">
+      <c r="AJ24" s="83">
         <v>2187438.6</v>
       </c>
-      <c r="AK24" s="103">
+      <c r="AK24" s="83">
         <v>800816.1</v>
       </c>
-      <c r="AL24" s="103">
+      <c r="AL24" s="83">
         <v>21351.7</v>
       </c>
-      <c r="AM24" s="103">
+      <c r="AM24" s="83">
         <v>0</v>
       </c>
-      <c r="AN24" s="103">
+      <c r="AN24" s="83">
         <v>0</v>
       </c>
-      <c r="AO24" s="103">
+      <c r="AO24" s="83">
         <v>0</v>
       </c>
-      <c r="AP24" s="103">
+      <c r="AP24" s="83">
         <v>0</v>
       </c>
-      <c r="AQ24" s="103">
+      <c r="AQ24" s="83">
         <v>0</v>
       </c>
-      <c r="AR24" s="103">
+      <c r="AR24" s="83">
         <v>0</v>
       </c>
-      <c r="AS24" s="103">
+      <c r="AS24" s="83">
         <v>0</v>
       </c>
-      <c r="AT24" s="103">
+      <c r="AT24" s="83">
         <v>0</v>
       </c>
-      <c r="AU24" s="103">
+      <c r="AU24" s="83">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:47" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="104" t="s">
+      <c r="A25" s="84" t="s">
         <v>1142</v>
       </c>
       <c r="B25"/>
@@ -6541,6 +6654,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:AL6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:AL3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:AL4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:AL5"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:AU20"/>
     <mergeCell ref="A21:B21"/>
@@ -6550,15 +6672,6 @@
     <mergeCell ref="C18:AU18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:AU19"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:AL6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:AL3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:AL4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:AL5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=IOTSI4_2018&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{4BD8A92A-72AB-40B8-AA8E-E586984C163B}"/>
@@ -6581,7 +6694,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13646,7 +13759,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2874A2D-92E4-4247-99A1-8960158A8480}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13889,14 +14004,1083 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6580050-1D14-4897-AD94-D481429DD431}">
+  <dimension ref="B11:AR22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B11" s="49" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C11" s="106">
+        <v>8.5599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" t="s">
+        <v>106</v>
+      </c>
+      <c r="N14" t="s">
+        <v>107</v>
+      </c>
+      <c r="O14" t="s">
+        <v>18</v>
+      </c>
+      <c r="P14" t="s">
+        <v>1113</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>1114</v>
+      </c>
+      <c r="R14" t="s">
+        <v>1118</v>
+      </c>
+      <c r="S14" t="s">
+        <v>1119</v>
+      </c>
+      <c r="T14" t="s">
+        <v>19</v>
+      </c>
+      <c r="U14" t="s">
+        <v>20</v>
+      </c>
+      <c r="V14" t="s">
+        <v>21</v>
+      </c>
+      <c r="W14" t="s">
+        <v>22</v>
+      </c>
+      <c r="X14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>1117</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C15">
+        <v>99694400011.640091</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>9927382726.1087189</v>
+      </c>
+      <c r="F15">
+        <v>3226785080.6975036</v>
+      </c>
+      <c r="G15">
+        <v>2393137578.9985418</v>
+      </c>
+      <c r="H15">
+        <v>91139043179.883209</v>
+      </c>
+      <c r="I15">
+        <v>8539750454.6605587</v>
+      </c>
+      <c r="J15">
+        <v>5818484305.6629887</v>
+      </c>
+      <c r="K15">
+        <v>15828928114.766878</v>
+      </c>
+      <c r="L15">
+        <v>64351590726.24881</v>
+      </c>
+      <c r="M15">
+        <v>20423836909.294197</v>
+      </c>
+      <c r="N15">
+        <v>69785350256.481201</v>
+      </c>
+      <c r="O15">
+        <v>11866789069.654385</v>
+      </c>
+      <c r="P15">
+        <v>1755798784.5222609</v>
+      </c>
+      <c r="Q15">
+        <v>6974841267.5497723</v>
+      </c>
+      <c r="R15">
+        <v>4367582452.0335732</v>
+      </c>
+      <c r="S15">
+        <v>3826748169.1892252</v>
+      </c>
+      <c r="T15">
+        <v>28007264986.300152</v>
+      </c>
+      <c r="U15">
+        <v>111441274758.76079</v>
+      </c>
+      <c r="V15">
+        <v>9035359947.2393417</v>
+      </c>
+      <c r="W15">
+        <v>24627977114.924477</v>
+      </c>
+      <c r="X15">
+        <v>23257428171.973629</v>
+      </c>
+      <c r="Y15">
+        <v>33260078591.213097</v>
+      </c>
+      <c r="Z15">
+        <v>27135933144.196373</v>
+      </c>
+      <c r="AA15">
+        <v>38855456622.170898</v>
+      </c>
+      <c r="AB15">
+        <v>14689257991.30851</v>
+      </c>
+      <c r="AC15">
+        <v>11976994807.28443</v>
+      </c>
+      <c r="AD15">
+        <v>180789416808.18146</v>
+      </c>
+      <c r="AE15">
+        <v>417726768986.40747</v>
+      </c>
+      <c r="AF15">
+        <v>137419711833.52512</v>
+      </c>
+      <c r="AG15">
+        <v>132756141378.6507</v>
+      </c>
+      <c r="AH15">
+        <v>131998086852.99777</v>
+      </c>
+      <c r="AI15">
+        <v>122240174920.77301</v>
+      </c>
+      <c r="AJ15">
+        <v>120660048970.20287</v>
+      </c>
+      <c r="AK15">
+        <v>239063154316.89569</v>
+      </c>
+      <c r="AL15">
+        <v>473126607182.0376</v>
+      </c>
+      <c r="AM15">
+        <v>588258773444.51392</v>
+      </c>
+      <c r="AN15">
+        <v>422288413725.71826</v>
+      </c>
+      <c r="AO15">
+        <v>39570367153.529556</v>
+      </c>
+      <c r="AP15">
+        <v>263432207327.38986</v>
+      </c>
+      <c r="AQ15">
+        <v>52649128602.53318</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" t="s">
+        <v>106</v>
+      </c>
+      <c r="N17" t="s">
+        <v>107</v>
+      </c>
+      <c r="O17" t="s">
+        <v>18</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1113</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>1114</v>
+      </c>
+      <c r="R17" t="s">
+        <v>1118</v>
+      </c>
+      <c r="S17" t="s">
+        <v>1119</v>
+      </c>
+      <c r="T17" t="s">
+        <v>19</v>
+      </c>
+      <c r="U17" t="s">
+        <v>20</v>
+      </c>
+      <c r="V17" t="s">
+        <v>21</v>
+      </c>
+      <c r="W17" t="s">
+        <v>22</v>
+      </c>
+      <c r="X17" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>1117</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C18">
+        <v>31018347107.438015</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>5016115702.4793386</v>
+      </c>
+      <c r="F18">
+        <v>1934958677.6859505</v>
+      </c>
+      <c r="G18">
+        <v>1213636363.6363635</v>
+      </c>
+      <c r="H18">
+        <v>23878016528.925621</v>
+      </c>
+      <c r="I18">
+        <v>3605206611.5702481</v>
+      </c>
+      <c r="J18">
+        <v>2118760330.5785122</v>
+      </c>
+      <c r="K18">
+        <v>5436528925.6198349</v>
+      </c>
+      <c r="L18">
+        <v>25064380165.289257</v>
+      </c>
+      <c r="M18">
+        <v>13488197883.852139</v>
+      </c>
+      <c r="N18">
+        <v>46087256661.602409</v>
+      </c>
+      <c r="O18">
+        <v>3970661157.0247931</v>
+      </c>
+      <c r="P18">
+        <v>895278215.41077685</v>
+      </c>
+      <c r="Q18">
+        <v>3556457321.7793059</v>
+      </c>
+      <c r="R18">
+        <v>1024241983.9292297</v>
+      </c>
+      <c r="S18">
+        <v>897410908.63275373</v>
+      </c>
+      <c r="T18">
+        <v>12087272727.272728</v>
+      </c>
+      <c r="U18">
+        <v>98794049586.776855</v>
+      </c>
+      <c r="V18">
+        <v>4603305785.1239672</v>
+      </c>
+      <c r="W18">
+        <v>11705454545.454546</v>
+      </c>
+      <c r="X18">
+        <v>6122727272.727273</v>
+      </c>
+      <c r="Y18">
+        <v>15396859504.132231</v>
+      </c>
+      <c r="Z18">
+        <v>15900082644.628098</v>
+      </c>
+      <c r="AA18">
+        <v>24385239523.147812</v>
+      </c>
+      <c r="AB18">
+        <v>9218810063.6290493</v>
+      </c>
+      <c r="AC18">
+        <v>6402892561.9834709</v>
+      </c>
+      <c r="AD18">
+        <v>101055867768.59505</v>
+      </c>
+      <c r="AE18">
+        <v>270812479338.84296</v>
+      </c>
+      <c r="AF18">
+        <v>73693057851.23967</v>
+      </c>
+      <c r="AG18">
+        <v>78675867768.595047</v>
+      </c>
+      <c r="AH18">
+        <v>95382809917.355362</v>
+      </c>
+      <c r="AI18">
+        <v>63047603305.785126</v>
+      </c>
+      <c r="AJ18">
+        <v>93933801652.892548</v>
+      </c>
+      <c r="AK18">
+        <v>130238016528.92561</v>
+      </c>
+      <c r="AL18">
+        <v>335351983471.0744</v>
+      </c>
+      <c r="AM18">
+        <v>391995123966.94214</v>
+      </c>
+      <c r="AN18">
+        <v>286635289256.19836</v>
+      </c>
+      <c r="AO18">
+        <v>29090330578.512398</v>
+      </c>
+      <c r="AP18">
+        <v>161466363636.36362</v>
+      </c>
+      <c r="AQ18">
+        <v>37646776859.504128</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="C20" t="str">
+        <f>C17</f>
+        <v>ISIC 01T03</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" ref="D20:AR20" si="0">D17</f>
+        <v>ISIC 05</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 06</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 07T08</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 09</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 10T12</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 13T15</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 16</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 17T18</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 19</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 20</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 21</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 22</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 231</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 239</v>
+      </c>
+      <c r="R20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 241</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 242</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 25</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 26</v>
+      </c>
+      <c r="V20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 27</v>
+      </c>
+      <c r="W20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 28</v>
+      </c>
+      <c r="X20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 29</v>
+      </c>
+      <c r="Y20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 30</v>
+      </c>
+      <c r="Z20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 31T33</v>
+      </c>
+      <c r="AA20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 351</v>
+      </c>
+      <c r="AB20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 352T353</v>
+      </c>
+      <c r="AC20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 36T39</v>
+      </c>
+      <c r="AD20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 41T43</v>
+      </c>
+      <c r="AE20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 45T47</v>
+      </c>
+      <c r="AF20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 49T53</v>
+      </c>
+      <c r="AG20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 55T56</v>
+      </c>
+      <c r="AH20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 58T60</v>
+      </c>
+      <c r="AI20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 61</v>
+      </c>
+      <c r="AJ20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 62T63</v>
+      </c>
+      <c r="AK20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 64T66</v>
+      </c>
+      <c r="AL20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 68</v>
+      </c>
+      <c r="AM20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 69T82</v>
+      </c>
+      <c r="AN20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 84</v>
+      </c>
+      <c r="AO20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 85</v>
+      </c>
+      <c r="AP20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 86T88</v>
+      </c>
+      <c r="AQ20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 90T96</v>
+      </c>
+      <c r="AR20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISIC 97T98</v>
+      </c>
+    </row>
+    <row r="21" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B21" s="24" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C21" s="105">
+        <f>C18/C15</f>
+        <v>0.3111342974511746</v>
+      </c>
+      <c r="D21" s="105" t="e">
+        <f t="shared" ref="D21:AR21" si="1">D18/D15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.50528078153843159</v>
+      </c>
+      <c r="F21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.59965526965548288</v>
+      </c>
+      <c r="G21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.50713188171330914</v>
+      </c>
+      <c r="H21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.26199547083018015</v>
+      </c>
+      <c r="I21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.42216767699607788</v>
+      </c>
+      <c r="J21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.36414300001056538</v>
+      </c>
+      <c r="K21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.34345527923322067</v>
+      </c>
+      <c r="L21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.38949122908107969</v>
+      </c>
+      <c r="M21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.660414492328526</v>
+      </c>
+      <c r="N21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.66041449232852611</v>
+      </c>
+      <c r="O21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.33460282589656221</v>
+      </c>
+      <c r="P21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.5098979582984362</v>
+      </c>
+      <c r="Q21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.5098979582984362</v>
+      </c>
+      <c r="R21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.23451005108153972</v>
+      </c>
+      <c r="S21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.23451005108153969</v>
+      </c>
+      <c r="T21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.43157633325443445</v>
+      </c>
+      <c r="U21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.88651219936812786</v>
+      </c>
+      <c r="V21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.50947674602941062</v>
+      </c>
+      <c r="W21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.47529094618010981</v>
+      </c>
+      <c r="X21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.26325899955290272</v>
+      </c>
+      <c r="Y21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.46292312454727308</v>
+      </c>
+      <c r="Z21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.58594198917492124</v>
+      </c>
+      <c r="AA21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.62758854593497715</v>
+      </c>
+      <c r="AB21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.62758854593497704</v>
+      </c>
+      <c r="AC21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.5345992600822721</v>
+      </c>
+      <c r="AD21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.55897004123762328</v>
+      </c>
+      <c r="AE21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.64830051470236283</v>
+      </c>
+      <c r="AF21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.53626264287698355</v>
+      </c>
+      <c r="AG21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.59263448720005796</v>
+      </c>
+      <c r="AH21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.72260751796789502</v>
+      </c>
+      <c r="AI21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.51576826805629072</v>
+      </c>
+      <c r="AJ21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.77849961486497987</v>
+      </c>
+      <c r="AK21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.54478498328640645</v>
+      </c>
+      <c r="AL21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.70879967091355367</v>
+      </c>
+      <c r="AM21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.66636511287649525</v>
+      </c>
+      <c r="AN21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.67876664369572703</v>
+      </c>
+      <c r="AO21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.73515442668612263</v>
+      </c>
+      <c r="AP21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.61293326763077027</v>
+      </c>
+      <c r="AQ21" s="105">
+        <f t="shared" si="1"/>
+        <v>0.71505033148246211</v>
+      </c>
+      <c r="AR21" s="105" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B22" s="24" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C22" s="107">
+        <f>$C$11/C21</f>
+        <v>0.27512235295574561</v>
+      </c>
+      <c r="D22" s="107" t="e">
+        <f t="shared" ref="D22:AR22" si="2">$C$11/D21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.16941075759773236</v>
+      </c>
+      <c r="F22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.14274868300445248</v>
+      </c>
+      <c r="G22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.16879238534719304</v>
+      </c>
+      <c r="H22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.32672320528580467</v>
+      </c>
+      <c r="I22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.20276303626342113</v>
+      </c>
+      <c r="J22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.23507248525309113</v>
+      </c>
+      <c r="K22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.2492318656190286</v>
+      </c>
+      <c r="L22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.2197738834888649</v>
+      </c>
+      <c r="M22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.12961556869866192</v>
+      </c>
+      <c r="N22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.12961556869866189</v>
+      </c>
+      <c r="O22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.25582569355365231</v>
+      </c>
+      <c r="P22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.16787672632707326</v>
+      </c>
+      <c r="Q22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.16787672632707326</v>
+      </c>
+      <c r="R22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.36501633770160524</v>
+      </c>
+      <c r="S22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.3650163377016053</v>
+      </c>
+      <c r="T22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.19834266479467674</v>
+      </c>
+      <c r="U22" s="107">
+        <f t="shared" si="2"/>
+        <v>9.6558174902739546E-2</v>
+      </c>
+      <c r="V22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.16801551919124991</v>
+      </c>
+      <c r="W22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.18010021164502085</v>
+      </c>
+      <c r="X22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.32515507597224008</v>
+      </c>
+      <c r="Y22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.1849119118508383</v>
+      </c>
+      <c r="Z22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.14608954739791796</v>
+      </c>
+      <c r="AA22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.13639509604572803</v>
+      </c>
+      <c r="AB22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.13639509604572803</v>
+      </c>
+      <c r="AC22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.16011993729064755</v>
+      </c>
+      <c r="AD22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.15313879758291135</v>
+      </c>
+      <c r="AE22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.13203753206844093</v>
+      </c>
+      <c r="AF22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.1596232762751596</v>
+      </c>
+      <c r="AG22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.14443978851859099</v>
+      </c>
+      <c r="AH22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.1184598801860281</v>
+      </c>
+      <c r="AI22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.1659660070259647</v>
+      </c>
+      <c r="AJ22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.10995509614329886</v>
+      </c>
+      <c r="AK22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.15712621057140636</v>
+      </c>
+      <c r="AL22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.12076755042743227</v>
+      </c>
+      <c r="AM22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.12845810554290704</v>
+      </c>
+      <c r="AN22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.12611108809638588</v>
+      </c>
+      <c r="AO22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.11643812088007366</v>
+      </c>
+      <c r="AP22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.13965631255565208</v>
+      </c>
+      <c r="AQ22" s="107">
+        <f t="shared" si="2"/>
+        <v>0.11971185276221286</v>
+      </c>
+      <c r="AR22" s="107" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AQ3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AQ11" sqref="AQ11"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AQ3" sqref="AQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14044,172 +15228,170 @@
         <v>104</v>
       </c>
       <c r="B2" s="16">
-        <f>'OECD VAL'!C10/SUM('OECD VAL'!C9:C11)+'OECD VAL'!C27</f>
-        <v>0.23782102475456321</v>
+        <f>'CA calcs'!C22</f>
+        <v>0.27512235295574561</v>
       </c>
       <c r="C2" s="70">
-        <f>('OECD VAL'!$D$10*'Split ISIC Code Shares'!B$4)/SUMPRODUCT('OECD VAL'!$D$9:$D$11,'Split ISIC Code Shares'!B$3:B$5)+'OECD VAL'!D27</f>
-        <v>0.14762185267713707</v>
+        <v>0</v>
       </c>
       <c r="D2" s="71">
-        <f>('OECD VAL'!$D$10*'Split ISIC Code Shares'!C$4)/SUMPRODUCT('OECD VAL'!$D$9:$D$11,'Split ISIC Code Shares'!C$3:C$5)+'OECD VAL'!D26</f>
-        <v>0.10511453602057504</v>
+        <f>'CA calcs'!E22</f>
+        <v>0.16941075759773236</v>
       </c>
       <c r="E2" s="16">
-        <f>'OECD VAL'!E10/SUM('OECD VAL'!E9:E11)+'OECD VAL'!E27</f>
-        <v>0.17430939273476981</v>
+        <f>'CA calcs'!F22</f>
+        <v>0.14274868300445248</v>
       </c>
       <c r="F2" s="16">
-        <f>'OECD VAL'!F10/SUM('OECD VAL'!F9:F11)+'OECD VAL'!F27</f>
-        <v>0.16700495354724848</v>
+        <f>'CA calcs'!G22</f>
+        <v>0.16879238534719304</v>
       </c>
       <c r="G2" s="16">
-        <f>'OECD VAL'!G10/SUM('OECD VAL'!G9:G11)+'OECD VAL'!G27</f>
-        <v>0.31479605534050886</v>
+        <f>'CA calcs'!H22</f>
+        <v>0.32672320528580467</v>
       </c>
       <c r="H2" s="16">
-        <f>'OECD VAL'!H10/SUM('OECD VAL'!H9:H11)+'OECD VAL'!H27</f>
-        <v>0.26800522569274809</v>
+        <f>'CA calcs'!I22</f>
+        <v>0.20276303626342113</v>
       </c>
       <c r="I2" s="16">
-        <f>'OECD VAL'!I10/SUM('OECD VAL'!I9:I11)+'OECD VAL'!I27</f>
-        <v>0.27768248350742164</v>
+        <f>'CA calcs'!J22</f>
+        <v>0.23507248525309113</v>
       </c>
       <c r="J2" s="16">
-        <f>'OECD VAL'!J10/SUM('OECD VAL'!J9:J11)+'OECD VAL'!J27</f>
-        <v>0.23490290578974543</v>
+        <f>'CA calcs'!K22</f>
+        <v>0.2492318656190286</v>
       </c>
       <c r="K2" s="16">
-        <f>'OECD VAL'!K10/SUM('OECD VAL'!K9:K11)+'OECD VAL'!K27</f>
-        <v>0.25338560479280725</v>
+        <f>'CA calcs'!L22</f>
+        <v>0.2197738834888649</v>
       </c>
       <c r="L2" s="70">
-        <f>('OECD VAL'!$L$10*'Split ISIC Code Shares'!D$4)/SUMPRODUCT('OECD VAL'!$L$9:$L$11,'Split ISIC Code Shares'!D$3:D$5)+'OECD VAL'!L27</f>
-        <v>0.19149661271808732</v>
+        <f>'CA calcs'!M22</f>
+        <v>0.12961556869866192</v>
       </c>
       <c r="M2" s="71">
-        <f>('OECD VAL'!$L$10*'Split ISIC Code Shares'!E$4)/SUMPRODUCT('OECD VAL'!$L$9:$L$11,'Split ISIC Code Shares'!E$3:E$5)+'OECD VAL'!L27</f>
-        <v>0.19149661271808732</v>
+        <f>'CA calcs'!N22</f>
+        <v>0.12961556869866189</v>
       </c>
       <c r="N2" s="16">
-        <f>'OECD VAL'!M10/SUM('OECD VAL'!M9:M11)+'OECD VAL'!M27</f>
-        <v>0.23862013649740155</v>
+        <f>'CA calcs'!O22</f>
+        <v>0.25582569355365231</v>
       </c>
       <c r="O2" s="70">
-        <f>('OECD VAL'!$N$10*'Split ISIC Code Shares'!F$4)/SUMPRODUCT('OECD VAL'!$N$9:$N$11,'Split ISIC Code Shares'!F$3:F$5)+'OECD VAL'!N27</f>
-        <v>0.20281760830108955</v>
+        <f>'CA calcs'!P22</f>
+        <v>0.16787672632707326</v>
       </c>
       <c r="P2" s="71">
-        <f>('OECD VAL'!$N$10*'Split ISIC Code Shares'!G$4)/SUMPRODUCT('OECD VAL'!$N$9:$N$11,'Split ISIC Code Shares'!G$3:G$5)+'OECD VAL'!N27</f>
-        <v>0.20281760830108955</v>
+        <f>'CA calcs'!Q22</f>
+        <v>0.16787672632707326</v>
       </c>
       <c r="Q2" s="70">
-        <f>('OECD VAL'!$O$10*'Split ISIC Code Shares'!H$4)/SUMPRODUCT('OECD VAL'!$O$9:$O$11,'Split ISIC Code Shares'!H$3:H$5)+'OECD VAL'!O27</f>
-        <v>0.34710792392200984</v>
+        <f>'CA calcs'!R22</f>
+        <v>0.36501633770160524</v>
       </c>
       <c r="R2" s="71">
-        <f>('OECD VAL'!$O$10*'Split ISIC Code Shares'!I$4)/SUMPRODUCT('OECD VAL'!$O$9:$O$11,'Split ISIC Code Shares'!I$3:I$5)+'OECD VAL'!O27</f>
-        <v>0.34710792392200984</v>
+        <f>'CA calcs'!S22</f>
+        <v>0.3650163377016053</v>
       </c>
       <c r="S2" s="16">
-        <f>'OECD VAL'!P10/SUM('OECD VAL'!P9:P11)+'OECD VAL'!P27</f>
-        <v>0.20712831714804453</v>
+        <f>'CA calcs'!T22</f>
+        <v>0.19834266479467674</v>
       </c>
       <c r="T2" s="16">
-        <f>'OECD VAL'!Q10/SUM('OECD VAL'!Q9:Q11)+'OECD VAL'!Q27</f>
-        <v>0.12831157733148474</v>
+        <f>'CA calcs'!U22</f>
+        <v>9.6558174902739546E-2</v>
       </c>
       <c r="U2" s="16">
-        <f>'OECD VAL'!R10/SUM('OECD VAL'!R9:R11)+'OECD VAL'!R27</f>
-        <v>0.18694683265149578</v>
+        <f>'CA calcs'!V22</f>
+        <v>0.16801551919124991</v>
       </c>
       <c r="V2" s="16">
-        <f>'OECD VAL'!S10/SUM('OECD VAL'!S9:S11)+'OECD VAL'!S27</f>
-        <v>0.216680748590449</v>
+        <f>'CA calcs'!W22</f>
+        <v>0.18010021164502085</v>
       </c>
       <c r="W2" s="16">
-        <f>'OECD VAL'!T10/SUM('OECD VAL'!T9:T11)+'OECD VAL'!T27</f>
-        <v>0.3300281649537703</v>
+        <f>'CA calcs'!X22</f>
+        <v>0.32515507597224008</v>
       </c>
       <c r="X2" s="16">
-        <f>'OECD VAL'!U10/SUM('OECD VAL'!U9:U11)+'OECD VAL'!U27</f>
-        <v>0.20526837362689793</v>
+        <f>'CA calcs'!Y22</f>
+        <v>0.1849119118508383</v>
       </c>
       <c r="Y2" s="16">
-        <f>'OECD VAL'!V10/SUM('OECD VAL'!V9:V11)+'OECD VAL'!V27</f>
-        <v>0.18324969975146921</v>
+        <f>'CA calcs'!Z22</f>
+        <v>0.14608954739791796</v>
       </c>
       <c r="Z2" s="70">
-        <f>('OECD VAL'!$W$10*'Split ISIC Code Shares'!J$4)/SUMPRODUCT('OECD VAL'!$W$9:$W$11,'Split ISIC Code Shares'!J$3:J$5)+'OECD VAL'!W27</f>
-        <v>0.24986806647846821</v>
+        <f>'CA calcs'!AA22</f>
+        <v>0.13639509604572803</v>
       </c>
       <c r="AA2" s="72">
-        <f>('OECD VAL'!$W$10*'Split ISIC Code Shares'!K$4)/SUMPRODUCT('OECD VAL'!$W$9:$W$11,'Split ISIC Code Shares'!K$3:K$5)+'OECD VAL'!W27</f>
-        <v>0.24986806647846824</v>
+        <f>'CA calcs'!AB22</f>
+        <v>0.13639509604572803</v>
       </c>
       <c r="AB2" s="71">
-        <f>('OECD VAL'!$W$10*'Split ISIC Code Shares'!L$4)/SUMPRODUCT('OECD VAL'!$W$9:$W$11,'Split ISIC Code Shares'!L$3:L$5)+'OECD VAL'!W27</f>
-        <v>0.24986806647846824</v>
+        <f>'CA calcs'!AC22</f>
+        <v>0.16011993729064755</v>
       </c>
       <c r="AC2" s="16">
-        <f>'OECD VAL'!X10/SUM('OECD VAL'!X9:X11)+'OECD VAL'!X27</f>
-        <v>0.14815078705954157</v>
+        <f>'CA calcs'!AD22</f>
+        <v>0.15313879758291135</v>
       </c>
       <c r="AD2" s="16">
-        <f>'OECD VAL'!Y10/SUM('OECD VAL'!Y9:Y11)+'OECD VAL'!Y27</f>
-        <v>0.15055286902993831</v>
+        <f>'CA calcs'!AE22</f>
+        <v>0.13203753206844093</v>
       </c>
       <c r="AE2" s="16">
-        <f>'OECD VAL'!Z10/SUM('OECD VAL'!Z9:Z11)+'OECD VAL'!Z27</f>
-        <v>0.17116254377352147</v>
+        <f>'CA calcs'!AF22</f>
+        <v>0.1596232762751596</v>
       </c>
       <c r="AF2" s="16">
-        <f>'OECD VAL'!AA10/SUM('OECD VAL'!AA9:AA11)+'OECD VAL'!AA27</f>
-        <v>0.19094214309285154</v>
+        <f>'CA calcs'!AG22</f>
+        <v>0.14443978851859099</v>
       </c>
       <c r="AG2" s="16">
-        <f>'OECD VAL'!AB10/SUM('OECD VAL'!AB9:AB11)+'OECD VAL'!AB27</f>
-        <v>0.13292517869836845</v>
+        <f>'CA calcs'!AH22</f>
+        <v>0.1184598801860281</v>
       </c>
       <c r="AH2" s="16">
-        <f>'OECD VAL'!AC10/SUM('OECD VAL'!AC9:AC11)+'OECD VAL'!AC27</f>
-        <v>0.20111921009484451</v>
+        <f>'CA calcs'!AI22</f>
+        <v>0.1659660070259647</v>
       </c>
       <c r="AI2" s="16">
-        <f>'OECD VAL'!AD10/SUM('OECD VAL'!AD9:AD11)+'OECD VAL'!AD27</f>
-        <v>0.12523557598380824</v>
+        <f>'CA calcs'!AJ22</f>
+        <v>0.10995509614329886</v>
       </c>
       <c r="AJ2" s="16">
-        <f>'OECD VAL'!AE10/SUM('OECD VAL'!AE9:AE11)+'OECD VAL'!AE27</f>
-        <v>0.16083739299446248</v>
+        <f>'CA calcs'!AK22</f>
+        <v>0.15712621057140636</v>
       </c>
       <c r="AK2" s="16">
-        <f>'OECD VAL'!AF10/SUM('OECD VAL'!AF9:AF11)+'OECD VAL'!AF27</f>
-        <v>0.21320666123779475</v>
+        <f>'CA calcs'!AL22</f>
+        <v>0.12076755042743227</v>
       </c>
       <c r="AL2" s="16">
-        <f>'OECD VAL'!AG10/SUM('OECD VAL'!AG9:AG11)+'OECD VAL'!AG27</f>
-        <v>0.13825457031442603</v>
+        <f>'CA calcs'!AM22</f>
+        <v>0.12845810554290704</v>
       </c>
       <c r="AM2" s="16">
-        <f>'OECD VAL'!AH10/SUM('OECD VAL'!AH9:AH11)+'OECD VAL'!AH27</f>
-        <v>0.12901692469236728</v>
+        <f>'CA calcs'!AN22</f>
+        <v>0.12611108809638588</v>
       </c>
       <c r="AN2" s="16">
-        <f>'OECD VAL'!AI10/SUM('OECD VAL'!AI9:AI11)+'OECD VAL'!AI27</f>
-        <v>0.13793839800879529</v>
+        <f>'CA calcs'!AO22</f>
+        <v>0.11643812088007366</v>
       </c>
       <c r="AO2" s="16">
-        <f>'OECD VAL'!AJ10/SUM('OECD VAL'!AJ9:AJ11)+'OECD VAL'!AJ27</f>
-        <v>0.14750498892107938</v>
+        <f>'CA calcs'!AP22</f>
+        <v>0.13965631255565208</v>
       </c>
       <c r="AP2" s="16">
-        <f>'OECD VAL'!AK10/SUM('OECD VAL'!AK9:AK11)+'OECD VAL'!AK27</f>
-        <v>0.15817441029566065</v>
+        <f>'CA calcs'!AQ22</f>
+        <v>0.11971185276221286</v>
       </c>
       <c r="AQ2" s="16">
-        <f>'OECD VAL'!AL10/SUM('OECD VAL'!AL9:AL11)+'OECD VAL'!AL27</f>
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
